--- a/data/base/共通ED標準仕様書付表４識別コード定義表ver.4.1_r1_20230201.xlsx
+++ b/data/base/共通ED標準仕様書付表４識別コード定義表ver.4.1_r1_20230201.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nobuy\GitHub\Japan_core\data\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F0AD6D9-8C0C-4F9D-89F5-C86D0E0E6B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA47DCD0-FBF4-4E72-AC35-F202DCB824F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="1035" windowWidth="27090" windowHeight="15165" firstSheet="6" activeTab="13" xr2:uid="{E35C30E7-0440-4B6A-8C00-5E00329CFB3A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="14" xr2:uid="{E35C30E7-0440-4B6A-8C00-5E00329CFB3A}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -247,8 +247,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="23">支払条件タイプコード!$B$1:$G$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">改定履歴!$A$1:$E$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="38">数量単位コード!$B$1:$G$9</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">文書サブタイプコード!$A$1:$T$65</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">文書タイプコード!$B$1:$G$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">文書サブタイプコード!$A$1:$U$67</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">文書タイプコード!$A$1:$T$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">'文書目的コード '!$B$1:$G$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">明細行一覧!$A$1:$Q$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="31">'明細行状態コード '!$B$1:$G$10</definedName>
@@ -15955,6 +15955,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -15963,15 +16008,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="82" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -15981,21 +16017,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -16020,51 +16062,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="82" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="83" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="61" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -16080,16 +16092,43 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="81" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="83" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="69" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -16155,45 +16194,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="46" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="47" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="51" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="53" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="20" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="52" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="69" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="48" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -16344,12 +16344,234 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -16359,227 +16581,125 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="53" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="34" fillId="0" borderId="54" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="35" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="46" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="48" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="51" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="54" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="32" fillId="3" borderId="27" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="3" borderId="28" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="3" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="62" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="47" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="48" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="60" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="68" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="54" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="19" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="44" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="15" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="41" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="0" borderId="37" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="16" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -16611,129 +16731,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="14" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="25" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="18" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="15" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="26" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="13" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="52" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="53" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="34" fillId="0" borderId="54" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="24" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="35" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="11" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="46" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="48" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="51" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="54" xfId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="3" borderId="27" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="3" borderId="28" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="3" borderId="20" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="62" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="47" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="48" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="25" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="67" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="45" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="42" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="68" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="19" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="18" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="44" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="15" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="41" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="6" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="32" fillId="0" borderId="37" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -16752,62 +16752,62 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="44" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="41" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="37" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -18398,45 +18398,45 @@
     </row>
     <row r="7" spans="1:23" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="972" t="s">
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="976" t="s">
+      <c r="D8" s="955" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="979"/>
-      <c r="F8" s="977"/>
-      <c r="G8" s="978" t="s">
+      <c r="E8" s="958"/>
+      <c r="F8" s="956"/>
+      <c r="G8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -19563,45 +19563,45 @@
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="968" t="s">
+      <c r="B8" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="981"/>
-      <c r="D8" s="973" t="s">
+      <c r="D8" s="952" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="973"/>
-      <c r="F8" s="973"/>
-      <c r="G8" s="973"/>
-      <c r="H8" s="973"/>
-      <c r="I8" s="974"/>
-      <c r="J8" s="975" t="s">
+      <c r="E8" s="952"/>
+      <c r="F8" s="952"/>
+      <c r="G8" s="952"/>
+      <c r="H8" s="952"/>
+      <c r="I8" s="953"/>
+      <c r="J8" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="925"/>
-      <c r="L8" s="925"/>
-      <c r="M8" s="925"/>
-      <c r="N8" s="925"/>
-      <c r="O8" s="925"/>
-      <c r="P8" s="925"/>
-      <c r="Q8" s="925"/>
-      <c r="R8" s="925"/>
-      <c r="S8" s="925"/>
-      <c r="T8" s="942"/>
+      <c r="K8" s="906"/>
+      <c r="L8" s="906"/>
+      <c r="M8" s="906"/>
+      <c r="N8" s="906"/>
+      <c r="O8" s="906"/>
+      <c r="P8" s="906"/>
+      <c r="Q8" s="906"/>
+      <c r="R8" s="906"/>
+      <c r="S8" s="906"/>
+      <c r="T8" s="946"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B9" s="970"/>
+      <c r="B9" s="949"/>
       <c r="C9" s="982"/>
-      <c r="D9" s="979" t="s">
+      <c r="D9" s="958" t="s">
         <v>619</v>
       </c>
-      <c r="E9" s="979"/>
-      <c r="F9" s="977"/>
-      <c r="G9" s="978" t="s">
+      <c r="E9" s="958"/>
+      <c r="F9" s="956"/>
+      <c r="G9" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="979"/>
-      <c r="I9" s="980"/>
+      <c r="H9" s="958"/>
+      <c r="I9" s="959"/>
       <c r="J9" s="274" t="s">
         <v>34</v>
       </c>
@@ -20762,45 +20762,45 @@
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="968" t="s">
+      <c r="B8" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="981"/>
-      <c r="D8" s="973" t="s">
+      <c r="D8" s="952" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="973"/>
-      <c r="F8" s="973"/>
-      <c r="G8" s="973"/>
-      <c r="H8" s="973"/>
-      <c r="I8" s="974"/>
-      <c r="J8" s="975" t="s">
+      <c r="E8" s="952"/>
+      <c r="F8" s="952"/>
+      <c r="G8" s="952"/>
+      <c r="H8" s="952"/>
+      <c r="I8" s="953"/>
+      <c r="J8" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="925"/>
-      <c r="L8" s="925"/>
-      <c r="M8" s="925"/>
-      <c r="N8" s="925"/>
-      <c r="O8" s="925"/>
-      <c r="P8" s="925"/>
-      <c r="Q8" s="925"/>
-      <c r="R8" s="925"/>
-      <c r="S8" s="925"/>
-      <c r="T8" s="942"/>
+      <c r="K8" s="906"/>
+      <c r="L8" s="906"/>
+      <c r="M8" s="906"/>
+      <c r="N8" s="906"/>
+      <c r="O8" s="906"/>
+      <c r="P8" s="906"/>
+      <c r="Q8" s="906"/>
+      <c r="R8" s="906"/>
+      <c r="S8" s="906"/>
+      <c r="T8" s="946"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B9" s="970"/>
+      <c r="B9" s="949"/>
       <c r="C9" s="982"/>
-      <c r="D9" s="979" t="s">
+      <c r="D9" s="958" t="s">
         <v>543</v>
       </c>
-      <c r="E9" s="979"/>
-      <c r="F9" s="977"/>
-      <c r="G9" s="978" t="s">
+      <c r="E9" s="958"/>
+      <c r="F9" s="956"/>
+      <c r="G9" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="979"/>
-      <c r="I9" s="980"/>
+      <c r="H9" s="958"/>
+      <c r="I9" s="959"/>
       <c r="J9" s="274" t="s">
         <v>34</v>
       </c>
@@ -21936,46 +21936,46 @@
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="968" t="s">
+      <c r="B8" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="981"/>
-      <c r="D8" s="973" t="s">
+      <c r="D8" s="952" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="973"/>
-      <c r="F8" s="973"/>
-      <c r="G8" s="973"/>
-      <c r="H8" s="973"/>
-      <c r="I8" s="974"/>
-      <c r="J8" s="975" t="s">
+      <c r="E8" s="952"/>
+      <c r="F8" s="952"/>
+      <c r="G8" s="952"/>
+      <c r="H8" s="952"/>
+      <c r="I8" s="953"/>
+      <c r="J8" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="925"/>
-      <c r="L8" s="925"/>
-      <c r="M8" s="925"/>
-      <c r="N8" s="925"/>
-      <c r="O8" s="925"/>
-      <c r="P8" s="925"/>
-      <c r="Q8" s="925"/>
-      <c r="R8" s="925"/>
-      <c r="S8" s="925"/>
-      <c r="T8" s="942"/>
+      <c r="K8" s="906"/>
+      <c r="L8" s="906"/>
+      <c r="M8" s="906"/>
+      <c r="N8" s="906"/>
+      <c r="O8" s="906"/>
+      <c r="P8" s="906"/>
+      <c r="Q8" s="906"/>
+      <c r="R8" s="906"/>
+      <c r="S8" s="906"/>
+      <c r="T8" s="946"/>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="970"/>
+      <c r="B9" s="949"/>
       <c r="C9" s="982"/>
-      <c r="D9" s="976" t="s">
+      <c r="D9" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E9" s="977"/>
-      <c r="F9" s="978" t="s">
+      <c r="E9" s="956"/>
+      <c r="F9" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="979"/>
-      <c r="H9" s="979"/>
-      <c r="I9" s="980"/>
+      <c r="G9" s="958"/>
+      <c r="H9" s="958"/>
+      <c r="I9" s="959"/>
       <c r="J9" s="274" t="s">
         <v>34</v>
       </c>
@@ -22510,6 +22510,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="J8:T8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:I9"/>
     <mergeCell ref="E28:H28"/>
     <mergeCell ref="B15:C28"/>
     <mergeCell ref="E22:H22"/>
@@ -22525,11 +22530,6 @@
     <mergeCell ref="E20:H20"/>
     <mergeCell ref="E21:H21"/>
     <mergeCell ref="E15:H15"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J8:T8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22545,8 +22545,8 @@
   </sheetPr>
   <dimension ref="A1:AG226"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O68" sqref="O68"/>
+    <sheetView topLeftCell="A43" zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T62" sqref="A1:T62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -22633,45 +22633,45 @@
     </row>
     <row r="7" spans="1:32" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="1045" t="s">
+      <c r="B7" s="1066" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="1046"/>
-      <c r="D7" s="973" t="s">
+      <c r="C7" s="1067"/>
+      <c r="D7" s="952" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:32" ht="15.75" thickBot="1">
-      <c r="B8" s="1047"/>
-      <c r="C8" s="1048"/>
-      <c r="D8" s="979" t="s">
+      <c r="B8" s="1068"/>
+      <c r="C8" s="1069"/>
+      <c r="D8" s="958" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="979"/>
-      <c r="F8" s="977"/>
-      <c r="G8" s="978" t="s">
+      <c r="E8" s="958"/>
+      <c r="F8" s="956"/>
+      <c r="G8" s="957" t="s">
         <v>542</v>
       </c>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -22709,16 +22709,16 @@
         <v>50</v>
       </c>
       <c r="C9" s="408"/>
-      <c r="D9" s="1065" t="s">
+      <c r="D9" s="1079" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="1066"/>
-      <c r="F9" s="1066"/>
-      <c r="G9" s="1069" t="s">
+      <c r="E9" s="1080"/>
+      <c r="F9" s="1080"/>
+      <c r="G9" s="1083" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="1069"/>
-      <c r="I9" s="1070"/>
+      <c r="H9" s="1083"/>
+      <c r="I9" s="1084"/>
       <c r="J9" s="276" t="s">
         <v>832</v>
       </c>
@@ -22740,12 +22740,12 @@
         <v>51</v>
       </c>
       <c r="C10" s="409"/>
-      <c r="D10" s="1067"/>
-      <c r="E10" s="1068"/>
-      <c r="F10" s="1068"/>
-      <c r="G10" s="1071"/>
-      <c r="H10" s="1071"/>
-      <c r="I10" s="1072"/>
+      <c r="D10" s="1081"/>
+      <c r="E10" s="1082"/>
+      <c r="F10" s="1082"/>
+      <c r="G10" s="1085"/>
+      <c r="H10" s="1085"/>
+      <c r="I10" s="1086"/>
       <c r="J10" s="277"/>
       <c r="K10" s="74"/>
       <c r="L10" s="74" t="s">
@@ -22765,12 +22765,12 @@
         <v>52</v>
       </c>
       <c r="C11" s="409"/>
-      <c r="D11" s="1067"/>
-      <c r="E11" s="1068"/>
-      <c r="F11" s="1068"/>
-      <c r="G11" s="1071"/>
-      <c r="H11" s="1071"/>
-      <c r="I11" s="1072"/>
+      <c r="D11" s="1081"/>
+      <c r="E11" s="1082"/>
+      <c r="F11" s="1082"/>
+      <c r="G11" s="1085"/>
+      <c r="H11" s="1085"/>
+      <c r="I11" s="1086"/>
       <c r="J11" s="277"/>
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
@@ -22790,12 +22790,12 @@
         <v>53</v>
       </c>
       <c r="C12" s="409"/>
-      <c r="D12" s="1067"/>
-      <c r="E12" s="1068"/>
-      <c r="F12" s="1068"/>
-      <c r="G12" s="1071"/>
-      <c r="H12" s="1071"/>
-      <c r="I12" s="1072"/>
+      <c r="D12" s="1081"/>
+      <c r="E12" s="1082"/>
+      <c r="F12" s="1082"/>
+      <c r="G12" s="1085"/>
+      <c r="H12" s="1085"/>
+      <c r="I12" s="1086"/>
       <c r="J12" s="277"/>
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
@@ -22815,12 +22815,12 @@
         <v>11</v>
       </c>
       <c r="C13" s="409"/>
-      <c r="D13" s="1067"/>
-      <c r="E13" s="1068"/>
-      <c r="F13" s="1068"/>
-      <c r="G13" s="1071"/>
-      <c r="H13" s="1071"/>
-      <c r="I13" s="1072"/>
+      <c r="D13" s="1081"/>
+      <c r="E13" s="1082"/>
+      <c r="F13" s="1082"/>
+      <c r="G13" s="1085"/>
+      <c r="H13" s="1085"/>
+      <c r="I13" s="1086"/>
       <c r="J13" s="277"/>
       <c r="K13" s="74"/>
       <c r="L13" s="74"/>
@@ -22842,12 +22842,12 @@
         <v>54</v>
       </c>
       <c r="C14" s="409"/>
-      <c r="D14" s="1067"/>
-      <c r="E14" s="1068"/>
-      <c r="F14" s="1068"/>
-      <c r="G14" s="1071"/>
-      <c r="H14" s="1071"/>
-      <c r="I14" s="1072"/>
+      <c r="D14" s="1081"/>
+      <c r="E14" s="1082"/>
+      <c r="F14" s="1082"/>
+      <c r="G14" s="1085"/>
+      <c r="H14" s="1085"/>
+      <c r="I14" s="1086"/>
       <c r="J14" s="277"/>
       <c r="K14" s="74"/>
       <c r="L14" s="74"/>
@@ -22867,12 +22867,12 @@
         <v>55</v>
       </c>
       <c r="C15" s="409"/>
-      <c r="D15" s="1067"/>
-      <c r="E15" s="1068"/>
-      <c r="F15" s="1068"/>
-      <c r="G15" s="1071"/>
-      <c r="H15" s="1071"/>
-      <c r="I15" s="1072"/>
+      <c r="D15" s="1081"/>
+      <c r="E15" s="1082"/>
+      <c r="F15" s="1082"/>
+      <c r="G15" s="1085"/>
+      <c r="H15" s="1085"/>
+      <c r="I15" s="1086"/>
       <c r="J15" s="277"/>
       <c r="K15" s="74"/>
       <c r="L15" s="74"/>
@@ -22899,11 +22899,11 @@
       </c>
       <c r="E16" s="217"/>
       <c r="F16" s="221"/>
-      <c r="G16" s="1073" t="s">
+      <c r="G16" s="1087" t="s">
         <v>86</v>
       </c>
-      <c r="H16" s="1073"/>
-      <c r="I16" s="1074"/>
+      <c r="H16" s="1087"/>
+      <c r="I16" s="1088"/>
       <c r="J16" s="439" t="s">
         <v>832</v>
       </c>
@@ -23001,86 +23001,86 @@
       <c r="B21" s="336">
         <v>758</v>
       </c>
-      <c r="C21" s="1079" t="s">
+      <c r="C21" s="1093" t="s">
         <v>1378</v>
       </c>
-      <c r="D21" s="1080"/>
-      <c r="E21" s="1081"/>
-      <c r="F21" s="1079" t="s">
+      <c r="D21" s="1094"/>
+      <c r="E21" s="1095"/>
+      <c r="F21" s="1093" t="s">
         <v>1379</v>
       </c>
-      <c r="G21" s="1080"/>
-      <c r="H21" s="1080"/>
-      <c r="I21" s="1080"/>
-      <c r="J21" s="1080"/>
-      <c r="K21" s="1080"/>
-      <c r="L21" s="1080"/>
-      <c r="M21" s="1080"/>
-      <c r="N21" s="1080"/>
-      <c r="O21" s="1081"/>
-      <c r="P21" s="1082" t="s">
+      <c r="G21" s="1094"/>
+      <c r="H21" s="1094"/>
+      <c r="I21" s="1094"/>
+      <c r="J21" s="1094"/>
+      <c r="K21" s="1094"/>
+      <c r="L21" s="1094"/>
+      <c r="M21" s="1094"/>
+      <c r="N21" s="1094"/>
+      <c r="O21" s="1095"/>
+      <c r="P21" s="1096" t="s">
         <v>1381</v>
       </c>
-      <c r="Q21" s="1083"/>
-      <c r="R21" s="1084"/>
-      <c r="S21" s="1031" t="s">
+      <c r="Q21" s="1097"/>
+      <c r="R21" s="1098"/>
+      <c r="S21" s="1099" t="s">
         <v>1380</v>
       </c>
-      <c r="T21" s="1032"/>
+      <c r="T21" s="1100"/>
       <c r="X21" s="25"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="B22" s="1051">
+      <c r="B22" s="1050">
         <v>315</v>
       </c>
-      <c r="C22" s="1053" t="s">
+      <c r="C22" s="1041" t="s">
         <v>182</v>
       </c>
-      <c r="D22" s="1054"/>
-      <c r="E22" s="1055"/>
+      <c r="D22" s="1042"/>
+      <c r="E22" s="1043"/>
       <c r="F22" s="994" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="1049"/>
-      <c r="H22" s="1049"/>
-      <c r="I22" s="1049"/>
-      <c r="J22" s="1049"/>
-      <c r="K22" s="1049"/>
-      <c r="L22" s="1049"/>
-      <c r="M22" s="1049"/>
-      <c r="N22" s="1049"/>
-      <c r="O22" s="1049"/>
-      <c r="P22" s="1059" t="s">
+      <c r="G22" s="1061"/>
+      <c r="H22" s="1061"/>
+      <c r="I22" s="1061"/>
+      <c r="J22" s="1061"/>
+      <c r="K22" s="1061"/>
+      <c r="L22" s="1061"/>
+      <c r="M22" s="1061"/>
+      <c r="N22" s="1061"/>
+      <c r="O22" s="1061"/>
+      <c r="P22" s="1073" t="s">
         <v>184</v>
       </c>
-      <c r="Q22" s="1060"/>
-      <c r="R22" s="1061"/>
-      <c r="S22" s="1075" t="s">
+      <c r="Q22" s="1074"/>
+      <c r="R22" s="1075"/>
+      <c r="S22" s="1089" t="s">
         <v>151</v>
       </c>
-      <c r="T22" s="1076"/>
+      <c r="T22" s="1090"/>
       <c r="X22" s="25"/>
     </row>
     <row r="23" spans="1:24" ht="31.9" customHeight="1" thickBot="1">
-      <c r="B23" s="1052"/>
-      <c r="C23" s="1056"/>
-      <c r="D23" s="1057"/>
-      <c r="E23" s="1058"/>
+      <c r="B23" s="1039"/>
+      <c r="C23" s="1070"/>
+      <c r="D23" s="1071"/>
+      <c r="E23" s="1072"/>
       <c r="F23" s="998"/>
-      <c r="G23" s="1050"/>
-      <c r="H23" s="1050"/>
-      <c r="I23" s="1050"/>
-      <c r="J23" s="1050"/>
-      <c r="K23" s="1050"/>
-      <c r="L23" s="1050"/>
-      <c r="M23" s="1050"/>
-      <c r="N23" s="1050"/>
-      <c r="O23" s="1050"/>
-      <c r="P23" s="1062"/>
-      <c r="Q23" s="1063"/>
-      <c r="R23" s="1064"/>
-      <c r="S23" s="1077"/>
-      <c r="T23" s="1078"/>
+      <c r="G23" s="1040"/>
+      <c r="H23" s="1040"/>
+      <c r="I23" s="1040"/>
+      <c r="J23" s="1040"/>
+      <c r="K23" s="1040"/>
+      <c r="L23" s="1040"/>
+      <c r="M23" s="1040"/>
+      <c r="N23" s="1040"/>
+      <c r="O23" s="1040"/>
+      <c r="P23" s="1076"/>
+      <c r="Q23" s="1077"/>
+      <c r="R23" s="1078"/>
+      <c r="S23" s="1091"/>
+      <c r="T23" s="1092"/>
       <c r="X23" s="25"/>
     </row>
     <row r="24" spans="1:24" ht="17.25">
@@ -23150,18 +23150,18 @@
       </c>
       <c r="D26" s="180"/>
       <c r="E26" s="346"/>
-      <c r="F26" s="1033" t="s">
+      <c r="F26" s="1107" t="s">
         <v>179</v>
       </c>
-      <c r="G26" s="1034"/>
-      <c r="H26" s="1034"/>
-      <c r="I26" s="1034"/>
-      <c r="J26" s="1034"/>
-      <c r="K26" s="1034"/>
-      <c r="L26" s="1034"/>
-      <c r="M26" s="1034"/>
-      <c r="N26" s="1034"/>
-      <c r="O26" s="1035"/>
+      <c r="G26" s="1108"/>
+      <c r="H26" s="1108"/>
+      <c r="I26" s="1108"/>
+      <c r="J26" s="1108"/>
+      <c r="K26" s="1108"/>
+      <c r="L26" s="1108"/>
+      <c r="M26" s="1108"/>
+      <c r="N26" s="1108"/>
+      <c r="O26" s="1109"/>
       <c r="P26" s="675" t="s">
         <v>131</v>
       </c>
@@ -23295,23 +23295,23 @@
       <c r="B31" s="89">
         <v>351</v>
       </c>
-      <c r="C31" s="1085" t="s">
+      <c r="C31" s="1062" t="s">
         <v>1242</v>
       </c>
-      <c r="D31" s="1086"/>
-      <c r="E31" s="1087"/>
-      <c r="F31" s="1091" t="s">
+      <c r="D31" s="1063"/>
+      <c r="E31" s="1064"/>
+      <c r="F31" s="1033" t="s">
         <v>161</v>
       </c>
-      <c r="G31" s="1092"/>
-      <c r="H31" s="1092"/>
-      <c r="I31" s="1092"/>
-      <c r="J31" s="1092"/>
-      <c r="K31" s="1092"/>
-      <c r="L31" s="1092"/>
-      <c r="M31" s="1092"/>
-      <c r="N31" s="1092"/>
-      <c r="O31" s="1093"/>
+      <c r="G31" s="1034"/>
+      <c r="H31" s="1034"/>
+      <c r="I31" s="1034"/>
+      <c r="J31" s="1034"/>
+      <c r="K31" s="1034"/>
+      <c r="L31" s="1034"/>
+      <c r="M31" s="1034"/>
+      <c r="N31" s="1034"/>
+      <c r="O31" s="1035"/>
       <c r="P31" s="91" t="s">
         <v>1171</v>
       </c>
@@ -23325,18 +23325,18 @@
       <c r="B32" s="89">
         <v>351</v>
       </c>
-      <c r="C32" s="1088"/>
-      <c r="D32" s="1089"/>
-      <c r="E32" s="1090"/>
+      <c r="C32" s="1044"/>
+      <c r="D32" s="1045"/>
+      <c r="E32" s="1046"/>
       <c r="F32" s="996"/>
-      <c r="G32" s="1094"/>
-      <c r="H32" s="1094"/>
-      <c r="I32" s="1094"/>
-      <c r="J32" s="1094"/>
-      <c r="K32" s="1094"/>
-      <c r="L32" s="1094"/>
-      <c r="M32" s="1094"/>
-      <c r="N32" s="1094"/>
+      <c r="G32" s="1065"/>
+      <c r="H32" s="1065"/>
+      <c r="I32" s="1065"/>
+      <c r="J32" s="1065"/>
+      <c r="K32" s="1065"/>
+      <c r="L32" s="1065"/>
+      <c r="M32" s="1065"/>
+      <c r="N32" s="1065"/>
       <c r="O32" s="997"/>
       <c r="P32" s="65" t="s">
         <v>122</v>
@@ -23374,26 +23374,26 @@
       <c r="V33" s="2"/>
     </row>
     <row r="34" spans="2:24" ht="17.25">
-      <c r="B34" s="1051">
+      <c r="B34" s="1050">
         <v>389</v>
       </c>
-      <c r="C34" s="1088" t="s">
+      <c r="C34" s="1044" t="s">
         <v>152</v>
       </c>
-      <c r="D34" s="1089"/>
-      <c r="E34" s="1090"/>
-      <c r="F34" s="1088" t="s">
+      <c r="D34" s="1045"/>
+      <c r="E34" s="1046"/>
+      <c r="F34" s="1044" t="s">
         <v>153</v>
       </c>
-      <c r="G34" s="1089"/>
-      <c r="H34" s="1089"/>
-      <c r="I34" s="1089"/>
-      <c r="J34" s="1089"/>
-      <c r="K34" s="1089"/>
-      <c r="L34" s="1089"/>
-      <c r="M34" s="1089"/>
-      <c r="N34" s="1089"/>
-      <c r="O34" s="1090"/>
+      <c r="G34" s="1045"/>
+      <c r="H34" s="1045"/>
+      <c r="I34" s="1045"/>
+      <c r="J34" s="1045"/>
+      <c r="K34" s="1045"/>
+      <c r="L34" s="1045"/>
+      <c r="M34" s="1045"/>
+      <c r="N34" s="1045"/>
+      <c r="O34" s="1046"/>
       <c r="P34" s="91" t="s">
         <v>1147</v>
       </c>
@@ -23407,20 +23407,20 @@
       <c r="X34" s="25"/>
     </row>
     <row r="35" spans="2:24" ht="17.25">
-      <c r="B35" s="1098"/>
-      <c r="C35" s="1095"/>
-      <c r="D35" s="1096"/>
-      <c r="E35" s="1097"/>
-      <c r="F35" s="1095"/>
-      <c r="G35" s="1096"/>
-      <c r="H35" s="1096"/>
-      <c r="I35" s="1096"/>
-      <c r="J35" s="1096"/>
-      <c r="K35" s="1096"/>
-      <c r="L35" s="1096"/>
-      <c r="M35" s="1096"/>
-      <c r="N35" s="1096"/>
-      <c r="O35" s="1097"/>
+      <c r="B35" s="1032"/>
+      <c r="C35" s="1047"/>
+      <c r="D35" s="1048"/>
+      <c r="E35" s="1049"/>
+      <c r="F35" s="1047"/>
+      <c r="G35" s="1048"/>
+      <c r="H35" s="1048"/>
+      <c r="I35" s="1048"/>
+      <c r="J35" s="1048"/>
+      <c r="K35" s="1048"/>
+      <c r="L35" s="1048"/>
+      <c r="M35" s="1048"/>
+      <c r="N35" s="1048"/>
+      <c r="O35" s="1049"/>
       <c r="P35" s="159" t="s">
         <v>111</v>
       </c>
@@ -23543,26 +23543,26 @@
       <c r="X39" s="25"/>
     </row>
     <row r="40" spans="2:24" ht="36.75" customHeight="1">
-      <c r="B40" s="1051">
+      <c r="B40" s="1050">
         <v>380</v>
       </c>
-      <c r="C40" s="1053" t="s">
+      <c r="C40" s="1041" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="1054"/>
-      <c r="E40" s="1055"/>
-      <c r="F40" s="1100" t="s">
+      <c r="D40" s="1042"/>
+      <c r="E40" s="1043"/>
+      <c r="F40" s="1052" t="s">
         <v>1152</v>
       </c>
-      <c r="G40" s="1101"/>
-      <c r="H40" s="1101"/>
-      <c r="I40" s="1101"/>
-      <c r="J40" s="1101"/>
-      <c r="K40" s="1101"/>
-      <c r="L40" s="1101"/>
-      <c r="M40" s="1101"/>
-      <c r="N40" s="1101"/>
-      <c r="O40" s="1102"/>
+      <c r="G40" s="1053"/>
+      <c r="H40" s="1053"/>
+      <c r="I40" s="1053"/>
+      <c r="J40" s="1053"/>
+      <c r="K40" s="1053"/>
+      <c r="L40" s="1053"/>
+      <c r="M40" s="1053"/>
+      <c r="N40" s="1053"/>
+      <c r="O40" s="1054"/>
       <c r="P40" s="328" t="s">
         <v>102</v>
       </c>
@@ -23575,20 +23575,20 @@
       <c r="V40" s="2"/>
     </row>
     <row r="41" spans="2:24" ht="17.649999999999999" customHeight="1">
-      <c r="B41" s="1099"/>
-      <c r="C41" s="1088"/>
-      <c r="D41" s="1089"/>
-      <c r="E41" s="1090"/>
-      <c r="F41" s="1103"/>
-      <c r="G41" s="1104"/>
-      <c r="H41" s="1104"/>
-      <c r="I41" s="1104"/>
-      <c r="J41" s="1104"/>
-      <c r="K41" s="1104"/>
-      <c r="L41" s="1104"/>
-      <c r="M41" s="1104"/>
-      <c r="N41" s="1104"/>
-      <c r="O41" s="1105"/>
+      <c r="B41" s="1051"/>
+      <c r="C41" s="1044"/>
+      <c r="D41" s="1045"/>
+      <c r="E41" s="1046"/>
+      <c r="F41" s="1055"/>
+      <c r="G41" s="1056"/>
+      <c r="H41" s="1056"/>
+      <c r="I41" s="1056"/>
+      <c r="J41" s="1056"/>
+      <c r="K41" s="1056"/>
+      <c r="L41" s="1056"/>
+      <c r="M41" s="1056"/>
+      <c r="N41" s="1056"/>
+      <c r="O41" s="1057"/>
       <c r="P41" s="65" t="s">
         <v>123</v>
       </c>
@@ -23604,20 +23604,20 @@
       </c>
     </row>
     <row r="42" spans="2:24" ht="17.25">
-      <c r="B42" s="1099"/>
-      <c r="C42" s="1088"/>
-      <c r="D42" s="1089"/>
-      <c r="E42" s="1090"/>
-      <c r="F42" s="1103"/>
-      <c r="G42" s="1104"/>
-      <c r="H42" s="1104"/>
-      <c r="I42" s="1104"/>
-      <c r="J42" s="1104"/>
-      <c r="K42" s="1104"/>
-      <c r="L42" s="1104"/>
-      <c r="M42" s="1104"/>
-      <c r="N42" s="1104"/>
-      <c r="O42" s="1105"/>
+      <c r="B42" s="1051"/>
+      <c r="C42" s="1044"/>
+      <c r="D42" s="1045"/>
+      <c r="E42" s="1046"/>
+      <c r="F42" s="1055"/>
+      <c r="G42" s="1056"/>
+      <c r="H42" s="1056"/>
+      <c r="I42" s="1056"/>
+      <c r="J42" s="1056"/>
+      <c r="K42" s="1056"/>
+      <c r="L42" s="1056"/>
+      <c r="M42" s="1056"/>
+      <c r="N42" s="1056"/>
+      <c r="O42" s="1057"/>
       <c r="P42" s="65" t="s">
         <v>104</v>
       </c>
@@ -23628,20 +23628,20 @@
       <c r="V42" s="2"/>
     </row>
     <row r="43" spans="2:24" ht="17.25">
-      <c r="B43" s="1099"/>
-      <c r="C43" s="1088"/>
-      <c r="D43" s="1089"/>
-      <c r="E43" s="1090"/>
-      <c r="F43" s="1103"/>
-      <c r="G43" s="1104"/>
-      <c r="H43" s="1104"/>
-      <c r="I43" s="1104"/>
-      <c r="J43" s="1104"/>
-      <c r="K43" s="1104"/>
-      <c r="L43" s="1104"/>
-      <c r="M43" s="1104"/>
-      <c r="N43" s="1104"/>
-      <c r="O43" s="1105"/>
+      <c r="B43" s="1051"/>
+      <c r="C43" s="1044"/>
+      <c r="D43" s="1045"/>
+      <c r="E43" s="1046"/>
+      <c r="F43" s="1055"/>
+      <c r="G43" s="1056"/>
+      <c r="H43" s="1056"/>
+      <c r="I43" s="1056"/>
+      <c r="J43" s="1056"/>
+      <c r="K43" s="1056"/>
+      <c r="L43" s="1056"/>
+      <c r="M43" s="1056"/>
+      <c r="N43" s="1056"/>
+      <c r="O43" s="1057"/>
       <c r="P43" s="65" t="s">
         <v>105</v>
       </c>
@@ -23653,20 +23653,20 @@
       <c r="X43" s="25"/>
     </row>
     <row r="44" spans="2:24" ht="17.25">
-      <c r="B44" s="1099"/>
-      <c r="C44" s="1088"/>
-      <c r="D44" s="1089"/>
-      <c r="E44" s="1090"/>
-      <c r="F44" s="1103"/>
-      <c r="G44" s="1104"/>
-      <c r="H44" s="1104"/>
-      <c r="I44" s="1104"/>
-      <c r="J44" s="1104"/>
-      <c r="K44" s="1104"/>
-      <c r="L44" s="1104"/>
-      <c r="M44" s="1104"/>
-      <c r="N44" s="1104"/>
-      <c r="O44" s="1105"/>
+      <c r="B44" s="1051"/>
+      <c r="C44" s="1044"/>
+      <c r="D44" s="1045"/>
+      <c r="E44" s="1046"/>
+      <c r="F44" s="1055"/>
+      <c r="G44" s="1056"/>
+      <c r="H44" s="1056"/>
+      <c r="I44" s="1056"/>
+      <c r="J44" s="1056"/>
+      <c r="K44" s="1056"/>
+      <c r="L44" s="1056"/>
+      <c r="M44" s="1056"/>
+      <c r="N44" s="1056"/>
+      <c r="O44" s="1057"/>
       <c r="P44" s="521" t="s">
         <v>922</v>
       </c>
@@ -23678,20 +23678,20 @@
       <c r="X44" s="25"/>
     </row>
     <row r="45" spans="2:24" ht="16.899999999999999" customHeight="1">
-      <c r="B45" s="1099"/>
-      <c r="C45" s="1088"/>
-      <c r="D45" s="1089"/>
-      <c r="E45" s="1090"/>
-      <c r="F45" s="1103"/>
-      <c r="G45" s="1104"/>
-      <c r="H45" s="1104"/>
-      <c r="I45" s="1104"/>
-      <c r="J45" s="1104"/>
-      <c r="K45" s="1104"/>
-      <c r="L45" s="1104"/>
-      <c r="M45" s="1104"/>
-      <c r="N45" s="1104"/>
-      <c r="O45" s="1105"/>
+      <c r="B45" s="1051"/>
+      <c r="C45" s="1044"/>
+      <c r="D45" s="1045"/>
+      <c r="E45" s="1046"/>
+      <c r="F45" s="1055"/>
+      <c r="G45" s="1056"/>
+      <c r="H45" s="1056"/>
+      <c r="I45" s="1056"/>
+      <c r="J45" s="1056"/>
+      <c r="K45" s="1056"/>
+      <c r="L45" s="1056"/>
+      <c r="M45" s="1056"/>
+      <c r="N45" s="1056"/>
+      <c r="O45" s="1057"/>
       <c r="P45" s="65" t="s">
         <v>107</v>
       </c>
@@ -23703,20 +23703,20 @@
       <c r="X45" s="25"/>
     </row>
     <row r="46" spans="2:24" ht="18.75" customHeight="1">
-      <c r="B46" s="1098"/>
-      <c r="C46" s="1095"/>
-      <c r="D46" s="1096"/>
-      <c r="E46" s="1097"/>
-      <c r="F46" s="1106"/>
-      <c r="G46" s="1107"/>
-      <c r="H46" s="1107"/>
-      <c r="I46" s="1107"/>
-      <c r="J46" s="1107"/>
-      <c r="K46" s="1107"/>
-      <c r="L46" s="1107"/>
-      <c r="M46" s="1107"/>
-      <c r="N46" s="1107"/>
-      <c r="O46" s="1108"/>
+      <c r="B46" s="1032"/>
+      <c r="C46" s="1047"/>
+      <c r="D46" s="1048"/>
+      <c r="E46" s="1049"/>
+      <c r="F46" s="1058"/>
+      <c r="G46" s="1059"/>
+      <c r="H46" s="1059"/>
+      <c r="I46" s="1059"/>
+      <c r="J46" s="1059"/>
+      <c r="K46" s="1059"/>
+      <c r="L46" s="1059"/>
+      <c r="M46" s="1059"/>
+      <c r="N46" s="1059"/>
+      <c r="O46" s="1060"/>
       <c r="P46" s="71" t="s">
         <v>108</v>
       </c>
@@ -23790,25 +23790,25 @@
       <c r="X48" s="25"/>
     </row>
     <row r="49" spans="2:22" ht="17.649999999999999" customHeight="1">
-      <c r="B49" s="1051">
+      <c r="B49" s="1050">
         <v>384</v>
       </c>
-      <c r="C49" s="1053" t="s">
+      <c r="C49" s="1041" t="s">
         <v>1168</v>
       </c>
-      <c r="D49" s="1054"/>
-      <c r="E49" s="1055"/>
+      <c r="D49" s="1042"/>
+      <c r="E49" s="1043"/>
       <c r="F49" s="994" t="s">
         <v>166</v>
       </c>
-      <c r="G49" s="1049"/>
-      <c r="H49" s="1049"/>
-      <c r="I49" s="1049"/>
-      <c r="J49" s="1049"/>
-      <c r="K49" s="1049"/>
-      <c r="L49" s="1049"/>
-      <c r="M49" s="1049"/>
-      <c r="N49" s="1049"/>
+      <c r="G49" s="1061"/>
+      <c r="H49" s="1061"/>
+      <c r="I49" s="1061"/>
+      <c r="J49" s="1061"/>
+      <c r="K49" s="1061"/>
+      <c r="L49" s="1061"/>
+      <c r="M49" s="1061"/>
+      <c r="N49" s="1061"/>
       <c r="O49" s="995"/>
       <c r="P49" s="57" t="s">
         <v>117</v>
@@ -23822,10 +23822,10 @@
       <c r="V49" s="2"/>
     </row>
     <row r="50" spans="2:22" ht="17.25">
-      <c r="B50" s="1098"/>
-      <c r="C50" s="1095"/>
-      <c r="D50" s="1096"/>
-      <c r="E50" s="1097"/>
+      <c r="B50" s="1032"/>
+      <c r="C50" s="1047"/>
+      <c r="D50" s="1048"/>
+      <c r="E50" s="1049"/>
       <c r="F50" s="1036"/>
       <c r="G50" s="1037"/>
       <c r="H50" s="1037"/>
@@ -23923,10 +23923,10 @@
       </c>
       <c r="Q53" s="63"/>
       <c r="R53" s="64"/>
-      <c r="S53" s="1039" t="s">
+      <c r="S53" s="1101" t="s">
         <v>1162</v>
       </c>
-      <c r="T53" s="1040"/>
+      <c r="T53" s="1102"/>
       <c r="V53" s="2"/>
     </row>
     <row r="54" spans="2:22" ht="17.25">
@@ -23955,8 +23955,8 @@
       </c>
       <c r="Q54" s="668"/>
       <c r="R54" s="664"/>
-      <c r="S54" s="1041"/>
-      <c r="T54" s="1042"/>
+      <c r="S54" s="1103"/>
+      <c r="T54" s="1104"/>
       <c r="V54" s="2"/>
     </row>
     <row r="55" spans="2:22" ht="30" customHeight="1">
@@ -23968,59 +23968,59 @@
       </c>
       <c r="D55" s="122"/>
       <c r="E55" s="118"/>
-      <c r="F55" s="958" t="s">
+      <c r="F55" s="971" t="s">
         <v>1169</v>
       </c>
-      <c r="G55" s="959"/>
-      <c r="H55" s="959"/>
-      <c r="I55" s="959"/>
-      <c r="J55" s="959"/>
-      <c r="K55" s="959"/>
-      <c r="L55" s="959"/>
-      <c r="M55" s="959"/>
-      <c r="N55" s="959"/>
-      <c r="O55" s="960"/>
+      <c r="G55" s="972"/>
+      <c r="H55" s="972"/>
+      <c r="I55" s="972"/>
+      <c r="J55" s="972"/>
+      <c r="K55" s="972"/>
+      <c r="L55" s="972"/>
+      <c r="M55" s="972"/>
+      <c r="N55" s="972"/>
+      <c r="O55" s="973"/>
       <c r="P55" s="159" t="s">
         <v>115</v>
       </c>
       <c r="Q55" s="160"/>
       <c r="R55" s="161"/>
-      <c r="S55" s="1041"/>
-      <c r="T55" s="1042"/>
+      <c r="S55" s="1103"/>
+      <c r="T55" s="1104"/>
       <c r="V55" s="2"/>
     </row>
     <row r="56" spans="2:22" ht="17.25">
-      <c r="B56" s="1109">
+      <c r="B56" s="1031">
         <v>84</v>
       </c>
-      <c r="C56" s="1091" t="s">
+      <c r="C56" s="1033" t="s">
         <v>164</v>
       </c>
-      <c r="D56" s="1092"/>
-      <c r="E56" s="1093"/>
-      <c r="F56" s="1091" t="s">
+      <c r="D56" s="1034"/>
+      <c r="E56" s="1035"/>
+      <c r="F56" s="1033" t="s">
         <v>165</v>
       </c>
-      <c r="G56" s="1092"/>
-      <c r="H56" s="1092"/>
-      <c r="I56" s="1092"/>
-      <c r="J56" s="1092"/>
-      <c r="K56" s="1092"/>
-      <c r="L56" s="1092"/>
-      <c r="M56" s="1092"/>
-      <c r="N56" s="1092"/>
-      <c r="O56" s="1093"/>
+      <c r="G56" s="1034"/>
+      <c r="H56" s="1034"/>
+      <c r="I56" s="1034"/>
+      <c r="J56" s="1034"/>
+      <c r="K56" s="1034"/>
+      <c r="L56" s="1034"/>
+      <c r="M56" s="1034"/>
+      <c r="N56" s="1034"/>
+      <c r="O56" s="1035"/>
       <c r="P56" s="65" t="s">
         <v>1155</v>
       </c>
       <c r="Q56" s="67"/>
       <c r="R56" s="54"/>
-      <c r="S56" s="1041"/>
-      <c r="T56" s="1042"/>
+      <c r="S56" s="1103"/>
+      <c r="T56" s="1104"/>
       <c r="V56" s="2"/>
     </row>
     <row r="57" spans="2:22" ht="17.25">
-      <c r="B57" s="1098"/>
+      <c r="B57" s="1032"/>
       <c r="C57" s="1036"/>
       <c r="D57" s="1037"/>
       <c r="E57" s="1038"/>
@@ -24039,62 +24039,62 @@
       </c>
       <c r="Q57" s="323"/>
       <c r="R57" s="261"/>
-      <c r="S57" s="1041"/>
-      <c r="T57" s="1042"/>
+      <c r="S57" s="1103"/>
+      <c r="T57" s="1104"/>
       <c r="V57" s="2"/>
     </row>
     <row r="58" spans="2:22" ht="19.5" customHeight="1">
-      <c r="B58" s="1109">
+      <c r="B58" s="1031">
         <v>83</v>
       </c>
-      <c r="C58" s="1091" t="s">
+      <c r="C58" s="1033" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="1092"/>
-      <c r="E58" s="1093"/>
-      <c r="F58" s="1091" t="s">
+      <c r="D58" s="1034"/>
+      <c r="E58" s="1035"/>
+      <c r="F58" s="1033" t="s">
         <v>162</v>
       </c>
-      <c r="G58" s="1092"/>
-      <c r="H58" s="1092"/>
-      <c r="I58" s="1092"/>
-      <c r="J58" s="1092"/>
-      <c r="K58" s="1092"/>
-      <c r="L58" s="1092"/>
-      <c r="M58" s="1092"/>
-      <c r="N58" s="1092"/>
-      <c r="O58" s="1093"/>
+      <c r="G58" s="1034"/>
+      <c r="H58" s="1034"/>
+      <c r="I58" s="1034"/>
+      <c r="J58" s="1034"/>
+      <c r="K58" s="1034"/>
+      <c r="L58" s="1034"/>
+      <c r="M58" s="1034"/>
+      <c r="N58" s="1034"/>
+      <c r="O58" s="1035"/>
       <c r="P58" s="159" t="s">
         <v>1156</v>
       </c>
       <c r="Q58" s="323"/>
       <c r="R58" s="261"/>
-      <c r="S58" s="1041"/>
-      <c r="T58" s="1042"/>
+      <c r="S58" s="1103"/>
+      <c r="T58" s="1104"/>
       <c r="V58" s="2"/>
     </row>
     <row r="59" spans="2:22" ht="19.5" customHeight="1" thickBot="1">
-      <c r="B59" s="1052"/>
+      <c r="B59" s="1039"/>
       <c r="C59" s="998"/>
-      <c r="D59" s="1050"/>
+      <c r="D59" s="1040"/>
       <c r="E59" s="999"/>
       <c r="F59" s="998"/>
-      <c r="G59" s="1050"/>
-      <c r="H59" s="1050"/>
-      <c r="I59" s="1050"/>
-      <c r="J59" s="1050"/>
-      <c r="K59" s="1050"/>
-      <c r="L59" s="1050"/>
-      <c r="M59" s="1050"/>
-      <c r="N59" s="1050"/>
+      <c r="G59" s="1040"/>
+      <c r="H59" s="1040"/>
+      <c r="I59" s="1040"/>
+      <c r="J59" s="1040"/>
+      <c r="K59" s="1040"/>
+      <c r="L59" s="1040"/>
+      <c r="M59" s="1040"/>
+      <c r="N59" s="1040"/>
       <c r="O59" s="999"/>
       <c r="P59" s="159" t="s">
         <v>1160</v>
       </c>
       <c r="Q59" s="323"/>
       <c r="R59" s="261"/>
-      <c r="S59" s="1043"/>
-      <c r="T59" s="1044"/>
+      <c r="S59" s="1105"/>
+      <c r="T59" s="1106"/>
       <c r="V59" s="2"/>
     </row>
     <row r="60" spans="2:22" ht="18" thickBot="1">
@@ -24123,10 +24123,10 @@
       </c>
       <c r="Q60" s="674"/>
       <c r="R60" s="661"/>
-      <c r="S60" s="1031" t="s">
+      <c r="S60" s="1099" t="s">
         <v>126</v>
       </c>
-      <c r="T60" s="1032"/>
+      <c r="T60" s="1100"/>
       <c r="V60" s="2"/>
     </row>
     <row r="61" spans="2:22" ht="15.75" thickBot="1">
@@ -25239,23 +25239,18 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:E57"/>
-    <mergeCell ref="F56:O57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:E59"/>
-    <mergeCell ref="F58:O59"/>
-    <mergeCell ref="C40:E46"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="F40:O46"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E50"/>
-    <mergeCell ref="F49:O50"/>
-    <mergeCell ref="C31:E32"/>
-    <mergeCell ref="F31:O32"/>
-    <mergeCell ref="C34:E35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="F34:O35"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="S24:T25"/>
+    <mergeCell ref="S26:T29"/>
+    <mergeCell ref="F26:O26"/>
+    <mergeCell ref="F55:O55"/>
+    <mergeCell ref="S60:T60"/>
+    <mergeCell ref="F30:O30"/>
+    <mergeCell ref="S53:T59"/>
+    <mergeCell ref="S49:T52"/>
+    <mergeCell ref="S40:T48"/>
+    <mergeCell ref="S34:T39"/>
+    <mergeCell ref="S30:T33"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="F22:O23"/>
     <mergeCell ref="B22:B23"/>
@@ -25272,22 +25267,27 @@
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="F21:O21"/>
     <mergeCell ref="P21:R21"/>
-    <mergeCell ref="S60:T60"/>
-    <mergeCell ref="F30:O30"/>
-    <mergeCell ref="S53:T59"/>
-    <mergeCell ref="S49:T52"/>
-    <mergeCell ref="S40:T48"/>
-    <mergeCell ref="S34:T39"/>
-    <mergeCell ref="S30:T33"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="S24:T25"/>
-    <mergeCell ref="S26:T29"/>
-    <mergeCell ref="F26:O26"/>
-    <mergeCell ref="F55:O55"/>
+    <mergeCell ref="C31:E32"/>
+    <mergeCell ref="F31:O32"/>
+    <mergeCell ref="C34:E35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="F34:O35"/>
+    <mergeCell ref="C40:E46"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="F40:O46"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:E50"/>
+    <mergeCell ref="F49:O50"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:E57"/>
+    <mergeCell ref="F56:O57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:E59"/>
+    <mergeCell ref="F58:O59"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
-  <pageMargins left="0.5805555555555556" right="0.70866141732283472" top="0.76388888888888884" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" fitToWidth="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -25302,8 +25302,8 @@
   </sheetPr>
   <dimension ref="A1:AF206"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="83" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="83" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="U67" sqref="A1:U67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -25409,36 +25409,36 @@
     </row>
     <row r="8" spans="1:28" s="703" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="708"/>
-      <c r="B8" s="1136" t="s">
+      <c r="B8" s="1117" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="1137"/>
-      <c r="D8" s="1140" t="s">
+      <c r="C8" s="1118"/>
+      <c r="D8" s="1121" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="1141"/>
-      <c r="F8" s="1141"/>
-      <c r="G8" s="1141"/>
-      <c r="H8" s="1142"/>
-      <c r="I8" s="1143" t="s">
+      <c r="E8" s="1122"/>
+      <c r="F8" s="1122"/>
+      <c r="G8" s="1122"/>
+      <c r="H8" s="1123"/>
+      <c r="I8" s="1124" t="s">
         <v>31</v>
       </c>
-      <c r="J8" s="1144"/>
-      <c r="K8" s="1144"/>
-      <c r="L8" s="1144"/>
-      <c r="M8" s="1144"/>
-      <c r="N8" s="1144"/>
-      <c r="O8" s="1144"/>
-      <c r="P8" s="1144"/>
-      <c r="Q8" s="1144"/>
-      <c r="R8" s="1144"/>
-      <c r="S8" s="1145"/>
+      <c r="J8" s="1125"/>
+      <c r="K8" s="1125"/>
+      <c r="L8" s="1125"/>
+      <c r="M8" s="1125"/>
+      <c r="N8" s="1125"/>
+      <c r="O8" s="1125"/>
+      <c r="P8" s="1125"/>
+      <c r="Q8" s="1125"/>
+      <c r="R8" s="1125"/>
+      <c r="S8" s="1126"/>
       <c r="T8" s="702"/>
     </row>
     <row r="9" spans="1:28" s="707" customFormat="1" ht="36.75" thickBot="1">
       <c r="A9" s="702"/>
-      <c r="B9" s="1138"/>
-      <c r="C9" s="1139"/>
+      <c r="B9" s="1119"/>
+      <c r="C9" s="1120"/>
       <c r="D9" s="709" t="s">
         <v>543</v>
       </c>
@@ -25487,15 +25487,15 @@
         <v>1234</v>
       </c>
       <c r="C10" s="853"/>
-      <c r="D10" s="1146" t="s">
+      <c r="D10" s="1127" t="s">
         <v>192</v>
       </c>
-      <c r="E10" s="1147"/>
-      <c r="F10" s="1152" t="s">
+      <c r="E10" s="1128"/>
+      <c r="F10" s="1133" t="s">
         <v>1124</v>
       </c>
-      <c r="G10" s="1153"/>
-      <c r="H10" s="1154"/>
+      <c r="G10" s="1134"/>
+      <c r="H10" s="1135"/>
       <c r="I10" s="715" t="s">
         <v>833</v>
       </c>
@@ -25519,11 +25519,11 @@
         <v>1235</v>
       </c>
       <c r="C11" s="855"/>
-      <c r="D11" s="1148"/>
-      <c r="E11" s="1149"/>
-      <c r="F11" s="1155"/>
-      <c r="G11" s="1156"/>
-      <c r="H11" s="1157"/>
+      <c r="D11" s="1129"/>
+      <c r="E11" s="1130"/>
+      <c r="F11" s="1136"/>
+      <c r="G11" s="1137"/>
+      <c r="H11" s="1138"/>
       <c r="I11" s="718"/>
       <c r="J11" s="719"/>
       <c r="K11" s="719" t="s">
@@ -25545,11 +25545,11 @@
         <v>1236</v>
       </c>
       <c r="C12" s="722"/>
-      <c r="D12" s="1148"/>
-      <c r="E12" s="1149"/>
-      <c r="F12" s="1155"/>
-      <c r="G12" s="1156"/>
-      <c r="H12" s="1157"/>
+      <c r="D12" s="1129"/>
+      <c r="E12" s="1130"/>
+      <c r="F12" s="1136"/>
+      <c r="G12" s="1137"/>
+      <c r="H12" s="1138"/>
       <c r="I12" s="723"/>
       <c r="J12" s="724"/>
       <c r="K12" s="724"/>
@@ -25570,11 +25570,11 @@
         <v>1237</v>
       </c>
       <c r="C13" s="727"/>
-      <c r="D13" s="1148"/>
-      <c r="E13" s="1149"/>
-      <c r="F13" s="1155"/>
-      <c r="G13" s="1156"/>
-      <c r="H13" s="1157"/>
+      <c r="D13" s="1129"/>
+      <c r="E13" s="1130"/>
+      <c r="F13" s="1136"/>
+      <c r="G13" s="1137"/>
+      <c r="H13" s="1138"/>
       <c r="I13" s="728"/>
       <c r="J13" s="729"/>
       <c r="K13" s="729"/>
@@ -25595,11 +25595,11 @@
         <v>12</v>
       </c>
       <c r="C14" s="727"/>
-      <c r="D14" s="1150"/>
-      <c r="E14" s="1151"/>
-      <c r="F14" s="1158"/>
-      <c r="G14" s="1159"/>
-      <c r="H14" s="1160"/>
+      <c r="D14" s="1131"/>
+      <c r="E14" s="1132"/>
+      <c r="F14" s="1139"/>
+      <c r="G14" s="1140"/>
+      <c r="H14" s="1141"/>
       <c r="I14" s="728"/>
       <c r="J14" s="729"/>
       <c r="K14" s="729"/>
@@ -25622,15 +25622,15 @@
         <v>1207</v>
       </c>
       <c r="C15" s="732"/>
-      <c r="D15" s="1129" t="s">
+      <c r="D15" s="1110" t="s">
         <v>193</v>
       </c>
-      <c r="E15" s="1130"/>
-      <c r="F15" s="1131" t="s">
+      <c r="E15" s="1111"/>
+      <c r="F15" s="1112" t="s">
         <v>194</v>
       </c>
-      <c r="G15" s="1131"/>
-      <c r="H15" s="1132"/>
+      <c r="G15" s="1112"/>
+      <c r="H15" s="1113"/>
       <c r="I15" s="733" t="s">
         <v>833</v>
       </c>
@@ -25740,10 +25740,10 @@
     </row>
     <row r="20" spans="1:21" s="707" customFormat="1" ht="18.75" thickBot="1">
       <c r="A20" s="702"/>
-      <c r="B20" s="1120" t="s">
+      <c r="B20" s="1142" t="s">
         <v>1380</v>
       </c>
-      <c r="C20" s="1121"/>
+      <c r="C20" s="1143"/>
       <c r="D20" s="756">
         <v>758</v>
       </c>
@@ -25755,20 +25755,20 @@
       </c>
       <c r="G20" s="891"/>
       <c r="H20" s="889"/>
-      <c r="I20" s="1133" t="s">
+      <c r="I20" s="1114" t="s">
         <v>1383</v>
       </c>
-      <c r="J20" s="1134"/>
-      <c r="K20" s="1134"/>
-      <c r="L20" s="1134"/>
-      <c r="M20" s="1134"/>
-      <c r="N20" s="1134"/>
-      <c r="O20" s="1134"/>
-      <c r="P20" s="1134"/>
-      <c r="Q20" s="1134"/>
-      <c r="R20" s="1134"/>
-      <c r="S20" s="1134"/>
-      <c r="T20" s="1135"/>
+      <c r="J20" s="1115"/>
+      <c r="K20" s="1115"/>
+      <c r="L20" s="1115"/>
+      <c r="M20" s="1115"/>
+      <c r="N20" s="1115"/>
+      <c r="O20" s="1115"/>
+      <c r="P20" s="1115"/>
+      <c r="Q20" s="1115"/>
+      <c r="R20" s="1115"/>
+      <c r="S20" s="1115"/>
+      <c r="T20" s="1116"/>
     </row>
     <row r="21" spans="1:21" s="707" customFormat="1" ht="18.75" thickBot="1">
       <c r="A21" s="702"/>
@@ -25804,10 +25804,10 @@
     </row>
     <row r="22" spans="1:21" s="707" customFormat="1" ht="18.75" thickBot="1">
       <c r="A22" s="702"/>
-      <c r="B22" s="1123" t="s">
+      <c r="B22" s="1144" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="1124"/>
+      <c r="C22" s="1145"/>
       <c r="D22" s="764">
         <v>311</v>
       </c>
@@ -25836,8 +25836,8 @@
     </row>
     <row r="23" spans="1:21" s="707" customFormat="1" ht="18.75" thickBot="1">
       <c r="A23" s="702"/>
-      <c r="B23" s="1125"/>
-      <c r="C23" s="1126"/>
+      <c r="B23" s="1146"/>
+      <c r="C23" s="1147"/>
       <c r="D23" s="771">
         <v>311</v>
       </c>
@@ -25866,8 +25866,8 @@
     </row>
     <row r="24" spans="1:21" s="707" customFormat="1" ht="18">
       <c r="A24" s="702"/>
-      <c r="B24" s="1125"/>
-      <c r="C24" s="1126"/>
+      <c r="B24" s="1146"/>
+      <c r="C24" s="1147"/>
       <c r="D24" s="771">
         <v>311</v>
       </c>
@@ -25896,8 +25896,8 @@
     </row>
     <row r="25" spans="1:21" s="707" customFormat="1" ht="18">
       <c r="A25" s="702"/>
-      <c r="B25" s="1125"/>
-      <c r="C25" s="1126"/>
+      <c r="B25" s="1146"/>
+      <c r="C25" s="1147"/>
       <c r="D25" s="771">
         <v>311</v>
       </c>
@@ -25926,8 +25926,8 @@
     </row>
     <row r="26" spans="1:21" s="707" customFormat="1" ht="18.75" thickBot="1">
       <c r="A26" s="702"/>
-      <c r="B26" s="1127"/>
-      <c r="C26" s="1128"/>
+      <c r="B26" s="1148"/>
+      <c r="C26" s="1149"/>
       <c r="D26" s="778">
         <v>311</v>
       </c>
@@ -25956,10 +25956,10 @@
     </row>
     <row r="27" spans="1:21" s="707" customFormat="1" ht="18">
       <c r="A27" s="702"/>
-      <c r="B27" s="1123" t="s">
+      <c r="B27" s="1144" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="1124"/>
+      <c r="C27" s="1145"/>
       <c r="D27" s="756">
         <v>220</v>
       </c>
@@ -25988,8 +25988,8 @@
     </row>
     <row r="28" spans="1:21" s="707" customFormat="1" ht="18">
       <c r="A28" s="702"/>
-      <c r="B28" s="1125"/>
-      <c r="C28" s="1126"/>
+      <c r="B28" s="1146"/>
+      <c r="C28" s="1147"/>
       <c r="D28" s="771">
         <v>220</v>
       </c>
@@ -26018,8 +26018,8 @@
     </row>
     <row r="29" spans="1:21" s="707" customFormat="1" ht="18">
       <c r="A29" s="702"/>
-      <c r="B29" s="1125"/>
-      <c r="C29" s="1126"/>
+      <c r="B29" s="1146"/>
+      <c r="C29" s="1147"/>
       <c r="D29" s="786">
         <v>231</v>
       </c>
@@ -26048,8 +26048,8 @@
     </row>
     <row r="30" spans="1:21" s="707" customFormat="1" ht="18">
       <c r="A30" s="702"/>
-      <c r="B30" s="1125"/>
-      <c r="C30" s="1126"/>
+      <c r="B30" s="1146"/>
+      <c r="C30" s="1147"/>
       <c r="D30" s="771">
         <v>231</v>
       </c>
@@ -26078,8 +26078,8 @@
     </row>
     <row r="31" spans="1:21" s="707" customFormat="1" ht="18">
       <c r="A31" s="702"/>
-      <c r="B31" s="1125"/>
-      <c r="C31" s="1126"/>
+      <c r="B31" s="1146"/>
+      <c r="C31" s="1147"/>
       <c r="D31" s="795">
         <v>231</v>
       </c>
@@ -26108,8 +26108,8 @@
     </row>
     <row r="32" spans="1:21" s="707" customFormat="1" ht="18.75" thickBot="1">
       <c r="A32" s="702"/>
-      <c r="B32" s="1127"/>
-      <c r="C32" s="1128"/>
+      <c r="B32" s="1148"/>
+      <c r="C32" s="1149"/>
       <c r="D32" s="778">
         <v>351</v>
       </c>
@@ -26138,10 +26138,10 @@
     </row>
     <row r="33" spans="1:20" s="707" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="702"/>
-      <c r="B33" s="1123" t="s">
+      <c r="B33" s="1144" t="s">
         <v>1144</v>
       </c>
-      <c r="C33" s="1124"/>
+      <c r="C33" s="1145"/>
       <c r="D33" s="804">
         <v>270</v>
       </c>
@@ -26170,8 +26170,8 @@
     </row>
     <row r="34" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A34" s="702"/>
-      <c r="B34" s="1125"/>
-      <c r="C34" s="1126"/>
+      <c r="B34" s="1146"/>
+      <c r="C34" s="1147"/>
       <c r="D34" s="804">
         <v>351</v>
       </c>
@@ -26200,8 +26200,8 @@
     </row>
     <row r="35" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A35" s="702"/>
-      <c r="B35" s="1125"/>
-      <c r="C35" s="1126"/>
+      <c r="B35" s="1146"/>
+      <c r="C35" s="1147"/>
       <c r="D35" s="804">
         <v>351</v>
       </c>
@@ -26230,8 +26230,8 @@
     </row>
     <row r="36" spans="1:20" s="707" customFormat="1" ht="18.75" thickBot="1">
       <c r="A36" s="702"/>
-      <c r="B36" s="1127"/>
-      <c r="C36" s="1128"/>
+      <c r="B36" s="1148"/>
+      <c r="C36" s="1149"/>
       <c r="D36" s="778">
         <v>351</v>
       </c>
@@ -26260,10 +26260,10 @@
     </row>
     <row r="37" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A37" s="702"/>
-      <c r="B37" s="1123" t="s">
+      <c r="B37" s="1144" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="1124"/>
+      <c r="C37" s="1145"/>
       <c r="D37" s="756">
         <v>389</v>
       </c>
@@ -26292,8 +26292,8 @@
     </row>
     <row r="38" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A38" s="702"/>
-      <c r="B38" s="1125"/>
-      <c r="C38" s="1126"/>
+      <c r="B38" s="1146"/>
+      <c r="C38" s="1147"/>
       <c r="D38" s="771">
         <v>389</v>
       </c>
@@ -26322,8 +26322,8 @@
     </row>
     <row r="39" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A39" s="702"/>
-      <c r="B39" s="1125"/>
-      <c r="C39" s="1126"/>
+      <c r="B39" s="1146"/>
+      <c r="C39" s="1147"/>
       <c r="D39" s="824">
         <v>389</v>
       </c>
@@ -26352,8 +26352,8 @@
     </row>
     <row r="40" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A40" s="702"/>
-      <c r="B40" s="1125"/>
-      <c r="C40" s="1126"/>
+      <c r="B40" s="1146"/>
+      <c r="C40" s="1147"/>
       <c r="D40" s="826">
         <v>389</v>
       </c>
@@ -26382,8 +26382,8 @@
     </row>
     <row r="41" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A41" s="702"/>
-      <c r="B41" s="1125"/>
-      <c r="C41" s="1126"/>
+      <c r="B41" s="1146"/>
+      <c r="C41" s="1147"/>
       <c r="D41" s="824">
         <v>389</v>
       </c>
@@ -26412,8 +26412,8 @@
     </row>
     <row r="42" spans="1:20" s="707" customFormat="1" ht="18.75" thickBot="1">
       <c r="A42" s="702"/>
-      <c r="B42" s="1127"/>
-      <c r="C42" s="1128"/>
+      <c r="B42" s="1148"/>
+      <c r="C42" s="1149"/>
       <c r="D42" s="771">
         <v>527</v>
       </c>
@@ -26442,11 +26442,11 @@
     </row>
     <row r="43" spans="1:20" s="707" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="702"/>
-      <c r="B43" s="1123" t="s">
+      <c r="B43" s="1144" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="1124"/>
-      <c r="D43" s="1110">
+      <c r="C43" s="1145"/>
+      <c r="D43" s="1150">
         <v>380</v>
       </c>
       <c r="E43" s="796">
@@ -26474,9 +26474,9 @@
     </row>
     <row r="44" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A44" s="702"/>
-      <c r="B44" s="1125"/>
-      <c r="C44" s="1126"/>
-      <c r="D44" s="1122"/>
+      <c r="B44" s="1146"/>
+      <c r="C44" s="1147"/>
+      <c r="D44" s="1160"/>
       <c r="E44" s="794">
         <v>38002</v>
       </c>
@@ -26502,9 +26502,9 @@
     </row>
     <row r="45" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A45" s="702"/>
-      <c r="B45" s="1125"/>
-      <c r="C45" s="1126"/>
-      <c r="D45" s="1122"/>
+      <c r="B45" s="1146"/>
+      <c r="C45" s="1147"/>
+      <c r="D45" s="1160"/>
       <c r="E45" s="794">
         <v>38003</v>
       </c>
@@ -26530,9 +26530,9 @@
     </row>
     <row r="46" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A46" s="702"/>
-      <c r="B46" s="1125"/>
-      <c r="C46" s="1126"/>
-      <c r="D46" s="1122"/>
+      <c r="B46" s="1146"/>
+      <c r="C46" s="1147"/>
+      <c r="D46" s="1160"/>
       <c r="E46" s="794">
         <v>38004</v>
       </c>
@@ -26558,9 +26558,9 @@
     </row>
     <row r="47" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A47" s="702"/>
-      <c r="B47" s="1125"/>
-      <c r="C47" s="1126"/>
-      <c r="D47" s="1122"/>
+      <c r="B47" s="1146"/>
+      <c r="C47" s="1147"/>
+      <c r="D47" s="1160"/>
       <c r="E47" s="794">
         <v>38005</v>
       </c>
@@ -26586,9 +26586,9 @@
     </row>
     <row r="48" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A48" s="702"/>
-      <c r="B48" s="1125"/>
-      <c r="C48" s="1126"/>
-      <c r="D48" s="1122"/>
+      <c r="B48" s="1146"/>
+      <c r="C48" s="1147"/>
+      <c r="D48" s="1160"/>
       <c r="E48" s="794">
         <v>38006</v>
       </c>
@@ -26614,9 +26614,9 @@
     </row>
     <row r="49" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A49" s="702"/>
-      <c r="B49" s="1125"/>
-      <c r="C49" s="1126"/>
-      <c r="D49" s="1122"/>
+      <c r="B49" s="1146"/>
+      <c r="C49" s="1147"/>
+      <c r="D49" s="1160"/>
       <c r="E49" s="794">
         <v>38007</v>
       </c>
@@ -26642,9 +26642,9 @@
     </row>
     <row r="50" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A50" s="702"/>
-      <c r="B50" s="1125"/>
-      <c r="C50" s="1126"/>
-      <c r="D50" s="1122"/>
+      <c r="B50" s="1146"/>
+      <c r="C50" s="1147"/>
+      <c r="D50" s="1160"/>
       <c r="E50" s="794">
         <v>38008</v>
       </c>
@@ -26670,9 +26670,9 @@
     </row>
     <row r="51" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A51" s="702"/>
-      <c r="B51" s="1125"/>
-      <c r="C51" s="1126"/>
-      <c r="D51" s="1111"/>
+      <c r="B51" s="1146"/>
+      <c r="C51" s="1147"/>
+      <c r="D51" s="1151"/>
       <c r="E51" s="794">
         <v>38009</v>
       </c>
@@ -26698,8 +26698,8 @@
     </row>
     <row r="52" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A52" s="702"/>
-      <c r="B52" s="1125"/>
-      <c r="C52" s="1126"/>
+      <c r="B52" s="1146"/>
+      <c r="C52" s="1147"/>
       <c r="D52" s="771">
         <v>385</v>
       </c>
@@ -26728,8 +26728,8 @@
     </row>
     <row r="53" spans="1:20" s="707" customFormat="1" ht="18.75" thickBot="1">
       <c r="A53" s="702"/>
-      <c r="B53" s="1127"/>
-      <c r="C53" s="1128"/>
+      <c r="B53" s="1148"/>
+      <c r="C53" s="1149"/>
       <c r="D53" s="771">
         <v>81</v>
       </c>
@@ -26758,11 +26758,11 @@
     </row>
     <row r="54" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A54" s="702"/>
-      <c r="B54" s="1123" t="s">
+      <c r="B54" s="1144" t="s">
         <v>1159</v>
       </c>
-      <c r="C54" s="1124"/>
-      <c r="D54" s="1110">
+      <c r="C54" s="1145"/>
+      <c r="D54" s="1150">
         <v>384</v>
       </c>
       <c r="E54" s="805">
@@ -26790,9 +26790,9 @@
     </row>
     <row r="55" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A55" s="702"/>
-      <c r="B55" s="1125"/>
-      <c r="C55" s="1126"/>
-      <c r="D55" s="1111"/>
+      <c r="B55" s="1146"/>
+      <c r="C55" s="1147"/>
+      <c r="D55" s="1151"/>
       <c r="E55" s="794">
         <v>38402</v>
       </c>
@@ -26818,8 +26818,8 @@
     </row>
     <row r="56" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A56" s="702"/>
-      <c r="B56" s="1125"/>
-      <c r="C56" s="1126"/>
+      <c r="B56" s="1146"/>
+      <c r="C56" s="1147"/>
       <c r="D56" s="824">
         <v>384</v>
       </c>
@@ -26848,8 +26848,8 @@
     </row>
     <row r="57" spans="1:20" s="707" customFormat="1" ht="18" customHeight="1" thickBot="1">
       <c r="A57" s="702"/>
-      <c r="B57" s="1127"/>
-      <c r="C57" s="1128"/>
+      <c r="B57" s="1148"/>
+      <c r="C57" s="1149"/>
       <c r="D57" s="835">
         <v>384</v>
       </c>
@@ -26878,10 +26878,10 @@
     </row>
     <row r="58" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A58" s="702"/>
-      <c r="B58" s="1112" t="s">
+      <c r="B58" s="1152" t="s">
         <v>1176</v>
       </c>
-      <c r="C58" s="1113"/>
+      <c r="C58" s="1153"/>
       <c r="D58" s="764">
         <v>383</v>
       </c>
@@ -26910,8 +26910,8 @@
     </row>
     <row r="59" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A59" s="702"/>
-      <c r="B59" s="1114"/>
-      <c r="C59" s="1115"/>
+      <c r="B59" s="1154"/>
+      <c r="C59" s="1155"/>
       <c r="D59" s="787">
         <v>381</v>
       </c>
@@ -26940,8 +26940,8 @@
     </row>
     <row r="60" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A60" s="702"/>
-      <c r="B60" s="1114"/>
-      <c r="C60" s="1115"/>
+      <c r="B60" s="1154"/>
+      <c r="C60" s="1155"/>
       <c r="D60" s="786">
         <v>729</v>
       </c>
@@ -26970,9 +26970,9 @@
     </row>
     <row r="61" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A61" s="702"/>
-      <c r="B61" s="1114"/>
-      <c r="C61" s="1115"/>
-      <c r="D61" s="1118">
+      <c r="B61" s="1154"/>
+      <c r="C61" s="1155"/>
+      <c r="D61" s="1158">
         <v>84</v>
       </c>
       <c r="E61" s="794">
@@ -27000,9 +27000,9 @@
     </row>
     <row r="62" spans="1:20" s="707" customFormat="1" ht="16.899999999999999" customHeight="1">
       <c r="A62" s="702"/>
-      <c r="B62" s="1114"/>
-      <c r="C62" s="1115"/>
-      <c r="D62" s="1111"/>
+      <c r="B62" s="1154"/>
+      <c r="C62" s="1155"/>
+      <c r="D62" s="1151"/>
       <c r="E62" s="722">
         <v>8402</v>
       </c>
@@ -27028,9 +27028,9 @@
     </row>
     <row r="63" spans="1:20" s="707" customFormat="1" ht="18">
       <c r="A63" s="702"/>
-      <c r="B63" s="1114"/>
-      <c r="C63" s="1115"/>
-      <c r="D63" s="1118">
+      <c r="B63" s="1154"/>
+      <c r="C63" s="1155"/>
+      <c r="D63" s="1158">
         <v>83</v>
       </c>
       <c r="E63" s="722">
@@ -27058,9 +27058,9 @@
     </row>
     <row r="64" spans="1:20" s="707" customFormat="1" ht="18.75" thickBot="1">
       <c r="A64" s="702"/>
-      <c r="B64" s="1116"/>
-      <c r="C64" s="1117"/>
-      <c r="D64" s="1119"/>
+      <c r="B64" s="1156"/>
+      <c r="C64" s="1157"/>
+      <c r="D64" s="1159"/>
       <c r="E64" s="779">
         <v>8302</v>
       </c>
@@ -27086,10 +27086,10 @@
     </row>
     <row r="65" spans="1:20" s="707" customFormat="1" ht="18.75" thickBot="1">
       <c r="A65" s="702"/>
-      <c r="B65" s="1120" t="s">
+      <c r="B65" s="1142" t="s">
         <v>126</v>
       </c>
-      <c r="C65" s="1121"/>
+      <c r="C65" s="1143"/>
       <c r="D65" s="757">
         <v>481</v>
       </c>
@@ -28140,6 +28140,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="B58:C64"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D43:D51"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B22:C26"/>
+    <mergeCell ref="B27:C32"/>
+    <mergeCell ref="B33:C36"/>
+    <mergeCell ref="B37:C42"/>
+    <mergeCell ref="B43:C53"/>
+    <mergeCell ref="B54:C57"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="I20:T20"/>
@@ -28148,23 +28161,10 @@
     <mergeCell ref="I8:S8"/>
     <mergeCell ref="D10:E14"/>
     <mergeCell ref="F10:H14"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B22:C26"/>
-    <mergeCell ref="B27:C32"/>
-    <mergeCell ref="B33:C36"/>
-    <mergeCell ref="B37:C42"/>
-    <mergeCell ref="B43:C53"/>
-    <mergeCell ref="B54:C57"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="B58:C64"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D43:D51"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.5805555555555556" right="0.70866141732283472" top="0.76388888888888884" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P</oddFooter>
   </headerFooter>
@@ -28267,45 +28267,45 @@
     </row>
     <row r="7" spans="1:32" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="1045" t="s">
+      <c r="B7" s="1066" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="1046"/>
-      <c r="D7" s="973" t="s">
+      <c r="C7" s="1067"/>
+      <c r="D7" s="952" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:32" ht="15.75" thickBot="1">
-      <c r="B8" s="1047"/>
-      <c r="C8" s="1048"/>
-      <c r="D8" s="979" t="s">
+      <c r="B8" s="1068"/>
+      <c r="C8" s="1069"/>
+      <c r="D8" s="958" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="979"/>
-      <c r="F8" s="977"/>
-      <c r="G8" s="978" t="s">
+      <c r="E8" s="958"/>
+      <c r="F8" s="956"/>
+      <c r="G8" s="957" t="s">
         <v>542</v>
       </c>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -28348,11 +28348,11 @@
       </c>
       <c r="E9" s="217"/>
       <c r="F9" s="221"/>
-      <c r="G9" s="1073" t="s">
+      <c r="G9" s="1087" t="s">
         <v>1371</v>
       </c>
-      <c r="H9" s="1073"/>
-      <c r="I9" s="1074"/>
+      <c r="H9" s="1087"/>
+      <c r="I9" s="1088"/>
       <c r="J9" s="439" t="s">
         <v>832</v>
       </c>
@@ -29694,45 +29694,45 @@
     </row>
     <row r="8" spans="1:31" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="968" t="s">
+      <c r="B8" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="981"/>
-      <c r="D8" s="1167" t="s">
+      <c r="D8" s="1184" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="1167"/>
-      <c r="F8" s="1167"/>
-      <c r="G8" s="1167"/>
-      <c r="H8" s="1167"/>
-      <c r="I8" s="1168"/>
-      <c r="J8" s="975" t="s">
+      <c r="E8" s="1184"/>
+      <c r="F8" s="1184"/>
+      <c r="G8" s="1184"/>
+      <c r="H8" s="1184"/>
+      <c r="I8" s="1185"/>
+      <c r="J8" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="925"/>
-      <c r="L8" s="925"/>
-      <c r="M8" s="925"/>
-      <c r="N8" s="925"/>
-      <c r="O8" s="925"/>
-      <c r="P8" s="925"/>
-      <c r="Q8" s="925"/>
-      <c r="R8" s="925"/>
-      <c r="S8" s="925"/>
-      <c r="T8" s="942"/>
+      <c r="K8" s="906"/>
+      <c r="L8" s="906"/>
+      <c r="M8" s="906"/>
+      <c r="N8" s="906"/>
+      <c r="O8" s="906"/>
+      <c r="P8" s="906"/>
+      <c r="Q8" s="906"/>
+      <c r="R8" s="906"/>
+      <c r="S8" s="906"/>
+      <c r="T8" s="946"/>
     </row>
     <row r="9" spans="1:31" ht="15.75" thickBot="1">
-      <c r="B9" s="970"/>
+      <c r="B9" s="949"/>
       <c r="C9" s="982"/>
-      <c r="D9" s="979" t="s">
+      <c r="D9" s="958" t="s">
         <v>543</v>
       </c>
-      <c r="E9" s="979"/>
-      <c r="F9" s="977"/>
-      <c r="G9" s="978" t="s">
+      <c r="E9" s="958"/>
+      <c r="F9" s="956"/>
+      <c r="G9" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="979"/>
-      <c r="I9" s="980"/>
+      <c r="H9" s="958"/>
+      <c r="I9" s="959"/>
       <c r="J9" s="274" t="s">
         <v>34</v>
       </c>
@@ -29770,16 +29770,16 @@
         <v>83</v>
       </c>
       <c r="C10" s="403"/>
-      <c r="D10" s="1171" t="s">
+      <c r="D10" s="1169" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="1171"/>
-      <c r="F10" s="1172"/>
-      <c r="G10" s="1174" t="s">
+      <c r="E10" s="1169"/>
+      <c r="F10" s="1170"/>
+      <c r="G10" s="1172" t="s">
         <v>198</v>
       </c>
-      <c r="H10" s="1175"/>
-      <c r="I10" s="1176"/>
+      <c r="H10" s="1173"/>
+      <c r="I10" s="1174"/>
       <c r="J10" s="276"/>
       <c r="K10" s="212"/>
       <c r="L10" s="212"/>
@@ -29799,12 +29799,12 @@
         <v>13</v>
       </c>
       <c r="C11" s="404"/>
-      <c r="D11" s="1173"/>
-      <c r="E11" s="1173"/>
-      <c r="F11" s="1065"/>
-      <c r="G11" s="1177"/>
-      <c r="H11" s="1178"/>
-      <c r="I11" s="1179"/>
+      <c r="D11" s="1171"/>
+      <c r="E11" s="1171"/>
+      <c r="F11" s="1079"/>
+      <c r="G11" s="1175"/>
+      <c r="H11" s="1176"/>
+      <c r="I11" s="1177"/>
       <c r="J11" s="277"/>
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
@@ -29826,16 +29826,16 @@
         <v>20</v>
       </c>
       <c r="C12" s="404"/>
-      <c r="D12" s="1180" t="s">
+      <c r="D12" s="1178" t="s">
         <v>197</v>
       </c>
-      <c r="E12" s="1180"/>
-      <c r="F12" s="1067"/>
-      <c r="G12" s="1183" t="s">
+      <c r="E12" s="1178"/>
+      <c r="F12" s="1081"/>
+      <c r="G12" s="1181" t="s">
         <v>199</v>
       </c>
-      <c r="H12" s="1184"/>
-      <c r="I12" s="1185"/>
+      <c r="H12" s="1182"/>
+      <c r="I12" s="1183"/>
       <c r="J12" s="277"/>
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
@@ -29862,11 +29862,11 @@
       </c>
       <c r="E13" s="199"/>
       <c r="F13" s="200"/>
-      <c r="G13" s="1183" t="s">
+      <c r="G13" s="1181" t="s">
         <v>200</v>
       </c>
-      <c r="H13" s="1184"/>
-      <c r="I13" s="1185"/>
+      <c r="H13" s="1182"/>
+      <c r="I13" s="1183"/>
       <c r="J13" s="277"/>
       <c r="K13" s="74"/>
       <c r="L13" s="74" t="s">
@@ -29890,16 +29890,16 @@
         <v>654</v>
       </c>
       <c r="C14" s="405"/>
-      <c r="D14" s="1181" t="s">
+      <c r="D14" s="1179" t="s">
         <v>196</v>
       </c>
-      <c r="E14" s="1181"/>
-      <c r="F14" s="1182"/>
-      <c r="G14" s="1073" t="s">
+      <c r="E14" s="1179"/>
+      <c r="F14" s="1180"/>
+      <c r="G14" s="1087" t="s">
         <v>201</v>
       </c>
-      <c r="H14" s="1073"/>
-      <c r="I14" s="1074"/>
+      <c r="H14" s="1087"/>
+      <c r="I14" s="1088"/>
       <c r="J14" s="216"/>
       <c r="K14" s="217"/>
       <c r="L14" s="217"/>
@@ -29983,10 +29983,10 @@
       <c r="T18" s="75"/>
     </row>
     <row r="19" spans="2:20" ht="17.25">
-      <c r="B19" s="1075" t="s">
+      <c r="B19" s="1089" t="s">
         <v>718</v>
       </c>
-      <c r="C19" s="1076"/>
+      <c r="C19" s="1090"/>
       <c r="D19" s="317"/>
       <c r="E19" s="84">
         <v>1</v>
@@ -30012,8 +30012,8 @@
       <c r="T19" s="101"/>
     </row>
     <row r="20" spans="2:20" ht="17.25">
-      <c r="B20" s="1169"/>
-      <c r="C20" s="1170"/>
+      <c r="B20" s="1167"/>
+      <c r="C20" s="1168"/>
       <c r="D20" s="321"/>
       <c r="E20" s="88">
         <v>2</v>
@@ -30039,8 +30039,8 @@
       <c r="T20" s="103"/>
     </row>
     <row r="21" spans="2:20" ht="17.25">
-      <c r="B21" s="1169"/>
-      <c r="C21" s="1170"/>
+      <c r="B21" s="1167"/>
+      <c r="C21" s="1168"/>
       <c r="D21" s="321"/>
       <c r="E21" s="88">
         <v>3</v>
@@ -30066,8 +30066,8 @@
       <c r="T21" s="103"/>
     </row>
     <row r="22" spans="2:20" ht="17.25">
-      <c r="B22" s="1169"/>
-      <c r="C22" s="1170"/>
+      <c r="B22" s="1167"/>
+      <c r="C22" s="1168"/>
       <c r="D22" s="321"/>
       <c r="E22" s="88">
         <v>4</v>
@@ -30093,8 +30093,8 @@
       <c r="T22" s="103"/>
     </row>
     <row r="23" spans="2:20" ht="18" thickBot="1">
-      <c r="B23" s="1169"/>
-      <c r="C23" s="1170"/>
+      <c r="B23" s="1167"/>
+      <c r="C23" s="1168"/>
       <c r="D23" s="319"/>
       <c r="E23" s="158"/>
       <c r="F23" s="159"/>
@@ -30114,10 +30114,10 @@
       <c r="T23" s="105"/>
     </row>
     <row r="24" spans="2:20" ht="18" customHeight="1">
-      <c r="B24" s="1075" t="s">
+      <c r="B24" s="1089" t="s">
         <v>717</v>
       </c>
-      <c r="C24" s="1076"/>
+      <c r="C24" s="1090"/>
       <c r="D24" s="317"/>
       <c r="E24" s="114">
         <v>11</v>
@@ -30143,8 +30143,8 @@
       <c r="T24" s="101"/>
     </row>
     <row r="25" spans="2:20" ht="17.25">
-      <c r="B25" s="1169"/>
-      <c r="C25" s="1170"/>
+      <c r="B25" s="1167"/>
+      <c r="C25" s="1168"/>
       <c r="D25" s="321"/>
       <c r="E25" s="87">
         <v>12</v>
@@ -30170,8 +30170,8 @@
       <c r="T25" s="103"/>
     </row>
     <row r="26" spans="2:20" ht="17.25">
-      <c r="B26" s="1169"/>
-      <c r="C26" s="1170"/>
+      <c r="B26" s="1167"/>
+      <c r="C26" s="1168"/>
       <c r="D26" s="321"/>
       <c r="E26" s="87">
         <v>13</v>
@@ -30197,8 +30197,8 @@
       <c r="T26" s="103"/>
     </row>
     <row r="27" spans="2:20" ht="17.25">
-      <c r="B27" s="1169"/>
-      <c r="C27" s="1170"/>
+      <c r="B27" s="1167"/>
+      <c r="C27" s="1168"/>
       <c r="D27" s="321"/>
       <c r="E27" s="87">
         <v>14</v>
@@ -30224,8 +30224,8 @@
       <c r="T27" s="103"/>
     </row>
     <row r="28" spans="2:20" ht="17.25">
-      <c r="B28" s="1169"/>
-      <c r="C28" s="1170"/>
+      <c r="B28" s="1167"/>
+      <c r="C28" s="1168"/>
       <c r="D28" s="321"/>
       <c r="E28" s="87">
         <v>15</v>
@@ -30251,8 +30251,8 @@
       <c r="T28" s="103"/>
     </row>
     <row r="29" spans="2:20" ht="18" thickBot="1">
-      <c r="B29" s="1169"/>
-      <c r="C29" s="1170"/>
+      <c r="B29" s="1167"/>
+      <c r="C29" s="1168"/>
       <c r="D29" s="318"/>
       <c r="E29" s="85">
         <v>16</v>
@@ -30278,8 +30278,8 @@
       <c r="T29" s="105"/>
     </row>
     <row r="30" spans="2:20" ht="17.25">
-      <c r="B30" s="1169"/>
-      <c r="C30" s="1170"/>
+      <c r="B30" s="1167"/>
+      <c r="C30" s="1168"/>
       <c r="D30" s="317"/>
       <c r="E30" s="83">
         <v>20</v>
@@ -30305,8 +30305,8 @@
       <c r="T30" s="101"/>
     </row>
     <row r="31" spans="2:20" ht="17.25">
-      <c r="B31" s="1169"/>
-      <c r="C31" s="1170"/>
+      <c r="B31" s="1167"/>
+      <c r="C31" s="1168"/>
       <c r="D31" s="322"/>
       <c r="E31" s="89">
         <v>21</v>
@@ -30332,8 +30332,8 @@
       <c r="T31" s="267"/>
     </row>
     <row r="32" spans="2:20" ht="17.25">
-      <c r="B32" s="1169"/>
-      <c r="C32" s="1170"/>
+      <c r="B32" s="1167"/>
+      <c r="C32" s="1168"/>
       <c r="D32" s="478"/>
       <c r="E32" s="326">
         <v>22</v>
@@ -30359,8 +30359,8 @@
       <c r="T32" s="335"/>
     </row>
     <row r="33" spans="2:20" ht="18" thickBot="1">
-      <c r="B33" s="1169"/>
-      <c r="C33" s="1170"/>
+      <c r="B33" s="1167"/>
+      <c r="C33" s="1168"/>
       <c r="D33" s="318"/>
       <c r="E33" s="85"/>
       <c r="F33" s="60"/>
@@ -30380,8 +30380,8 @@
       <c r="T33" s="105"/>
     </row>
     <row r="34" spans="2:20" ht="17.25">
-      <c r="B34" s="1169"/>
-      <c r="C34" s="1170"/>
+      <c r="B34" s="1167"/>
+      <c r="C34" s="1168"/>
       <c r="D34" s="322"/>
       <c r="E34" s="89">
         <v>31</v>
@@ -30407,8 +30407,8 @@
       <c r="T34" s="267"/>
     </row>
     <row r="35" spans="2:20" ht="18" thickBot="1">
-      <c r="B35" s="1169"/>
-      <c r="C35" s="1170"/>
+      <c r="B35" s="1167"/>
+      <c r="C35" s="1168"/>
       <c r="D35" s="318"/>
       <c r="E35" s="85"/>
       <c r="F35" s="60"/>
@@ -30428,8 +30428,8 @@
       <c r="T35" s="105"/>
     </row>
     <row r="36" spans="2:20" ht="18" customHeight="1">
-      <c r="B36" s="1169"/>
-      <c r="C36" s="1170"/>
+      <c r="B36" s="1167"/>
+      <c r="C36" s="1168"/>
       <c r="D36" s="322"/>
       <c r="E36" s="89">
         <v>41</v>
@@ -30455,8 +30455,8 @@
       <c r="T36" s="267"/>
     </row>
     <row r="37" spans="2:20" ht="18" thickBot="1">
-      <c r="B37" s="1077"/>
-      <c r="C37" s="1078"/>
+      <c r="B37" s="1091"/>
+      <c r="C37" s="1092"/>
       <c r="D37" s="318"/>
       <c r="E37" s="86"/>
       <c r="F37" s="60"/>
@@ -30476,10 +30476,10 @@
       <c r="T37" s="105"/>
     </row>
     <row r="38" spans="2:20" ht="17.25">
-      <c r="B38" s="1075" t="s">
+      <c r="B38" s="1089" t="s">
         <v>719</v>
       </c>
-      <c r="C38" s="1076"/>
+      <c r="C38" s="1090"/>
       <c r="D38" s="317"/>
       <c r="E38" s="84">
         <v>101</v>
@@ -30505,8 +30505,8 @@
       <c r="T38" s="101"/>
     </row>
     <row r="39" spans="2:20" ht="17.25">
-      <c r="B39" s="1169"/>
-      <c r="C39" s="1170"/>
+      <c r="B39" s="1167"/>
+      <c r="C39" s="1168"/>
       <c r="D39" s="321"/>
       <c r="E39" s="88">
         <v>102</v>
@@ -30532,8 +30532,8 @@
       <c r="T39" s="103"/>
     </row>
     <row r="40" spans="2:20" ht="17.25">
-      <c r="B40" s="1169"/>
-      <c r="C40" s="1170"/>
+      <c r="B40" s="1167"/>
+      <c r="C40" s="1168"/>
       <c r="D40" s="321"/>
       <c r="E40" s="88">
         <v>103</v>
@@ -30559,8 +30559,8 @@
       <c r="T40" s="103"/>
     </row>
     <row r="41" spans="2:20" ht="18" thickBot="1">
-      <c r="B41" s="1169"/>
-      <c r="C41" s="1170"/>
+      <c r="B41" s="1167"/>
+      <c r="C41" s="1168"/>
       <c r="D41" s="322"/>
       <c r="E41" s="90">
         <v>104</v>
@@ -30586,8 +30586,8 @@
       <c r="T41" s="267"/>
     </row>
     <row r="42" spans="2:20" ht="17.25">
-      <c r="B42" s="1169"/>
-      <c r="C42" s="1170"/>
+      <c r="B42" s="1167"/>
+      <c r="C42" s="1168"/>
       <c r="D42" s="317"/>
       <c r="E42" s="84">
         <v>201</v>
@@ -30613,8 +30613,8 @@
       <c r="T42" s="101"/>
     </row>
     <row r="43" spans="2:20" ht="17.25">
-      <c r="B43" s="1169"/>
-      <c r="C43" s="1170"/>
+      <c r="B43" s="1167"/>
+      <c r="C43" s="1168"/>
       <c r="D43" s="321"/>
       <c r="E43" s="88">
         <v>202</v>
@@ -30640,8 +30640,8 @@
       <c r="T43" s="103"/>
     </row>
     <row r="44" spans="2:20" ht="18" thickBot="1">
-      <c r="B44" s="1169"/>
-      <c r="C44" s="1170"/>
+      <c r="B44" s="1167"/>
+      <c r="C44" s="1168"/>
       <c r="D44" s="321"/>
       <c r="E44" s="88">
         <v>203</v>
@@ -30667,8 +30667,8 @@
       <c r="T44" s="103"/>
     </row>
     <row r="45" spans="2:20" ht="17.25">
-      <c r="B45" s="1169"/>
-      <c r="C45" s="1170"/>
+      <c r="B45" s="1167"/>
+      <c r="C45" s="1168"/>
       <c r="D45" s="317"/>
       <c r="E45" s="84">
         <v>301</v>
@@ -30694,8 +30694,8 @@
       <c r="T45" s="101"/>
     </row>
     <row r="46" spans="2:20" ht="17.25">
-      <c r="B46" s="1169"/>
-      <c r="C46" s="1170"/>
+      <c r="B46" s="1167"/>
+      <c r="C46" s="1168"/>
       <c r="D46" s="321"/>
       <c r="E46" s="88">
         <v>302</v>
@@ -30721,8 +30721,8 @@
       <c r="T46" s="103"/>
     </row>
     <row r="47" spans="2:20" ht="18" thickBot="1">
-      <c r="B47" s="1169"/>
-      <c r="C47" s="1170"/>
+      <c r="B47" s="1167"/>
+      <c r="C47" s="1168"/>
       <c r="D47" s="319"/>
       <c r="E47" s="158">
         <v>303</v>
@@ -31761,6 +31761,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B8:C9"/>
+    <mergeCell ref="J8:T8"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="B38:C47"/>
     <mergeCell ref="D10:F11"/>
     <mergeCell ref="G10:I11"/>
@@ -31771,11 +31776,6 @@
     <mergeCell ref="B19:C23"/>
     <mergeCell ref="G14:I14"/>
     <mergeCell ref="B24:C37"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="J8:T8"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.5805555555555556" right="0.70866141732283472" top="0.76388888888888884" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -31879,45 +31879,45 @@
     </row>
     <row r="7" spans="1:31" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="973" t="s">
+      <c r="D7" s="952" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:31" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="979" t="s">
+      <c r="D8" s="958" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="979"/>
-      <c r="F8" s="977"/>
-      <c r="G8" s="978" t="s">
+      <c r="E8" s="958"/>
+      <c r="F8" s="956"/>
+      <c r="G8" s="957" t="s">
         <v>618</v>
       </c>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -31957,16 +31957,16 @@
         <v>484</v>
       </c>
       <c r="C9" s="400"/>
-      <c r="D9" s="1065" t="s">
+      <c r="D9" s="1079" t="s">
         <v>491</v>
       </c>
-      <c r="E9" s="1066"/>
-      <c r="F9" s="1066"/>
-      <c r="G9" s="1069" t="s">
+      <c r="E9" s="1080"/>
+      <c r="F9" s="1080"/>
+      <c r="G9" s="1083" t="s">
         <v>483</v>
       </c>
-      <c r="H9" s="1069"/>
-      <c r="I9" s="1070"/>
+      <c r="H9" s="1083"/>
+      <c r="I9" s="1084"/>
       <c r="J9" s="276" t="s">
         <v>1204</v>
       </c>
@@ -31988,12 +31988,12 @@
         <v>58</v>
       </c>
       <c r="C10" s="401"/>
-      <c r="D10" s="1067"/>
-      <c r="E10" s="1068"/>
-      <c r="F10" s="1068"/>
-      <c r="G10" s="1071"/>
-      <c r="H10" s="1071"/>
-      <c r="I10" s="1072"/>
+      <c r="D10" s="1081"/>
+      <c r="E10" s="1082"/>
+      <c r="F10" s="1082"/>
+      <c r="G10" s="1085"/>
+      <c r="H10" s="1085"/>
+      <c r="I10" s="1086"/>
       <c r="J10" s="277"/>
       <c r="K10" s="74"/>
       <c r="L10" s="74" t="s">
@@ -32013,12 +32013,12 @@
         <v>485</v>
       </c>
       <c r="C11" s="401"/>
-      <c r="D11" s="1067"/>
-      <c r="E11" s="1068"/>
-      <c r="F11" s="1068"/>
-      <c r="G11" s="1071"/>
-      <c r="H11" s="1071"/>
-      <c r="I11" s="1072"/>
+      <c r="D11" s="1081"/>
+      <c r="E11" s="1082"/>
+      <c r="F11" s="1082"/>
+      <c r="G11" s="1085"/>
+      <c r="H11" s="1085"/>
+      <c r="I11" s="1086"/>
       <c r="J11" s="277"/>
       <c r="K11" s="74"/>
       <c r="L11" s="74"/>
@@ -32038,12 +32038,12 @@
         <v>486</v>
       </c>
       <c r="C12" s="401"/>
-      <c r="D12" s="1067"/>
-      <c r="E12" s="1068"/>
-      <c r="F12" s="1068"/>
-      <c r="G12" s="1071"/>
-      <c r="H12" s="1071"/>
-      <c r="I12" s="1072"/>
+      <c r="D12" s="1081"/>
+      <c r="E12" s="1082"/>
+      <c r="F12" s="1082"/>
+      <c r="G12" s="1085"/>
+      <c r="H12" s="1085"/>
+      <c r="I12" s="1086"/>
       <c r="J12" s="277"/>
       <c r="K12" s="74"/>
       <c r="L12" s="74"/>
@@ -32063,12 +32063,12 @@
         <v>1202</v>
       </c>
       <c r="C13" s="401"/>
-      <c r="D13" s="1067"/>
-      <c r="E13" s="1068"/>
-      <c r="F13" s="1068"/>
-      <c r="G13" s="1071"/>
-      <c r="H13" s="1071"/>
-      <c r="I13" s="1072"/>
+      <c r="D13" s="1081"/>
+      <c r="E13" s="1082"/>
+      <c r="F13" s="1082"/>
+      <c r="G13" s="1085"/>
+      <c r="H13" s="1085"/>
+      <c r="I13" s="1086"/>
       <c r="J13" s="277"/>
       <c r="K13" s="74"/>
       <c r="L13" s="74"/>
@@ -32090,12 +32090,12 @@
         <v>487</v>
       </c>
       <c r="C14" s="401"/>
-      <c r="D14" s="1067"/>
-      <c r="E14" s="1068"/>
-      <c r="F14" s="1068"/>
-      <c r="G14" s="1071"/>
-      <c r="H14" s="1071"/>
-      <c r="I14" s="1072"/>
+      <c r="D14" s="1081"/>
+      <c r="E14" s="1082"/>
+      <c r="F14" s="1082"/>
+      <c r="G14" s="1085"/>
+      <c r="H14" s="1085"/>
+      <c r="I14" s="1086"/>
       <c r="J14" s="277"/>
       <c r="K14" s="74"/>
       <c r="L14" s="74"/>
@@ -32122,11 +32122,11 @@
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="339"/>
-      <c r="G15" s="1073" t="s">
+      <c r="G15" s="1087" t="s">
         <v>490</v>
       </c>
-      <c r="H15" s="1073"/>
-      <c r="I15" s="1074"/>
+      <c r="H15" s="1087"/>
+      <c r="I15" s="1088"/>
       <c r="J15" s="216"/>
       <c r="K15" s="217"/>
       <c r="L15" s="217"/>
@@ -32236,10 +32236,10 @@
         <v>1127</v>
       </c>
       <c r="R20" s="349"/>
-      <c r="S20" s="1075" t="s">
+      <c r="S20" s="1089" t="s">
         <v>512</v>
       </c>
-      <c r="T20" s="1076"/>
+      <c r="T20" s="1090"/>
       <c r="W20" s="25"/>
     </row>
     <row r="21" spans="1:23" ht="17.649999999999999" customHeight="1">
@@ -32270,8 +32270,8 @@
         <v>1126</v>
       </c>
       <c r="R21" s="345"/>
-      <c r="S21" s="1169"/>
-      <c r="T21" s="1170"/>
+      <c r="S21" s="1167"/>
+      <c r="T21" s="1168"/>
       <c r="W21" s="25"/>
     </row>
     <row r="22" spans="1:23" ht="17.25">
@@ -32302,8 +32302,8 @@
         <v>499</v>
       </c>
       <c r="R22" s="231"/>
-      <c r="S22" s="1169"/>
-      <c r="T22" s="1170"/>
+      <c r="S22" s="1167"/>
+      <c r="T22" s="1168"/>
       <c r="W22" s="25"/>
     </row>
     <row r="23" spans="1:23" ht="37.5" customHeight="1">
@@ -32316,17 +32316,17 @@
       <c r="D23" s="350"/>
       <c r="E23" s="176"/>
       <c r="F23" s="230"/>
-      <c r="G23" s="958" t="s">
+      <c r="G23" s="971" t="s">
         <v>1201</v>
       </c>
-      <c r="H23" s="959"/>
-      <c r="I23" s="959"/>
-      <c r="J23" s="959"/>
-      <c r="K23" s="959"/>
-      <c r="L23" s="959"/>
-      <c r="M23" s="959"/>
-      <c r="N23" s="959"/>
-      <c r="O23" s="960"/>
+      <c r="H23" s="972"/>
+      <c r="I23" s="972"/>
+      <c r="J23" s="972"/>
+      <c r="K23" s="972"/>
+      <c r="L23" s="972"/>
+      <c r="M23" s="972"/>
+      <c r="N23" s="972"/>
+      <c r="O23" s="973"/>
       <c r="P23" s="353">
         <v>6</v>
       </c>
@@ -32334,8 +32334,8 @@
         <v>1203</v>
       </c>
       <c r="R23" s="231"/>
-      <c r="S23" s="1169"/>
-      <c r="T23" s="1170"/>
+      <c r="S23" s="1167"/>
+      <c r="T23" s="1168"/>
       <c r="W23" s="25"/>
     </row>
     <row r="24" spans="1:23" ht="17.25">
@@ -32366,8 +32366,8 @@
         <v>503</v>
       </c>
       <c r="R24" s="151"/>
-      <c r="S24" s="1169"/>
-      <c r="T24" s="1170"/>
+      <c r="S24" s="1167"/>
+      <c r="T24" s="1168"/>
       <c r="W24" s="25"/>
     </row>
     <row r="25" spans="1:23" ht="18" thickBot="1">
@@ -32388,8 +32388,8 @@
       <c r="P25" s="154"/>
       <c r="Q25" s="60"/>
       <c r="R25" s="62"/>
-      <c r="S25" s="1077"/>
-      <c r="T25" s="1078"/>
+      <c r="S25" s="1091"/>
+      <c r="T25" s="1092"/>
       <c r="W25" s="25"/>
     </row>
     <row r="26" spans="1:23" ht="17.25">
@@ -32414,10 +32414,10 @@
         <v>513</v>
       </c>
       <c r="R26" s="437"/>
-      <c r="S26" s="1075" t="s">
+      <c r="S26" s="1089" t="s">
         <v>510</v>
       </c>
-      <c r="T26" s="1076"/>
+      <c r="T26" s="1090"/>
       <c r="W26" s="25"/>
     </row>
     <row r="27" spans="1:23" ht="18" thickBot="1">
@@ -32438,8 +32438,8 @@
       <c r="P27" s="154"/>
       <c r="Q27" s="60"/>
       <c r="R27" s="62"/>
-      <c r="S27" s="1077"/>
-      <c r="T27" s="1078"/>
+      <c r="S27" s="1091"/>
+      <c r="T27" s="1092"/>
       <c r="W27" s="25"/>
     </row>
     <row r="28" spans="1:23" ht="17.649999999999999" customHeight="1">
@@ -32470,10 +32470,10 @@
         <v>691</v>
       </c>
       <c r="R28" s="332"/>
-      <c r="S28" s="1075" t="s">
+      <c r="S28" s="1089" t="s">
         <v>515</v>
       </c>
-      <c r="T28" s="1076"/>
+      <c r="T28" s="1090"/>
       <c r="W28" s="25"/>
     </row>
     <row r="29" spans="1:23" ht="17.649999999999999" customHeight="1">
@@ -32504,8 +32504,8 @@
         <v>690</v>
       </c>
       <c r="R29" s="231"/>
-      <c r="S29" s="1169"/>
-      <c r="T29" s="1170"/>
+      <c r="S29" s="1167"/>
+      <c r="T29" s="1168"/>
       <c r="W29" s="25"/>
     </row>
     <row r="30" spans="1:23" ht="17.25">
@@ -32536,8 +32536,8 @@
         <v>499</v>
       </c>
       <c r="R30" s="231"/>
-      <c r="S30" s="1169"/>
-      <c r="T30" s="1170"/>
+      <c r="S30" s="1167"/>
+      <c r="T30" s="1168"/>
       <c r="W30" s="25"/>
     </row>
     <row r="31" spans="1:23" ht="37.5" customHeight="1">
@@ -32550,17 +32550,17 @@
       <c r="D31" s="350"/>
       <c r="E31" s="176"/>
       <c r="F31" s="230"/>
-      <c r="G31" s="958" t="s">
+      <c r="G31" s="971" t="s">
         <v>1201</v>
       </c>
-      <c r="H31" s="959"/>
-      <c r="I31" s="959"/>
-      <c r="J31" s="959"/>
-      <c r="K31" s="959"/>
-      <c r="L31" s="959"/>
-      <c r="M31" s="959"/>
-      <c r="N31" s="959"/>
-      <c r="O31" s="960"/>
+      <c r="H31" s="972"/>
+      <c r="I31" s="972"/>
+      <c r="J31" s="972"/>
+      <c r="K31" s="972"/>
+      <c r="L31" s="972"/>
+      <c r="M31" s="972"/>
+      <c r="N31" s="972"/>
+      <c r="O31" s="973"/>
       <c r="P31" s="353">
         <v>6</v>
       </c>
@@ -32568,8 +32568,8 @@
         <v>1203</v>
       </c>
       <c r="R31" s="231"/>
-      <c r="S31" s="1169"/>
-      <c r="T31" s="1170"/>
+      <c r="S31" s="1167"/>
+      <c r="T31" s="1168"/>
       <c r="W31" s="25"/>
     </row>
     <row r="32" spans="1:23" ht="17.25">
@@ -32600,8 +32600,8 @@
         <v>509</v>
       </c>
       <c r="R32" s="231"/>
-      <c r="S32" s="1169"/>
-      <c r="T32" s="1170"/>
+      <c r="S32" s="1167"/>
+      <c r="T32" s="1168"/>
       <c r="W32" s="25"/>
     </row>
     <row r="33" spans="2:23" ht="17.649999999999999" customHeight="1">
@@ -32632,8 +32632,8 @@
         <v>530</v>
       </c>
       <c r="R33" s="163"/>
-      <c r="S33" s="1169"/>
-      <c r="T33" s="1170"/>
+      <c r="S33" s="1167"/>
+      <c r="T33" s="1168"/>
       <c r="W33" s="25"/>
     </row>
     <row r="34" spans="2:23" ht="17.649999999999999" customHeight="1" thickBot="1">
@@ -32654,8 +32654,8 @@
       <c r="P34" s="154"/>
       <c r="Q34" s="60"/>
       <c r="R34" s="62"/>
-      <c r="S34" s="1077"/>
-      <c r="T34" s="1078"/>
+      <c r="S34" s="1091"/>
+      <c r="T34" s="1092"/>
       <c r="W34" s="25"/>
     </row>
     <row r="35" spans="2:23" ht="17.649999999999999" customHeight="1">
@@ -32686,10 +32686,10 @@
         <v>691</v>
       </c>
       <c r="R35" s="349"/>
-      <c r="S35" s="1075" t="s">
+      <c r="S35" s="1089" t="s">
         <v>511</v>
       </c>
-      <c r="T35" s="1076"/>
+      <c r="T35" s="1090"/>
       <c r="W35" s="25"/>
     </row>
     <row r="36" spans="2:23" ht="17.649999999999999" customHeight="1">
@@ -32720,8 +32720,8 @@
         <v>690</v>
       </c>
       <c r="R36" s="345"/>
-      <c r="S36" s="1169"/>
-      <c r="T36" s="1170"/>
+      <c r="S36" s="1167"/>
+      <c r="T36" s="1168"/>
       <c r="W36" s="25"/>
     </row>
     <row r="37" spans="2:23" ht="17.25">
@@ -32752,8 +32752,8 @@
         <v>517</v>
       </c>
       <c r="R37" s="345"/>
-      <c r="S37" s="1169"/>
-      <c r="T37" s="1170"/>
+      <c r="S37" s="1167"/>
+      <c r="T37" s="1168"/>
       <c r="W37" s="25"/>
     </row>
     <row r="38" spans="2:23" ht="17.649999999999999" customHeight="1">
@@ -32784,8 +32784,8 @@
         <v>707</v>
       </c>
       <c r="R38" s="151"/>
-      <c r="S38" s="1169"/>
-      <c r="T38" s="1170"/>
+      <c r="S38" s="1167"/>
+      <c r="T38" s="1168"/>
       <c r="W38" s="25"/>
     </row>
     <row r="39" spans="2:23" ht="17.649999999999999" customHeight="1">
@@ -32816,8 +32816,8 @@
         <v>525</v>
       </c>
       <c r="R39" s="163"/>
-      <c r="S39" s="1169"/>
-      <c r="T39" s="1170"/>
+      <c r="S39" s="1167"/>
+      <c r="T39" s="1168"/>
       <c r="W39" s="25"/>
     </row>
     <row r="40" spans="2:23" ht="17.649999999999999" customHeight="1">
@@ -32848,8 +32848,8 @@
         <v>518</v>
       </c>
       <c r="R40" s="163"/>
-      <c r="S40" s="1169"/>
-      <c r="T40" s="1170"/>
+      <c r="S40" s="1167"/>
+      <c r="T40" s="1168"/>
       <c r="W40" s="25"/>
     </row>
     <row r="41" spans="2:23" ht="17.649999999999999" customHeight="1">
@@ -32880,8 +32880,8 @@
         <v>521</v>
       </c>
       <c r="R41" s="163"/>
-      <c r="S41" s="1169"/>
-      <c r="T41" s="1170"/>
+      <c r="S41" s="1167"/>
+      <c r="T41" s="1168"/>
       <c r="W41" s="25"/>
     </row>
     <row r="42" spans="2:23" ht="17.649999999999999" customHeight="1">
@@ -32912,8 +32912,8 @@
         <v>529</v>
       </c>
       <c r="R42" s="163"/>
-      <c r="S42" s="1169"/>
-      <c r="T42" s="1170"/>
+      <c r="S42" s="1167"/>
+      <c r="T42" s="1168"/>
       <c r="W42" s="25"/>
     </row>
     <row r="43" spans="2:23" ht="17.649999999999999" customHeight="1" thickBot="1">
@@ -32934,8 +32934,8 @@
       <c r="P43" s="154"/>
       <c r="Q43" s="60"/>
       <c r="R43" s="62"/>
-      <c r="S43" s="1077"/>
-      <c r="T43" s="1078"/>
+      <c r="S43" s="1091"/>
+      <c r="T43" s="1092"/>
       <c r="W43" s="25"/>
     </row>
     <row r="44" spans="2:23">
@@ -33706,6 +33706,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="J7:T7"/>
+    <mergeCell ref="D9:F14"/>
+    <mergeCell ref="G9:I14"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="S20:T25"/>
     <mergeCell ref="S26:T27"/>
     <mergeCell ref="S28:T34"/>
@@ -33713,13 +33720,6 @@
     <mergeCell ref="G15:I15"/>
     <mergeCell ref="G23:O23"/>
     <mergeCell ref="G31:O31"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="J7:T7"/>
-    <mergeCell ref="D9:F14"/>
-    <mergeCell ref="G9:I14"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.5805555555555556" right="0.70866141732283472" top="0.76388888888888884" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -33823,45 +33823,45 @@
     </row>
     <row r="7" spans="1:23" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="972" t="s">
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="976" t="s">
+      <c r="D8" s="955" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="979"/>
-      <c r="F8" s="977"/>
-      <c r="G8" s="978" t="s">
+      <c r="E8" s="958"/>
+      <c r="F8" s="956"/>
+      <c r="G8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -34028,10 +34028,10 @@
         <v>573</v>
       </c>
       <c r="R15" s="77"/>
-      <c r="S15" s="947" t="s">
+      <c r="S15" s="960" t="s">
         <v>563</v>
       </c>
-      <c r="T15" s="948"/>
+      <c r="T15" s="961"/>
       <c r="W15" s="25"/>
     </row>
     <row r="16" spans="1:23" ht="17.649999999999999" customHeight="1">
@@ -34062,8 +34062,8 @@
         <v>567</v>
       </c>
       <c r="R16" s="151"/>
-      <c r="S16" s="949"/>
-      <c r="T16" s="950"/>
+      <c r="S16" s="962"/>
+      <c r="T16" s="963"/>
       <c r="W16" s="25"/>
     </row>
     <row r="17" spans="2:23" ht="17.25">
@@ -34094,8 +34094,8 @@
         <v>570</v>
       </c>
       <c r="R17" s="151"/>
-      <c r="S17" s="949"/>
-      <c r="T17" s="950"/>
+      <c r="S17" s="962"/>
+      <c r="T17" s="963"/>
       <c r="W17" s="25"/>
     </row>
     <row r="18" spans="2:23" ht="18" thickBot="1">
@@ -34116,8 +34116,8 @@
       <c r="P18" s="195"/>
       <c r="Q18" s="170"/>
       <c r="R18" s="361"/>
-      <c r="S18" s="951"/>
-      <c r="T18" s="952"/>
+      <c r="S18" s="964"/>
+      <c r="T18" s="965"/>
       <c r="W18" s="25"/>
     </row>
     <row r="19" spans="2:23">
@@ -35255,45 +35255,45 @@
     </row>
     <row r="7" spans="1:23" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="969"/>
-      <c r="D7" s="972" t="s">
+      <c r="C7" s="948"/>
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
-      <c r="C8" s="971"/>
-      <c r="D8" s="976" t="s">
+      <c r="B8" s="949"/>
+      <c r="C8" s="950"/>
+      <c r="D8" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="977"/>
-      <c r="F8" s="978" t="s">
+      <c r="E8" s="956"/>
+      <c r="F8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="979"/>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="G8" s="958"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -35327,20 +35327,20 @@
       <c r="T8" s="210"/>
     </row>
     <row r="9" spans="1:23" customFormat="1" ht="17.649999999999999" customHeight="1" thickBot="1">
-      <c r="B9" s="963" t="s">
+      <c r="B9" s="976" t="s">
         <v>1297</v>
       </c>
-      <c r="C9" s="964"/>
+      <c r="C9" s="977"/>
       <c r="D9" s="383" t="s">
         <v>1300</v>
       </c>
       <c r="E9" s="384"/>
-      <c r="F9" s="965" t="s">
+      <c r="F9" s="978" t="s">
         <v>1303</v>
       </c>
-      <c r="G9" s="966"/>
-      <c r="H9" s="966"/>
-      <c r="I9" s="967"/>
+      <c r="G9" s="979"/>
+      <c r="H9" s="979"/>
+      <c r="I9" s="980"/>
       <c r="J9" s="391" t="s">
         <v>653</v>
       </c>
@@ -35433,11 +35433,11 @@
       <c r="B14" s="357">
         <v>5</v>
       </c>
-      <c r="C14" s="1033" t="s">
+      <c r="C14" s="1107" t="s">
         <v>1308</v>
       </c>
-      <c r="D14" s="1034"/>
-      <c r="E14" s="1035"/>
+      <c r="D14" s="1108"/>
+      <c r="E14" s="1109"/>
       <c r="F14" s="197" t="s">
         <v>1309</v>
       </c>
@@ -35457,21 +35457,21 @@
         <v>1307</v>
       </c>
       <c r="R14" s="77"/>
-      <c r="S14" s="947" t="s">
+      <c r="S14" s="960" t="s">
         <v>1305</v>
       </c>
-      <c r="T14" s="948"/>
+      <c r="T14" s="961"/>
       <c r="W14" s="25"/>
     </row>
     <row r="15" spans="1:23" ht="52.9" customHeight="1">
       <c r="B15" s="153">
         <v>6</v>
       </c>
-      <c r="C15" s="958" t="s">
+      <c r="C15" s="971" t="s">
         <v>1310</v>
       </c>
-      <c r="D15" s="959"/>
-      <c r="E15" s="960"/>
+      <c r="D15" s="972"/>
+      <c r="E15" s="973"/>
       <c r="F15" s="139" t="s">
         <v>1312</v>
       </c>
@@ -35491,8 +35491,8 @@
         <v>1311</v>
       </c>
       <c r="R15" s="151"/>
-      <c r="S15" s="949"/>
-      <c r="T15" s="950"/>
+      <c r="S15" s="962"/>
+      <c r="T15" s="963"/>
       <c r="W15" s="25"/>
     </row>
     <row r="16" spans="1:23" ht="34.9" customHeight="1">
@@ -35504,18 +35504,18 @@
       </c>
       <c r="D16" s="140"/>
       <c r="E16" s="663"/>
-      <c r="F16" s="958" t="s">
+      <c r="F16" s="971" t="s">
         <v>1327</v>
       </c>
-      <c r="G16" s="961"/>
-      <c r="H16" s="961"/>
-      <c r="I16" s="961"/>
-      <c r="J16" s="961"/>
-      <c r="K16" s="961"/>
-      <c r="L16" s="961"/>
-      <c r="M16" s="961"/>
-      <c r="N16" s="961"/>
-      <c r="O16" s="962"/>
+      <c r="G16" s="974"/>
+      <c r="H16" s="974"/>
+      <c r="I16" s="974"/>
+      <c r="J16" s="974"/>
+      <c r="K16" s="974"/>
+      <c r="L16" s="974"/>
+      <c r="M16" s="974"/>
+      <c r="N16" s="974"/>
+      <c r="O16" s="975"/>
       <c r="P16" s="177">
         <v>9</v>
       </c>
@@ -35523,31 +35523,31 @@
         <v>1326</v>
       </c>
       <c r="R16" s="151"/>
-      <c r="S16" s="949"/>
-      <c r="T16" s="950"/>
+      <c r="S16" s="962"/>
+      <c r="T16" s="963"/>
       <c r="W16" s="25"/>
     </row>
     <row r="17" spans="2:23" ht="34.9" customHeight="1">
       <c r="B17" s="153">
         <v>16</v>
       </c>
-      <c r="C17" s="958" t="s">
+      <c r="C17" s="971" t="s">
         <v>1332</v>
       </c>
-      <c r="D17" s="959"/>
-      <c r="E17" s="960"/>
-      <c r="F17" s="958" t="s">
+      <c r="D17" s="972"/>
+      <c r="E17" s="973"/>
+      <c r="F17" s="971" t="s">
         <v>1334</v>
       </c>
-      <c r="G17" s="959"/>
-      <c r="H17" s="959"/>
-      <c r="I17" s="959"/>
-      <c r="J17" s="959"/>
-      <c r="K17" s="959"/>
-      <c r="L17" s="959"/>
-      <c r="M17" s="959"/>
-      <c r="N17" s="959"/>
-      <c r="O17" s="960"/>
+      <c r="G17" s="972"/>
+      <c r="H17" s="972"/>
+      <c r="I17" s="972"/>
+      <c r="J17" s="972"/>
+      <c r="K17" s="972"/>
+      <c r="L17" s="972"/>
+      <c r="M17" s="972"/>
+      <c r="N17" s="972"/>
+      <c r="O17" s="973"/>
       <c r="P17" s="177">
         <v>16</v>
       </c>
@@ -35555,31 +35555,31 @@
         <v>1335</v>
       </c>
       <c r="R17" s="151"/>
-      <c r="S17" s="949"/>
-      <c r="T17" s="950"/>
+      <c r="S17" s="962"/>
+      <c r="T17" s="963"/>
       <c r="W17" s="25"/>
     </row>
     <row r="18" spans="2:23" ht="40.5" customHeight="1">
       <c r="B18" s="153">
         <v>289</v>
       </c>
-      <c r="C18" s="958" t="s">
+      <c r="C18" s="971" t="s">
         <v>1315</v>
       </c>
-      <c r="D18" s="959"/>
-      <c r="E18" s="960"/>
-      <c r="F18" s="958" t="s">
+      <c r="D18" s="972"/>
+      <c r="E18" s="973"/>
+      <c r="F18" s="971" t="s">
         <v>1333</v>
       </c>
-      <c r="G18" s="959"/>
-      <c r="H18" s="959"/>
-      <c r="I18" s="959"/>
-      <c r="J18" s="959"/>
-      <c r="K18" s="959"/>
-      <c r="L18" s="959"/>
-      <c r="M18" s="959"/>
-      <c r="N18" s="959"/>
-      <c r="O18" s="960"/>
+      <c r="G18" s="972"/>
+      <c r="H18" s="972"/>
+      <c r="I18" s="972"/>
+      <c r="J18" s="972"/>
+      <c r="K18" s="972"/>
+      <c r="L18" s="972"/>
+      <c r="M18" s="972"/>
+      <c r="N18" s="972"/>
+      <c r="O18" s="973"/>
       <c r="P18" s="177">
         <v>289</v>
       </c>
@@ -35587,8 +35587,8 @@
         <v>1316</v>
       </c>
       <c r="R18" s="151"/>
-      <c r="S18" s="949"/>
-      <c r="T18" s="950"/>
+      <c r="S18" s="962"/>
+      <c r="T18" s="963"/>
       <c r="W18" s="25"/>
     </row>
     <row r="19" spans="2:23" ht="17.25">
@@ -35619,31 +35619,31 @@
         <v>1319</v>
       </c>
       <c r="R19" s="151"/>
-      <c r="S19" s="949"/>
-      <c r="T19" s="950"/>
+      <c r="S19" s="962"/>
+      <c r="T19" s="963"/>
       <c r="W19" s="25"/>
     </row>
     <row r="20" spans="2:23" ht="36.950000000000003" customHeight="1">
       <c r="B20" s="153">
         <v>311</v>
       </c>
-      <c r="C20" s="958" t="s">
+      <c r="C20" s="971" t="s">
         <v>1320</v>
       </c>
-      <c r="D20" s="959"/>
-      <c r="E20" s="960"/>
-      <c r="F20" s="958" t="s">
+      <c r="D20" s="972"/>
+      <c r="E20" s="973"/>
+      <c r="F20" s="971" t="s">
         <v>1321</v>
       </c>
-      <c r="G20" s="961"/>
-      <c r="H20" s="961"/>
-      <c r="I20" s="961"/>
-      <c r="J20" s="961"/>
-      <c r="K20" s="961"/>
-      <c r="L20" s="961"/>
-      <c r="M20" s="961"/>
-      <c r="N20" s="961"/>
-      <c r="O20" s="962"/>
+      <c r="G20" s="974"/>
+      <c r="H20" s="974"/>
+      <c r="I20" s="974"/>
+      <c r="J20" s="974"/>
+      <c r="K20" s="974"/>
+      <c r="L20" s="974"/>
+      <c r="M20" s="974"/>
+      <c r="N20" s="974"/>
+      <c r="O20" s="975"/>
       <c r="P20" s="177">
         <v>311</v>
       </c>
@@ -35651,8 +35651,8 @@
         <v>1322</v>
       </c>
       <c r="R20" s="151"/>
-      <c r="S20" s="949"/>
-      <c r="T20" s="950"/>
+      <c r="S20" s="962"/>
+      <c r="T20" s="963"/>
       <c r="W20" s="25"/>
     </row>
     <row r="21" spans="2:23" ht="36.950000000000003" customHeight="1">
@@ -35683,31 +35683,31 @@
         <v>1325</v>
       </c>
       <c r="R21" s="151"/>
-      <c r="S21" s="949"/>
-      <c r="T21" s="950"/>
+      <c r="S21" s="962"/>
+      <c r="T21" s="963"/>
       <c r="W21" s="25"/>
     </row>
     <row r="22" spans="2:23" ht="37.9" customHeight="1">
       <c r="B22" s="153">
         <v>413</v>
       </c>
-      <c r="C22" s="958" t="s">
+      <c r="C22" s="971" t="s">
         <v>1313</v>
       </c>
-      <c r="D22" s="959"/>
-      <c r="E22" s="960"/>
-      <c r="F22" s="958" t="s">
+      <c r="D22" s="972"/>
+      <c r="E22" s="973"/>
+      <c r="F22" s="971" t="s">
         <v>1314</v>
       </c>
-      <c r="G22" s="959"/>
-      <c r="H22" s="959"/>
-      <c r="I22" s="959"/>
-      <c r="J22" s="959"/>
-      <c r="K22" s="959"/>
-      <c r="L22" s="959"/>
-      <c r="M22" s="959"/>
-      <c r="N22" s="959"/>
-      <c r="O22" s="960"/>
+      <c r="G22" s="972"/>
+      <c r="H22" s="972"/>
+      <c r="I22" s="972"/>
+      <c r="J22" s="972"/>
+      <c r="K22" s="972"/>
+      <c r="L22" s="972"/>
+      <c r="M22" s="972"/>
+      <c r="N22" s="972"/>
+      <c r="O22" s="973"/>
       <c r="P22" s="177">
         <v>413</v>
       </c>
@@ -35715,8 +35715,8 @@
         <v>1113</v>
       </c>
       <c r="R22" s="151"/>
-      <c r="S22" s="949"/>
-      <c r="T22" s="950"/>
+      <c r="S22" s="962"/>
+      <c r="T22" s="963"/>
       <c r="W22" s="25"/>
     </row>
     <row r="23" spans="2:23" ht="17.25">
@@ -35737,8 +35737,8 @@
       <c r="P23" s="387"/>
       <c r="Q23" s="388"/>
       <c r="R23" s="163"/>
-      <c r="S23" s="949"/>
-      <c r="T23" s="950"/>
+      <c r="S23" s="962"/>
+      <c r="T23" s="963"/>
       <c r="W23" s="25"/>
     </row>
     <row r="24" spans="2:23" ht="17.25">
@@ -35759,8 +35759,8 @@
       <c r="P24" s="387"/>
       <c r="Q24" s="388"/>
       <c r="R24" s="163"/>
-      <c r="S24" s="949"/>
-      <c r="T24" s="950"/>
+      <c r="S24" s="962"/>
+      <c r="T24" s="963"/>
       <c r="W24" s="25"/>
     </row>
     <row r="25" spans="2:23" ht="17.25">
@@ -35781,15 +35781,15 @@
       <c r="P25" s="387"/>
       <c r="Q25" s="388"/>
       <c r="R25" s="163"/>
-      <c r="S25" s="949"/>
-      <c r="T25" s="950"/>
+      <c r="S25" s="962"/>
+      <c r="T25" s="963"/>
       <c r="W25" s="25"/>
     </row>
     <row r="26" spans="2:23" ht="17.25">
       <c r="B26" s="236"/>
-      <c r="C26" s="958"/>
-      <c r="D26" s="959"/>
-      <c r="E26" s="960"/>
+      <c r="C26" s="971"/>
+      <c r="D26" s="972"/>
+      <c r="E26" s="973"/>
       <c r="F26" s="136"/>
       <c r="G26" s="122"/>
       <c r="H26" s="122"/>
@@ -35803,8 +35803,8 @@
       <c r="P26" s="387"/>
       <c r="Q26" s="388"/>
       <c r="R26" s="163"/>
-      <c r="S26" s="949"/>
-      <c r="T26" s="950"/>
+      <c r="S26" s="962"/>
+      <c r="T26" s="963"/>
       <c r="W26" s="25"/>
     </row>
     <row r="27" spans="2:23" ht="17.25">
@@ -35825,8 +35825,8 @@
       <c r="P27" s="387"/>
       <c r="Q27" s="388"/>
       <c r="R27" s="163"/>
-      <c r="S27" s="949"/>
-      <c r="T27" s="950"/>
+      <c r="S27" s="962"/>
+      <c r="T27" s="963"/>
       <c r="W27" s="25"/>
     </row>
     <row r="28" spans="2:23" ht="18" thickBot="1">
@@ -35847,8 +35847,8 @@
       <c r="P28" s="195"/>
       <c r="Q28" s="170"/>
       <c r="R28" s="361"/>
-      <c r="S28" s="951"/>
-      <c r="T28" s="952"/>
+      <c r="S28" s="964"/>
+      <c r="T28" s="965"/>
       <c r="W28" s="25"/>
     </row>
     <row r="29" spans="2:23">
@@ -36688,13 +36688,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:T7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
     <mergeCell ref="F16:O16"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:O17"/>
@@ -36708,6 +36701,13 @@
     <mergeCell ref="F18:O18"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="F20:O20"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:T7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.5805555555555556" right="0.70866141732283472" top="0.76388888888888884" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -36811,45 +36811,45 @@
     </row>
     <row r="7" spans="1:23" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="969"/>
-      <c r="D7" s="972" t="s">
+      <c r="C7" s="948"/>
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
-      <c r="C8" s="971"/>
-      <c r="D8" s="976" t="s">
+      <c r="B8" s="949"/>
+      <c r="C8" s="950"/>
+      <c r="D8" s="955" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="977"/>
-      <c r="F8" s="978" t="s">
+      <c r="E8" s="956"/>
+      <c r="F8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="979"/>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="G8" s="958"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -36883,20 +36883,20 @@
       <c r="T8" s="210"/>
     </row>
     <row r="9" spans="1:23" customFormat="1" ht="17.649999999999999" customHeight="1" thickBot="1">
-      <c r="B9" s="963" t="s">
+      <c r="B9" s="976" t="s">
         <v>575</v>
       </c>
-      <c r="C9" s="964"/>
+      <c r="C9" s="977"/>
       <c r="D9" s="383" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="384"/>
-      <c r="F9" s="965" t="s">
+      <c r="F9" s="978" t="s">
         <v>576</v>
       </c>
-      <c r="G9" s="966"/>
-      <c r="H9" s="966"/>
-      <c r="I9" s="967"/>
+      <c r="G9" s="979"/>
+      <c r="H9" s="979"/>
+      <c r="I9" s="980"/>
       <c r="J9" s="391" t="s">
         <v>832</v>
       </c>
@@ -37001,10 +37001,10 @@
         <v>581</v>
       </c>
       <c r="R14" s="77"/>
-      <c r="S14" s="947" t="s">
+      <c r="S14" s="960" t="s">
         <v>637</v>
       </c>
-      <c r="T14" s="948"/>
+      <c r="T14" s="961"/>
       <c r="W14" s="25"/>
     </row>
     <row r="15" spans="1:23" ht="17.649999999999999" customHeight="1">
@@ -37035,8 +37035,8 @@
         <v>582</v>
       </c>
       <c r="R15" s="151"/>
-      <c r="S15" s="949"/>
-      <c r="T15" s="950"/>
+      <c r="S15" s="962"/>
+      <c r="T15" s="963"/>
       <c r="W15" s="25"/>
     </row>
     <row r="16" spans="1:23" ht="17.25">
@@ -37067,8 +37067,8 @@
         <v>591</v>
       </c>
       <c r="R16" s="151"/>
-      <c r="S16" s="949"/>
-      <c r="T16" s="950"/>
+      <c r="S16" s="962"/>
+      <c r="T16" s="963"/>
       <c r="W16" s="25"/>
     </row>
     <row r="17" spans="2:23" ht="17.25">
@@ -37099,8 +37099,8 @@
         <v>594</v>
       </c>
       <c r="R17" s="163"/>
-      <c r="S17" s="949"/>
-      <c r="T17" s="950"/>
+      <c r="S17" s="962"/>
+      <c r="T17" s="963"/>
       <c r="W17" s="25"/>
     </row>
     <row r="18" spans="2:23" ht="17.25">
@@ -37131,8 +37131,8 @@
         <v>593</v>
       </c>
       <c r="R18" s="163"/>
-      <c r="S18" s="949"/>
-      <c r="T18" s="950"/>
+      <c r="S18" s="962"/>
+      <c r="T18" s="963"/>
       <c r="W18" s="25"/>
     </row>
     <row r="19" spans="2:23" ht="17.25">
@@ -37163,19 +37163,19 @@
         <v>613</v>
       </c>
       <c r="R19" s="163"/>
-      <c r="S19" s="949"/>
-      <c r="T19" s="950"/>
+      <c r="S19" s="962"/>
+      <c r="T19" s="963"/>
       <c r="W19" s="25"/>
     </row>
     <row r="20" spans="2:23" ht="33.4" customHeight="1">
       <c r="B20" s="236" t="s">
         <v>609</v>
       </c>
-      <c r="C20" s="958" t="s">
+      <c r="C20" s="971" t="s">
         <v>610</v>
       </c>
-      <c r="D20" s="959"/>
-      <c r="E20" s="960"/>
+      <c r="D20" s="972"/>
+      <c r="E20" s="973"/>
       <c r="F20" s="136" t="s">
         <v>611</v>
       </c>
@@ -37195,8 +37195,8 @@
         <v>612</v>
       </c>
       <c r="R20" s="163"/>
-      <c r="S20" s="949"/>
-      <c r="T20" s="950"/>
+      <c r="S20" s="962"/>
+      <c r="T20" s="963"/>
       <c r="W20" s="25"/>
     </row>
     <row r="21" spans="2:23" ht="17.25">
@@ -37227,8 +37227,8 @@
         <v>607</v>
       </c>
       <c r="R21" s="163"/>
-      <c r="S21" s="949"/>
-      <c r="T21" s="950"/>
+      <c r="S21" s="962"/>
+      <c r="T21" s="963"/>
       <c r="W21" s="25"/>
     </row>
     <row r="22" spans="2:23" ht="18" thickBot="1">
@@ -37249,8 +37249,8 @@
       <c r="P22" s="195"/>
       <c r="Q22" s="170"/>
       <c r="R22" s="361"/>
-      <c r="S22" s="951"/>
-      <c r="T22" s="952"/>
+      <c r="S22" s="964"/>
+      <c r="T22" s="965"/>
       <c r="W22" s="25"/>
     </row>
     <row r="23" spans="2:23">
@@ -38205,45 +38205,45 @@
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="968" t="s">
+      <c r="B8" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="981"/>
-      <c r="D8" s="973" t="s">
+      <c r="D8" s="952" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="973"/>
-      <c r="F8" s="973"/>
-      <c r="G8" s="973"/>
-      <c r="H8" s="973"/>
-      <c r="I8" s="974"/>
-      <c r="J8" s="975" t="s">
+      <c r="E8" s="952"/>
+      <c r="F8" s="952"/>
+      <c r="G8" s="952"/>
+      <c r="H8" s="952"/>
+      <c r="I8" s="953"/>
+      <c r="J8" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="925"/>
-      <c r="L8" s="925"/>
-      <c r="M8" s="925"/>
-      <c r="N8" s="925"/>
-      <c r="O8" s="925"/>
-      <c r="P8" s="925"/>
-      <c r="Q8" s="925"/>
-      <c r="R8" s="925"/>
-      <c r="S8" s="925"/>
-      <c r="T8" s="942"/>
+      <c r="K8" s="906"/>
+      <c r="L8" s="906"/>
+      <c r="M8" s="906"/>
+      <c r="N8" s="906"/>
+      <c r="O8" s="906"/>
+      <c r="P8" s="906"/>
+      <c r="Q8" s="906"/>
+      <c r="R8" s="906"/>
+      <c r="S8" s="906"/>
+      <c r="T8" s="946"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B9" s="970"/>
+      <c r="B9" s="949"/>
       <c r="C9" s="982"/>
-      <c r="D9" s="979" t="s">
+      <c r="D9" s="958" t="s">
         <v>619</v>
       </c>
-      <c r="E9" s="979"/>
-      <c r="F9" s="977"/>
-      <c r="G9" s="978" t="s">
+      <c r="E9" s="958"/>
+      <c r="F9" s="956"/>
+      <c r="G9" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="979"/>
-      <c r="I9" s="980"/>
+      <c r="H9" s="958"/>
+      <c r="I9" s="959"/>
       <c r="J9" s="274" t="s">
         <v>34</v>
       </c>
@@ -39388,45 +39388,45 @@
     </row>
     <row r="7" spans="1:23" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="972" t="s">
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="976" t="s">
+      <c r="D8" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="979"/>
-      <c r="F8" s="977"/>
-      <c r="G8" s="978" t="s">
+      <c r="E8" s="958"/>
+      <c r="F8" s="956"/>
+      <c r="G8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -39612,18 +39612,18 @@
       </c>
       <c r="D16" s="124"/>
       <c r="E16" s="124"/>
-      <c r="F16" s="958" t="s">
+      <c r="F16" s="971" t="s">
         <v>892</v>
       </c>
-      <c r="G16" s="959"/>
-      <c r="H16" s="959"/>
-      <c r="I16" s="959"/>
-      <c r="J16" s="959"/>
-      <c r="K16" s="959"/>
-      <c r="L16" s="959"/>
-      <c r="M16" s="959"/>
-      <c r="N16" s="959"/>
-      <c r="O16" s="960"/>
+      <c r="G16" s="972"/>
+      <c r="H16" s="972"/>
+      <c r="I16" s="972"/>
+      <c r="J16" s="972"/>
+      <c r="K16" s="972"/>
+      <c r="L16" s="972"/>
+      <c r="M16" s="972"/>
+      <c r="N16" s="972"/>
+      <c r="O16" s="973"/>
       <c r="P16" s="523">
         <v>20</v>
       </c>
@@ -39804,18 +39804,18 @@
       </c>
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
-      <c r="F22" s="958" t="s">
+      <c r="F22" s="971" t="s">
         <v>643</v>
       </c>
-      <c r="G22" s="959"/>
-      <c r="H22" s="959"/>
-      <c r="I22" s="959"/>
-      <c r="J22" s="959"/>
-      <c r="K22" s="959"/>
-      <c r="L22" s="959"/>
-      <c r="M22" s="959"/>
-      <c r="N22" s="959"/>
-      <c r="O22" s="960"/>
+      <c r="G22" s="972"/>
+      <c r="H22" s="972"/>
+      <c r="I22" s="972"/>
+      <c r="J22" s="972"/>
+      <c r="K22" s="972"/>
+      <c r="L22" s="972"/>
+      <c r="M22" s="972"/>
+      <c r="N22" s="972"/>
+      <c r="O22" s="973"/>
       <c r="P22" s="177">
         <v>60</v>
       </c>
@@ -40818,45 +40818,45 @@
     </row>
     <row r="7" spans="1:23" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="972" t="s">
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="976" t="s">
+      <c r="D8" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="979"/>
-      <c r="F8" s="977"/>
-      <c r="G8" s="978" t="s">
+      <c r="E8" s="958"/>
+      <c r="F8" s="956"/>
+      <c r="G8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -41266,18 +41266,18 @@
       </c>
       <c r="D23" s="122"/>
       <c r="E23" s="122"/>
-      <c r="F23" s="958" t="s">
+      <c r="F23" s="971" t="s">
         <v>779</v>
       </c>
-      <c r="G23" s="959"/>
-      <c r="H23" s="959"/>
-      <c r="I23" s="959"/>
-      <c r="J23" s="959"/>
-      <c r="K23" s="959"/>
-      <c r="L23" s="959"/>
-      <c r="M23" s="959"/>
-      <c r="N23" s="959"/>
-      <c r="O23" s="960"/>
+      <c r="G23" s="972"/>
+      <c r="H23" s="972"/>
+      <c r="I23" s="972"/>
+      <c r="J23" s="972"/>
+      <c r="K23" s="972"/>
+      <c r="L23" s="972"/>
+      <c r="M23" s="972"/>
+      <c r="N23" s="972"/>
+      <c r="O23" s="973"/>
       <c r="P23" s="387">
         <v>78</v>
       </c>
@@ -42055,45 +42055,45 @@
     </row>
     <row r="7" spans="1:23" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="972" t="s">
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="976" t="s">
+      <c r="D8" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="979"/>
-      <c r="F8" s="977"/>
-      <c r="G8" s="978" t="s">
+      <c r="E8" s="958"/>
+      <c r="F8" s="956"/>
+      <c r="G8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -43060,7 +43060,7 @@
     </row>
     <row r="7" spans="1:23" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
@@ -43087,7 +43087,7 @@
       <c r="T7" s="1207"/>
     </row>
     <row r="8" spans="1:23" ht="30.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
       <c r="D8" s="561" t="s">
         <v>543</v>
@@ -43142,11 +43142,11 @@
       <c r="E9" s="1186"/>
       <c r="F9" s="1186"/>
       <c r="G9" s="1187"/>
-      <c r="H9" s="965" t="s">
+      <c r="H9" s="978" t="s">
         <v>1039</v>
       </c>
-      <c r="I9" s="966"/>
-      <c r="J9" s="967"/>
+      <c r="I9" s="979"/>
+      <c r="J9" s="980"/>
       <c r="K9" s="303"/>
       <c r="L9" s="304" t="s">
         <v>653</v>
@@ -43171,11 +43171,11 @@
       <c r="E10" s="1210"/>
       <c r="F10" s="1210"/>
       <c r="G10" s="992"/>
-      <c r="H10" s="965" t="s">
+      <c r="H10" s="978" t="s">
         <v>1059</v>
       </c>
-      <c r="I10" s="966"/>
-      <c r="J10" s="967"/>
+      <c r="I10" s="979"/>
+      <c r="J10" s="980"/>
       <c r="K10" s="391"/>
       <c r="L10" s="569"/>
       <c r="M10" s="393"/>
@@ -43200,11 +43200,11 @@
       <c r="E11" s="581"/>
       <c r="F11" s="581"/>
       <c r="G11" s="581"/>
-      <c r="H11" s="965" t="s">
+      <c r="H11" s="978" t="s">
         <v>1061</v>
       </c>
-      <c r="I11" s="966"/>
-      <c r="J11" s="967"/>
+      <c r="I11" s="979"/>
+      <c r="J11" s="980"/>
       <c r="K11" s="391"/>
       <c r="L11" s="569"/>
       <c r="M11" s="393"/>
@@ -43313,17 +43313,17 @@
       <c r="D17" s="358"/>
       <c r="E17" s="358"/>
       <c r="F17" s="559"/>
-      <c r="G17" s="1033" t="s">
+      <c r="G17" s="1107" t="s">
         <v>1028</v>
       </c>
-      <c r="H17" s="1034"/>
-      <c r="I17" s="1034"/>
-      <c r="J17" s="1034"/>
-      <c r="K17" s="1034"/>
-      <c r="L17" s="1034"/>
-      <c r="M17" s="1034"/>
-      <c r="N17" s="1034"/>
-      <c r="O17" s="1035"/>
+      <c r="H17" s="1108"/>
+      <c r="I17" s="1108"/>
+      <c r="J17" s="1108"/>
+      <c r="K17" s="1108"/>
+      <c r="L17" s="1108"/>
+      <c r="M17" s="1108"/>
+      <c r="N17" s="1108"/>
+      <c r="O17" s="1109"/>
       <c r="P17" s="359" t="s">
         <v>1025</v>
       </c>
@@ -43331,10 +43331,10 @@
         <v>1027</v>
       </c>
       <c r="R17" s="77"/>
-      <c r="S17" s="947" t="s">
+      <c r="S17" s="960" t="s">
         <v>1038</v>
       </c>
-      <c r="T17" s="948"/>
+      <c r="T17" s="961"/>
       <c r="W17" s="25"/>
     </row>
     <row r="18" spans="1:23" ht="38.25" customHeight="1">
@@ -43347,17 +43347,17 @@
       <c r="D18" s="125"/>
       <c r="E18" s="125"/>
       <c r="F18" s="128"/>
-      <c r="G18" s="958" t="s">
+      <c r="G18" s="971" t="s">
         <v>1030</v>
       </c>
-      <c r="H18" s="959"/>
-      <c r="I18" s="959"/>
-      <c r="J18" s="959"/>
-      <c r="K18" s="959"/>
-      <c r="L18" s="959"/>
-      <c r="M18" s="959"/>
-      <c r="N18" s="959"/>
-      <c r="O18" s="960"/>
+      <c r="H18" s="972"/>
+      <c r="I18" s="972"/>
+      <c r="J18" s="972"/>
+      <c r="K18" s="972"/>
+      <c r="L18" s="972"/>
+      <c r="M18" s="972"/>
+      <c r="N18" s="972"/>
+      <c r="O18" s="973"/>
       <c r="P18" s="177" t="s">
         <v>1029</v>
       </c>
@@ -43365,8 +43365,8 @@
         <v>1041</v>
       </c>
       <c r="R18" s="151"/>
-      <c r="S18" s="949"/>
-      <c r="T18" s="950"/>
+      <c r="S18" s="962"/>
+      <c r="T18" s="963"/>
       <c r="W18" s="25"/>
     </row>
     <row r="19" spans="1:23" ht="37.9" customHeight="1">
@@ -43379,17 +43379,17 @@
       <c r="D19" s="125"/>
       <c r="E19" s="125"/>
       <c r="F19" s="128"/>
-      <c r="G19" s="958" t="s">
+      <c r="G19" s="971" t="s">
         <v>1035</v>
       </c>
-      <c r="H19" s="961"/>
-      <c r="I19" s="961"/>
-      <c r="J19" s="961"/>
-      <c r="K19" s="961"/>
-      <c r="L19" s="961"/>
-      <c r="M19" s="961"/>
-      <c r="N19" s="961"/>
-      <c r="O19" s="962"/>
+      <c r="H19" s="974"/>
+      <c r="I19" s="974"/>
+      <c r="J19" s="974"/>
+      <c r="K19" s="974"/>
+      <c r="L19" s="974"/>
+      <c r="M19" s="974"/>
+      <c r="N19" s="974"/>
+      <c r="O19" s="975"/>
       <c r="P19" s="177" t="s">
         <v>1033</v>
       </c>
@@ -43397,8 +43397,8 @@
         <v>1042</v>
       </c>
       <c r="R19" s="151"/>
-      <c r="S19" s="949"/>
-      <c r="T19" s="950"/>
+      <c r="S19" s="962"/>
+      <c r="T19" s="963"/>
       <c r="W19" s="25"/>
     </row>
     <row r="20" spans="1:23" ht="45.75" customHeight="1" thickBot="1">
@@ -43429,8 +43429,8 @@
         <v>1032</v>
       </c>
       <c r="R20" s="361"/>
-      <c r="S20" s="951"/>
-      <c r="T20" s="952"/>
+      <c r="S20" s="964"/>
+      <c r="T20" s="965"/>
       <c r="W20" s="25"/>
     </row>
     <row r="21" spans="1:23" s="616" customFormat="1" ht="17.649999999999999" customHeight="1" thickBot="1">
@@ -44532,11 +44532,11 @@
     </row>
     <row r="7" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="972" t="s">
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="1223"/>
@@ -44544,33 +44544,33 @@
       <c r="G7" s="1223"/>
       <c r="H7" s="1223"/>
       <c r="I7" s="1224"/>
-      <c r="J7" s="975" t="s">
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="976" t="s">
+      <c r="D8" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="977"/>
-      <c r="F8" s="978" t="s">
+      <c r="E8" s="956"/>
+      <c r="F8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="979"/>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="G8" s="958"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -44612,12 +44612,12 @@
         <v>790</v>
       </c>
       <c r="E9" s="384"/>
-      <c r="F9" s="965" t="s">
+      <c r="F9" s="978" t="s">
         <v>791</v>
       </c>
-      <c r="G9" s="966"/>
-      <c r="H9" s="966"/>
-      <c r="I9" s="967"/>
+      <c r="G9" s="979"/>
+      <c r="H9" s="979"/>
+      <c r="I9" s="980"/>
       <c r="J9" s="380" t="s">
         <v>832</v>
       </c>
@@ -44692,10 +44692,10 @@
       <c r="T13" s="75"/>
     </row>
     <row r="14" spans="1:20" ht="18" thickBot="1">
-      <c r="B14" s="1075" t="s">
+      <c r="B14" s="1089" t="s">
         <v>637</v>
       </c>
-      <c r="C14" s="1076"/>
+      <c r="C14" s="1090"/>
       <c r="D14" s="317"/>
       <c r="E14" s="84">
         <v>1</v>
@@ -44721,8 +44721,8 @@
       <c r="T14" s="101"/>
     </row>
     <row r="15" spans="1:20" ht="17.25">
-      <c r="B15" s="1169"/>
-      <c r="C15" s="1170"/>
+      <c r="B15" s="1167"/>
+      <c r="C15" s="1168"/>
       <c r="D15" s="321"/>
       <c r="E15" s="88">
         <v>2</v>
@@ -44748,8 +44748,8 @@
       <c r="T15" s="103"/>
     </row>
     <row r="16" spans="1:20" ht="18" thickBot="1">
-      <c r="B16" s="1077"/>
-      <c r="C16" s="1078"/>
+      <c r="B16" s="1091"/>
+      <c r="C16" s="1092"/>
       <c r="D16" s="318"/>
       <c r="E16" s="86"/>
       <c r="F16" s="60"/>
@@ -45695,11 +45695,11 @@
     </row>
     <row r="7" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="972" t="s">
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="1223"/>
@@ -45707,33 +45707,33 @@
       <c r="G7" s="1223"/>
       <c r="H7" s="1223"/>
       <c r="I7" s="1224"/>
-      <c r="J7" s="975" t="s">
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="976" t="s">
+      <c r="D8" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="977"/>
-      <c r="F8" s="978" t="s">
+      <c r="E8" s="956"/>
+      <c r="F8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="979"/>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="G8" s="958"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -45775,12 +45775,12 @@
         <v>798</v>
       </c>
       <c r="E9" s="384"/>
-      <c r="F9" s="965" t="s">
+      <c r="F9" s="978" t="s">
         <v>799</v>
       </c>
-      <c r="G9" s="966"/>
-      <c r="H9" s="966"/>
-      <c r="I9" s="967"/>
+      <c r="G9" s="979"/>
+      <c r="H9" s="979"/>
+      <c r="I9" s="980"/>
       <c r="J9" s="380" t="s">
         <v>833</v>
       </c>
@@ -47009,11 +47009,11 @@
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="968" t="s">
+      <c r="B8" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="981"/>
-      <c r="D8" s="972" t="s">
+      <c r="D8" s="951" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="1223"/>
@@ -47021,33 +47021,33 @@
       <c r="G8" s="1223"/>
       <c r="H8" s="1223"/>
       <c r="I8" s="1224"/>
-      <c r="J8" s="975" t="s">
+      <c r="J8" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="925"/>
-      <c r="L8" s="925"/>
-      <c r="M8" s="925"/>
-      <c r="N8" s="925"/>
-      <c r="O8" s="925"/>
-      <c r="P8" s="925"/>
-      <c r="Q8" s="925"/>
-      <c r="R8" s="925"/>
-      <c r="S8" s="925"/>
-      <c r="T8" s="942"/>
+      <c r="K8" s="906"/>
+      <c r="L8" s="906"/>
+      <c r="M8" s="906"/>
+      <c r="N8" s="906"/>
+      <c r="O8" s="906"/>
+      <c r="P8" s="906"/>
+      <c r="Q8" s="906"/>
+      <c r="R8" s="906"/>
+      <c r="S8" s="906"/>
+      <c r="T8" s="946"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B9" s="970"/>
+      <c r="B9" s="949"/>
       <c r="C9" s="982"/>
-      <c r="D9" s="976" t="s">
+      <c r="D9" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E9" s="977"/>
-      <c r="F9" s="978" t="s">
+      <c r="E9" s="956"/>
+      <c r="F9" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="979"/>
-      <c r="H9" s="979"/>
-      <c r="I9" s="980"/>
+      <c r="G9" s="958"/>
+      <c r="H9" s="958"/>
+      <c r="I9" s="959"/>
       <c r="J9" s="274" t="s">
         <v>34</v>
       </c>
@@ -47089,12 +47089,12 @@
         <v>744</v>
       </c>
       <c r="E10" s="384"/>
-      <c r="F10" s="965" t="s">
+      <c r="F10" s="978" t="s">
         <v>745</v>
       </c>
-      <c r="G10" s="966"/>
-      <c r="H10" s="966"/>
-      <c r="I10" s="967"/>
+      <c r="G10" s="979"/>
+      <c r="H10" s="979"/>
+      <c r="I10" s="980"/>
       <c r="J10" s="380"/>
       <c r="K10" s="229"/>
       <c r="L10" s="229" t="s">
@@ -48155,36 +48155,36 @@
     </row>
     <row r="3" spans="1:20" ht="20.25" customHeight="1">
       <c r="A3" s="40"/>
-      <c r="B3" s="923" t="s">
+      <c r="B3" s="904" t="s">
         <v>845</v>
       </c>
-      <c r="C3" s="927" t="s">
+      <c r="C3" s="908" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="928"/>
-      <c r="E3" s="927" t="s">
+      <c r="D3" s="909"/>
+      <c r="E3" s="908" t="s">
         <v>550</v>
       </c>
-      <c r="F3" s="929"/>
-      <c r="G3" s="925" t="s">
+      <c r="F3" s="910"/>
+      <c r="G3" s="906" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="925"/>
-      <c r="I3" s="925"/>
-      <c r="J3" s="925"/>
-      <c r="K3" s="925"/>
-      <c r="L3" s="925"/>
-      <c r="M3" s="925"/>
-      <c r="N3" s="925"/>
-      <c r="O3" s="925"/>
-      <c r="P3" s="925"/>
-      <c r="Q3" s="925"/>
-      <c r="R3" s="926"/>
+      <c r="H3" s="906"/>
+      <c r="I3" s="906"/>
+      <c r="J3" s="906"/>
+      <c r="K3" s="906"/>
+      <c r="L3" s="906"/>
+      <c r="M3" s="906"/>
+      <c r="N3" s="906"/>
+      <c r="O3" s="906"/>
+      <c r="P3" s="906"/>
+      <c r="Q3" s="906"/>
+      <c r="R3" s="907"/>
       <c r="S3" s="438"/>
     </row>
     <row r="4" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
       <c r="A4" s="40"/>
-      <c r="B4" s="924"/>
+      <c r="B4" s="905"/>
       <c r="C4" s="363" t="s">
         <v>545</v>
       </c>
@@ -48393,19 +48393,19 @@
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="597"/>
-      <c r="B8" s="901" t="s">
+      <c r="B8" s="916" t="s">
         <v>1003</v>
       </c>
-      <c r="C8" s="904" t="s">
+      <c r="C8" s="913" t="s">
         <v>716</v>
       </c>
       <c r="D8" s="449" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="930" t="s">
+      <c r="E8" s="911" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="907" t="s">
+      <c r="F8" s="919" t="s">
         <v>549</v>
       </c>
       <c r="G8" s="367" t="s">
@@ -48428,13 +48428,13 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="597"/>
-      <c r="B9" s="902"/>
-      <c r="C9" s="905"/>
+      <c r="B9" s="917"/>
+      <c r="C9" s="914"/>
       <c r="D9" s="450" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="914"/>
-      <c r="F9" s="908"/>
+      <c r="E9" s="912"/>
+      <c r="F9" s="920"/>
       <c r="G9" s="74"/>
       <c r="H9" s="74"/>
       <c r="I9" s="74" t="s">
@@ -48453,13 +48453,13 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="597"/>
-      <c r="B10" s="902"/>
-      <c r="C10" s="905"/>
+      <c r="B10" s="917"/>
+      <c r="C10" s="914"/>
       <c r="D10" s="450" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="914"/>
-      <c r="F10" s="908"/>
+      <c r="E10" s="912"/>
+      <c r="F10" s="920"/>
       <c r="G10" s="74"/>
       <c r="H10" s="74"/>
       <c r="I10" s="74"/>
@@ -48478,13 +48478,13 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="597"/>
-      <c r="B11" s="902"/>
-      <c r="C11" s="905"/>
+      <c r="B11" s="917"/>
+      <c r="C11" s="914"/>
       <c r="D11" s="450" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="914"/>
-      <c r="F11" s="908"/>
+      <c r="E11" s="912"/>
+      <c r="F11" s="920"/>
       <c r="G11" s="74"/>
       <c r="H11" s="74"/>
       <c r="I11" s="74"/>
@@ -48505,13 +48505,13 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="597"/>
-      <c r="B12" s="902"/>
-      <c r="C12" s="905"/>
+      <c r="B12" s="917"/>
+      <c r="C12" s="914"/>
       <c r="D12" s="450" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="914"/>
-      <c r="F12" s="908"/>
+      <c r="E12" s="912"/>
+      <c r="F12" s="920"/>
       <c r="G12" s="74"/>
       <c r="H12" s="74"/>
       <c r="I12" s="74"/>
@@ -48534,13 +48534,13 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="597"/>
-      <c r="B13" s="902"/>
-      <c r="C13" s="905"/>
+      <c r="B13" s="917"/>
+      <c r="C13" s="914"/>
       <c r="D13" s="450" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="914"/>
-      <c r="F13" s="908"/>
+      <c r="E13" s="912"/>
+      <c r="F13" s="920"/>
       <c r="G13" s="74"/>
       <c r="H13" s="74"/>
       <c r="I13" s="74"/>
@@ -48559,13 +48559,13 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="597"/>
-      <c r="B14" s="902"/>
-      <c r="C14" s="905"/>
+      <c r="B14" s="917"/>
+      <c r="C14" s="914"/>
       <c r="D14" s="450" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="914"/>
-      <c r="F14" s="908"/>
+      <c r="E14" s="912"/>
+      <c r="F14" s="920"/>
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
       <c r="I14" s="74"/>
@@ -48586,15 +48586,15 @@
     </row>
     <row r="15" spans="1:20" ht="15.75" thickBot="1">
       <c r="A15" s="597"/>
-      <c r="B15" s="903"/>
-      <c r="C15" s="906"/>
+      <c r="B15" s="918"/>
+      <c r="C15" s="915"/>
       <c r="D15" s="451" t="s">
         <v>540</v>
       </c>
       <c r="E15" s="507" t="s">
         <v>541</v>
       </c>
-      <c r="F15" s="909"/>
+      <c r="F15" s="921"/>
       <c r="G15" s="202"/>
       <c r="H15" s="202"/>
       <c r="I15" s="202"/>
@@ -48623,19 +48623,19 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="597"/>
-      <c r="B16" s="910" t="s">
+      <c r="B16" s="901" t="s">
         <v>1113</v>
       </c>
-      <c r="C16" s="904" t="s">
+      <c r="C16" s="913" t="s">
         <v>715</v>
       </c>
       <c r="D16" s="859" t="s">
         <v>1234</v>
       </c>
-      <c r="E16" s="931" t="s">
+      <c r="E16" s="922" t="s">
         <v>630</v>
       </c>
-      <c r="F16" s="934" t="s">
+      <c r="F16" s="925" t="s">
         <v>839</v>
       </c>
       <c r="G16" s="678" t="s">
@@ -48658,13 +48658,13 @@
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="597"/>
-      <c r="B17" s="911"/>
-      <c r="C17" s="905"/>
+      <c r="B17" s="902"/>
+      <c r="C17" s="914"/>
       <c r="D17" s="859" t="s">
         <v>1184</v>
       </c>
-      <c r="E17" s="932"/>
-      <c r="F17" s="935"/>
+      <c r="E17" s="923"/>
+      <c r="F17" s="926"/>
       <c r="G17" s="678"/>
       <c r="H17" s="366"/>
       <c r="I17" s="366" t="s">
@@ -48683,13 +48683,13 @@
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="597"/>
-      <c r="B18" s="911"/>
-      <c r="C18" s="905"/>
+      <c r="B18" s="902"/>
+      <c r="C18" s="914"/>
       <c r="D18" s="596" t="s">
         <v>1236</v>
       </c>
-      <c r="E18" s="932"/>
-      <c r="F18" s="935"/>
+      <c r="E18" s="923"/>
+      <c r="F18" s="926"/>
       <c r="G18" s="678"/>
       <c r="H18" s="366"/>
       <c r="I18" s="366"/>
@@ -48708,13 +48708,13 @@
     </row>
     <row r="19" spans="1:30" ht="17.649999999999999" customHeight="1">
       <c r="A19" s="597"/>
-      <c r="B19" s="911"/>
-      <c r="C19" s="905"/>
+      <c r="B19" s="902"/>
+      <c r="C19" s="914"/>
       <c r="D19" s="404" t="s">
         <v>1237</v>
       </c>
-      <c r="E19" s="932"/>
-      <c r="F19" s="935"/>
+      <c r="E19" s="923"/>
+      <c r="F19" s="926"/>
       <c r="G19" s="277"/>
       <c r="H19" s="74"/>
       <c r="I19" s="74"/>
@@ -48735,13 +48735,13 @@
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="597"/>
-      <c r="B20" s="911"/>
-      <c r="C20" s="905"/>
+      <c r="B20" s="902"/>
+      <c r="C20" s="914"/>
       <c r="D20" s="404" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="933"/>
-      <c r="F20" s="935"/>
+      <c r="E20" s="924"/>
+      <c r="F20" s="926"/>
       <c r="G20" s="277"/>
       <c r="H20" s="74"/>
       <c r="I20" s="74"/>
@@ -48764,15 +48764,15 @@
     </row>
     <row r="21" spans="1:30" ht="15.75" thickBot="1">
       <c r="A21" s="597"/>
-      <c r="B21" s="912"/>
-      <c r="C21" s="906"/>
+      <c r="B21" s="903"/>
+      <c r="C21" s="915"/>
       <c r="D21" s="452" t="s">
         <v>1207</v>
       </c>
       <c r="E21" s="508" t="s">
         <v>193</v>
       </c>
-      <c r="F21" s="936"/>
+      <c r="F21" s="927"/>
       <c r="G21" s="372"/>
       <c r="H21" s="373"/>
       <c r="I21" s="373"/>
@@ -48808,19 +48808,19 @@
     </row>
     <row r="22" spans="1:30" ht="17.649999999999999" customHeight="1">
       <c r="A22" s="597"/>
-      <c r="B22" s="910" t="s">
+      <c r="B22" s="901" t="s">
         <v>1113</v>
       </c>
-      <c r="C22" s="904" t="s">
+      <c r="C22" s="913" t="s">
         <v>626</v>
       </c>
       <c r="D22" s="403" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="913" t="s">
+      <c r="E22" s="928" t="s">
         <v>195</v>
       </c>
-      <c r="F22" s="915" t="s">
+      <c r="F22" s="929" t="s">
         <v>552</v>
       </c>
       <c r="G22" s="375"/>
@@ -48843,13 +48843,13 @@
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="597"/>
-      <c r="B23" s="911"/>
-      <c r="C23" s="905"/>
+      <c r="B23" s="902"/>
+      <c r="C23" s="914"/>
       <c r="D23" s="404" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="914"/>
-      <c r="F23" s="916"/>
+      <c r="E23" s="912"/>
+      <c r="F23" s="930"/>
       <c r="G23" s="277"/>
       <c r="H23" s="74"/>
       <c r="I23" s="74"/>
@@ -48872,15 +48872,15 @@
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="597"/>
-      <c r="B24" s="911"/>
-      <c r="C24" s="905"/>
+      <c r="B24" s="902"/>
+      <c r="C24" s="914"/>
       <c r="D24" s="404" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="509" t="s">
         <v>197</v>
       </c>
-      <c r="F24" s="916"/>
+      <c r="F24" s="930"/>
       <c r="G24" s="277"/>
       <c r="H24" s="74"/>
       <c r="I24" s="74"/>
@@ -48903,15 +48903,15 @@
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="597"/>
-      <c r="B25" s="911"/>
-      <c r="C25" s="905"/>
+      <c r="B25" s="902"/>
+      <c r="C25" s="914"/>
       <c r="D25" s="404" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="510" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="916"/>
+      <c r="F25" s="930"/>
       <c r="G25" s="277"/>
       <c r="H25" s="74"/>
       <c r="I25" s="74"/>
@@ -48934,15 +48934,15 @@
     </row>
     <row r="26" spans="1:30" ht="15.75" thickBot="1">
       <c r="A26" s="597"/>
-      <c r="B26" s="912"/>
-      <c r="C26" s="906"/>
+      <c r="B26" s="903"/>
+      <c r="C26" s="915"/>
       <c r="D26" s="452" t="s">
         <v>21</v>
       </c>
       <c r="E26" s="511" t="s">
         <v>196</v>
       </c>
-      <c r="F26" s="917"/>
+      <c r="F26" s="931"/>
       <c r="G26" s="216"/>
       <c r="H26" s="217"/>
       <c r="I26" s="217"/>
@@ -49028,10 +49028,10 @@
     </row>
     <row r="28" spans="1:30" ht="60">
       <c r="A28" s="597"/>
-      <c r="B28" s="901" t="s">
+      <c r="B28" s="916" t="s">
         <v>1004</v>
       </c>
-      <c r="C28" s="904" t="s">
+      <c r="C28" s="913" t="s">
         <v>625</v>
       </c>
       <c r="D28" s="449" t="s">
@@ -49040,7 +49040,7 @@
       <c r="E28" s="512" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="907" t="s">
+      <c r="F28" s="919" t="s">
         <v>624</v>
       </c>
       <c r="G28" s="367" t="s">
@@ -49063,15 +49063,15 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="597"/>
-      <c r="B29" s="902"/>
-      <c r="C29" s="905"/>
+      <c r="B29" s="917"/>
+      <c r="C29" s="914"/>
       <c r="D29" s="450" t="s">
         <v>535</v>
       </c>
       <c r="E29" s="513" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="908"/>
+      <c r="F29" s="920"/>
       <c r="G29" s="74"/>
       <c r="H29" s="74"/>
       <c r="I29" s="74" t="s">
@@ -49090,15 +49090,15 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="597"/>
-      <c r="B30" s="902"/>
-      <c r="C30" s="905"/>
+      <c r="B30" s="917"/>
+      <c r="C30" s="914"/>
       <c r="D30" s="450" t="s">
         <v>537</v>
       </c>
       <c r="E30" s="513" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="908"/>
+      <c r="F30" s="920"/>
       <c r="G30" s="74"/>
       <c r="H30" s="74"/>
       <c r="I30" s="74"/>
@@ -49117,15 +49117,15 @@
     </row>
     <row r="31" spans="1:30" ht="30">
       <c r="A31" s="597"/>
-      <c r="B31" s="902"/>
-      <c r="C31" s="905"/>
+      <c r="B31" s="917"/>
+      <c r="C31" s="914"/>
       <c r="D31" s="450" t="s">
         <v>538</v>
       </c>
       <c r="E31" s="513" t="s">
         <v>60</v>
       </c>
-      <c r="F31" s="908"/>
+      <c r="F31" s="920"/>
       <c r="G31" s="74"/>
       <c r="H31" s="74"/>
       <c r="I31" s="74"/>
@@ -49146,15 +49146,15 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="597"/>
-      <c r="B32" s="902"/>
-      <c r="C32" s="905"/>
+      <c r="B32" s="917"/>
+      <c r="C32" s="914"/>
       <c r="D32" s="450" t="s">
         <v>1202</v>
       </c>
       <c r="E32" s="513" t="s">
         <v>1213</v>
       </c>
-      <c r="F32" s="908"/>
+      <c r="F32" s="920"/>
       <c r="G32" s="74"/>
       <c r="H32" s="74"/>
       <c r="I32" s="74"/>
@@ -49177,15 +49177,15 @@
     </row>
     <row r="33" spans="1:20" ht="30">
       <c r="A33" s="597"/>
-      <c r="B33" s="902"/>
-      <c r="C33" s="905"/>
+      <c r="B33" s="917"/>
+      <c r="C33" s="914"/>
       <c r="D33" s="450" t="s">
         <v>539</v>
       </c>
       <c r="E33" s="513" t="s">
         <v>61</v>
       </c>
-      <c r="F33" s="908"/>
+      <c r="F33" s="920"/>
       <c r="G33" s="74"/>
       <c r="H33" s="74"/>
       <c r="I33" s="74"/>
@@ -49206,15 +49206,15 @@
     </row>
     <row r="34" spans="1:20" ht="15.75" thickBot="1">
       <c r="A34" s="597"/>
-      <c r="B34" s="903"/>
-      <c r="C34" s="906"/>
+      <c r="B34" s="918"/>
+      <c r="C34" s="915"/>
       <c r="D34" s="451" t="s">
         <v>655</v>
       </c>
       <c r="E34" s="507" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="909"/>
+      <c r="F34" s="921"/>
       <c r="G34" s="202" t="s">
         <v>832</v>
       </c>
@@ -49370,10 +49370,10 @@
     </row>
     <row r="38" spans="1:20" ht="35.450000000000003" customHeight="1" thickBot="1">
       <c r="A38" s="597"/>
-      <c r="B38" s="901" t="s">
+      <c r="B38" s="916" t="s">
         <v>1006</v>
       </c>
-      <c r="C38" s="920" t="s">
+      <c r="C38" s="934" t="s">
         <v>554</v>
       </c>
       <c r="D38" s="454" t="s">
@@ -49382,7 +49382,7 @@
       <c r="E38" s="515" t="s">
         <v>533</v>
       </c>
-      <c r="F38" s="918" t="s">
+      <c r="F38" s="932" t="s">
         <v>1047</v>
       </c>
       <c r="G38" s="422"/>
@@ -49403,15 +49403,15 @@
     </row>
     <row r="39" spans="1:20" ht="35.450000000000003" customHeight="1" thickBot="1">
       <c r="A39" s="597"/>
-      <c r="B39" s="902"/>
-      <c r="C39" s="921"/>
+      <c r="B39" s="917"/>
+      <c r="C39" s="935"/>
       <c r="D39" s="454" t="s">
         <v>1245</v>
       </c>
       <c r="E39" s="515" t="s">
         <v>1058</v>
       </c>
-      <c r="F39" s="919"/>
+      <c r="F39" s="933"/>
       <c r="G39" s="422"/>
       <c r="H39" s="422"/>
       <c r="I39" s="422"/>
@@ -49430,8 +49430,8 @@
     </row>
     <row r="40" spans="1:20" ht="45.75" thickBot="1">
       <c r="A40" s="597"/>
-      <c r="B40" s="902"/>
-      <c r="C40" s="921"/>
+      <c r="B40" s="917"/>
+      <c r="C40" s="935"/>
       <c r="D40" s="454" t="s">
         <v>1060</v>
       </c>
@@ -49459,8 +49459,8 @@
     </row>
     <row r="41" spans="1:20" ht="45.75" thickBot="1">
       <c r="A41" s="597"/>
-      <c r="B41" s="903"/>
-      <c r="C41" s="922"/>
+      <c r="B41" s="918"/>
+      <c r="C41" s="936"/>
       <c r="D41" s="454" t="s">
         <v>1247</v>
       </c>
@@ -49746,6 +49746,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="B28:B34"/>
+    <mergeCell ref="C28:C34"/>
+    <mergeCell ref="F28:F34"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:C41"/>
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="G3:R3"/>
@@ -49758,16 +49768,6 @@
     <mergeCell ref="C16:C21"/>
     <mergeCell ref="E16:E20"/>
     <mergeCell ref="F16:F21"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="B28:B34"/>
-    <mergeCell ref="C28:C34"/>
-    <mergeCell ref="F28:F34"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C38:C41"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -49865,11 +49865,11 @@
     </row>
     <row r="7" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="972" t="s">
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="1223"/>
@@ -49877,33 +49877,33 @@
       <c r="G7" s="1223"/>
       <c r="H7" s="1223"/>
       <c r="I7" s="1224"/>
-      <c r="J7" s="975" t="s">
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="976" t="s">
+      <c r="D8" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="977"/>
-      <c r="F8" s="978" t="s">
+      <c r="E8" s="956"/>
+      <c r="F8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="979"/>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="G8" s="958"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -49945,12 +49945,12 @@
         <v>1258</v>
       </c>
       <c r="E9" s="384"/>
-      <c r="F9" s="965" t="s">
+      <c r="F9" s="978" t="s">
         <v>1259</v>
       </c>
-      <c r="G9" s="966"/>
-      <c r="H9" s="966"/>
-      <c r="I9" s="967"/>
+      <c r="G9" s="979"/>
+      <c r="H9" s="979"/>
+      <c r="I9" s="980"/>
       <c r="J9" s="380" t="s">
         <v>833</v>
       </c>
@@ -51104,45 +51104,45 @@
     </row>
     <row r="7" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="972" t="s">
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="976" t="s">
+      <c r="D8" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="979"/>
-      <c r="F8" s="977"/>
-      <c r="G8" s="978" t="s">
+      <c r="E8" s="958"/>
+      <c r="F8" s="956"/>
+      <c r="G8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -52326,45 +52326,45 @@
     </row>
     <row r="7" spans="1:23" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="972" t="s">
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="976" t="s">
+      <c r="D8" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="977"/>
-      <c r="F8" s="979" t="s">
+      <c r="E8" s="956"/>
+      <c r="F8" s="958" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="979"/>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="G8" s="958"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -52533,10 +52533,10 @@
       </c>
       <c r="Q15" s="426"/>
       <c r="R15" s="427"/>
-      <c r="S15" s="947" t="s">
+      <c r="S15" s="960" t="s">
         <v>702</v>
       </c>
-      <c r="T15" s="948"/>
+      <c r="T15" s="961"/>
       <c r="W15" s="25"/>
     </row>
     <row r="16" spans="1:23" ht="17.25">
@@ -52567,8 +52567,8 @@
       </c>
       <c r="Q16" s="122"/>
       <c r="R16" s="163"/>
-      <c r="S16" s="949"/>
-      <c r="T16" s="950"/>
+      <c r="S16" s="962"/>
+      <c r="T16" s="963"/>
       <c r="W16" s="25"/>
     </row>
     <row r="17" spans="2:23" ht="17.649999999999999" customHeight="1">
@@ -52599,8 +52599,8 @@
       </c>
       <c r="Q17" s="125"/>
       <c r="R17" s="151"/>
-      <c r="S17" s="949"/>
-      <c r="T17" s="950"/>
+      <c r="S17" s="962"/>
+      <c r="T17" s="963"/>
       <c r="W17" s="25"/>
     </row>
     <row r="18" spans="2:23" ht="17.25">
@@ -52631,8 +52631,8 @@
       </c>
       <c r="Q18" s="125"/>
       <c r="R18" s="151"/>
-      <c r="S18" s="949"/>
-      <c r="T18" s="950"/>
+      <c r="S18" s="962"/>
+      <c r="T18" s="963"/>
       <c r="W18" s="25"/>
     </row>
     <row r="19" spans="2:23" ht="17.25">
@@ -52663,8 +52663,8 @@
       </c>
       <c r="Q19" s="122"/>
       <c r="R19" s="163"/>
-      <c r="S19" s="949"/>
-      <c r="T19" s="950"/>
+      <c r="S19" s="962"/>
+      <c r="T19" s="963"/>
       <c r="W19" s="25"/>
     </row>
     <row r="20" spans="2:23" ht="18" thickBot="1">
@@ -52685,8 +52685,8 @@
       <c r="P20" s="170"/>
       <c r="Q20" s="190"/>
       <c r="R20" s="361"/>
-      <c r="S20" s="951"/>
-      <c r="T20" s="952"/>
+      <c r="S20" s="964"/>
+      <c r="T20" s="965"/>
       <c r="W20" s="25"/>
     </row>
     <row r="21" spans="2:23" ht="17.25">
@@ -52711,10 +52711,10 @@
       </c>
       <c r="Q21" s="426"/>
       <c r="R21" s="427"/>
-      <c r="S21" s="947" t="s">
+      <c r="S21" s="960" t="s">
         <v>708</v>
       </c>
-      <c r="T21" s="948"/>
+      <c r="T21" s="961"/>
       <c r="W21" s="25"/>
     </row>
     <row r="22" spans="2:23" ht="17.649999999999999" customHeight="1">
@@ -52745,8 +52745,8 @@
       </c>
       <c r="Q22" s="125"/>
       <c r="R22" s="151"/>
-      <c r="S22" s="949"/>
-      <c r="T22" s="950"/>
+      <c r="S22" s="962"/>
+      <c r="T22" s="963"/>
       <c r="W22" s="25"/>
     </row>
     <row r="23" spans="2:23" ht="17.25">
@@ -52777,8 +52777,8 @@
       </c>
       <c r="Q23" s="125"/>
       <c r="R23" s="151"/>
-      <c r="S23" s="949"/>
-      <c r="T23" s="950"/>
+      <c r="S23" s="962"/>
+      <c r="T23" s="963"/>
       <c r="W23" s="25"/>
     </row>
     <row r="24" spans="2:23" ht="18" thickBot="1">
@@ -52799,8 +52799,8 @@
       <c r="P24" s="170"/>
       <c r="Q24" s="190"/>
       <c r="R24" s="361"/>
-      <c r="S24" s="951"/>
-      <c r="T24" s="952"/>
+      <c r="S24" s="964"/>
+      <c r="T24" s="965"/>
       <c r="W24" s="25"/>
     </row>
     <row r="25" spans="2:23">
@@ -53743,7 +53743,7 @@
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="968" t="s">
+      <c r="B8" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="981"/>
@@ -53770,14 +53770,14 @@
       <c r="T8" s="1207"/>
     </row>
     <row r="9" spans="1:20" ht="30.75" thickBot="1">
-      <c r="B9" s="970"/>
+      <c r="B9" s="949"/>
       <c r="C9" s="982"/>
-      <c r="D9" s="976" t="s">
+      <c r="D9" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E9" s="979"/>
-      <c r="F9" s="979"/>
-      <c r="G9" s="977"/>
+      <c r="E9" s="958"/>
+      <c r="F9" s="958"/>
+      <c r="G9" s="956"/>
       <c r="H9" s="567" t="s">
         <v>88</v>
       </c>
@@ -55137,7 +55137,7 @@
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="968" t="s">
+      <c r="B8" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="981"/>
@@ -55164,14 +55164,14 @@
       <c r="T8" s="1207"/>
     </row>
     <row r="9" spans="1:20" ht="30.75" thickBot="1">
-      <c r="B9" s="970"/>
+      <c r="B9" s="949"/>
       <c r="C9" s="982"/>
-      <c r="D9" s="976" t="s">
+      <c r="D9" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E9" s="979"/>
-      <c r="F9" s="979"/>
-      <c r="G9" s="977"/>
+      <c r="E9" s="958"/>
+      <c r="F9" s="958"/>
+      <c r="G9" s="956"/>
       <c r="H9" s="567" t="s">
         <v>88</v>
       </c>
@@ -56760,11 +56760,11 @@
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="968" t="s">
+      <c r="B8" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="981"/>
-      <c r="D8" s="972" t="s">
+      <c r="D8" s="951" t="s">
         <v>96</v>
       </c>
       <c r="E8" s="1223"/>
@@ -56772,33 +56772,33 @@
       <c r="G8" s="1223"/>
       <c r="H8" s="1223"/>
       <c r="I8" s="1224"/>
-      <c r="J8" s="975" t="s">
+      <c r="J8" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="925"/>
-      <c r="L8" s="925"/>
-      <c r="M8" s="925"/>
-      <c r="N8" s="925"/>
-      <c r="O8" s="925"/>
-      <c r="P8" s="925"/>
-      <c r="Q8" s="925"/>
-      <c r="R8" s="925"/>
-      <c r="S8" s="925"/>
-      <c r="T8" s="942"/>
+      <c r="K8" s="906"/>
+      <c r="L8" s="906"/>
+      <c r="M8" s="906"/>
+      <c r="N8" s="906"/>
+      <c r="O8" s="906"/>
+      <c r="P8" s="906"/>
+      <c r="Q8" s="906"/>
+      <c r="R8" s="906"/>
+      <c r="S8" s="906"/>
+      <c r="T8" s="946"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B9" s="970"/>
+      <c r="B9" s="949"/>
       <c r="C9" s="982"/>
-      <c r="D9" s="976" t="s">
+      <c r="D9" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E9" s="977"/>
-      <c r="F9" s="978" t="s">
+      <c r="E9" s="956"/>
+      <c r="F9" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="979"/>
-      <c r="H9" s="979"/>
-      <c r="I9" s="980"/>
+      <c r="G9" s="958"/>
+      <c r="H9" s="958"/>
+      <c r="I9" s="959"/>
       <c r="J9" s="274" t="s">
         <v>34</v>
       </c>
@@ -56840,12 +56840,12 @@
         <v>732</v>
       </c>
       <c r="E10" s="384"/>
-      <c r="F10" s="965" t="s">
+      <c r="F10" s="978" t="s">
         <v>739</v>
       </c>
-      <c r="G10" s="966"/>
-      <c r="H10" s="966"/>
-      <c r="I10" s="967"/>
+      <c r="G10" s="979"/>
+      <c r="H10" s="979"/>
+      <c r="I10" s="980"/>
       <c r="J10" s="380"/>
       <c r="K10" s="229"/>
       <c r="L10" s="229"/>
@@ -56914,10 +56914,10 @@
       <c r="T14" s="75"/>
     </row>
     <row r="15" spans="1:20" ht="17.25">
-      <c r="B15" s="1075" t="s">
+      <c r="B15" s="1089" t="s">
         <v>733</v>
       </c>
-      <c r="C15" s="1076"/>
+      <c r="C15" s="1090"/>
       <c r="D15" s="317"/>
       <c r="E15" s="84">
         <v>1</v>
@@ -56943,8 +56943,8 @@
       <c r="T15" s="101"/>
     </row>
     <row r="16" spans="1:20" ht="17.25">
-      <c r="B16" s="1169"/>
-      <c r="C16" s="1170"/>
+      <c r="B16" s="1167"/>
+      <c r="C16" s="1168"/>
       <c r="D16" s="321"/>
       <c r="E16" s="88">
         <v>2</v>
@@ -56970,8 +56970,8 @@
       <c r="T16" s="103"/>
     </row>
     <row r="17" spans="2:20" ht="17.25">
-      <c r="B17" s="1169"/>
-      <c r="C17" s="1170"/>
+      <c r="B17" s="1167"/>
+      <c r="C17" s="1168"/>
       <c r="D17" s="321"/>
       <c r="E17" s="88">
         <v>3</v>
@@ -56997,8 +56997,8 @@
       <c r="T17" s="103"/>
     </row>
     <row r="18" spans="2:20" ht="18" thickBot="1">
-      <c r="B18" s="1077"/>
-      <c r="C18" s="1078"/>
+      <c r="B18" s="1091"/>
+      <c r="C18" s="1092"/>
       <c r="D18" s="318"/>
       <c r="E18" s="86"/>
       <c r="F18" s="60"/>
@@ -57944,11 +57944,11 @@
     </row>
     <row r="7" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="972" t="s">
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
       <c r="E7" s="1223"/>
@@ -57956,33 +57956,33 @@
       <c r="G7" s="1223"/>
       <c r="H7" s="1223"/>
       <c r="I7" s="1224"/>
-      <c r="J7" s="975" t="s">
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="976" t="s">
+      <c r="D8" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="977"/>
-      <c r="F8" s="978" t="s">
+      <c r="E8" s="956"/>
+      <c r="F8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="979"/>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="G8" s="958"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -58024,12 +58024,12 @@
         <v>798</v>
       </c>
       <c r="E9" s="384"/>
-      <c r="F9" s="965" t="s">
+      <c r="F9" s="978" t="s">
         <v>799</v>
       </c>
-      <c r="G9" s="966"/>
-      <c r="H9" s="966"/>
-      <c r="I9" s="967"/>
+      <c r="G9" s="979"/>
+      <c r="H9" s="979"/>
+      <c r="I9" s="980"/>
       <c r="J9" s="380" t="s">
         <v>833</v>
       </c>
@@ -59253,7 +59253,7 @@
     </row>
     <row r="7" spans="1:23" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
@@ -59265,22 +59265,22 @@
       <c r="G7" s="1246"/>
       <c r="H7" s="1246"/>
       <c r="I7" s="1247"/>
-      <c r="J7" s="975" t="s">
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
       <c r="D8" s="1254" t="s">
         <v>619</v>
@@ -59430,18 +59430,18 @@
       </c>
       <c r="D14" s="94"/>
       <c r="E14" s="127"/>
-      <c r="F14" s="1033" t="s">
+      <c r="F14" s="1107" t="s">
         <v>1043</v>
       </c>
-      <c r="G14" s="1034"/>
-      <c r="H14" s="1034"/>
-      <c r="I14" s="1034"/>
-      <c r="J14" s="1034"/>
-      <c r="K14" s="1034"/>
-      <c r="L14" s="1034"/>
-      <c r="M14" s="1034"/>
-      <c r="N14" s="1034"/>
-      <c r="O14" s="1035"/>
+      <c r="G14" s="1108"/>
+      <c r="H14" s="1108"/>
+      <c r="I14" s="1108"/>
+      <c r="J14" s="1108"/>
+      <c r="K14" s="1108"/>
+      <c r="L14" s="1108"/>
+      <c r="M14" s="1108"/>
+      <c r="N14" s="1108"/>
+      <c r="O14" s="1109"/>
       <c r="P14" s="287" t="s">
         <v>444</v>
       </c>
@@ -60475,45 +60475,45 @@
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="968" t="s">
+      <c r="B8" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="981"/>
-      <c r="D8" s="972" t="s">
+      <c r="D8" s="951" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="973"/>
-      <c r="F8" s="973"/>
-      <c r="G8" s="973"/>
-      <c r="H8" s="973"/>
-      <c r="I8" s="974"/>
-      <c r="J8" s="975" t="s">
+      <c r="E8" s="952"/>
+      <c r="F8" s="952"/>
+      <c r="G8" s="952"/>
+      <c r="H8" s="952"/>
+      <c r="I8" s="953"/>
+      <c r="J8" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="925"/>
-      <c r="L8" s="925"/>
-      <c r="M8" s="925"/>
-      <c r="N8" s="925"/>
-      <c r="O8" s="925"/>
-      <c r="P8" s="925"/>
-      <c r="Q8" s="925"/>
-      <c r="R8" s="925"/>
-      <c r="S8" s="925"/>
-      <c r="T8" s="942"/>
+      <c r="K8" s="906"/>
+      <c r="L8" s="906"/>
+      <c r="M8" s="906"/>
+      <c r="N8" s="906"/>
+      <c r="O8" s="906"/>
+      <c r="P8" s="906"/>
+      <c r="Q8" s="906"/>
+      <c r="R8" s="906"/>
+      <c r="S8" s="906"/>
+      <c r="T8" s="946"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B9" s="970"/>
+      <c r="B9" s="949"/>
       <c r="C9" s="982"/>
-      <c r="D9" s="976" t="s">
+      <c r="D9" s="955" t="s">
         <v>619</v>
       </c>
-      <c r="E9" s="977"/>
-      <c r="F9" s="978" t="s">
+      <c r="E9" s="956"/>
+      <c r="F9" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="979"/>
-      <c r="H9" s="979"/>
-      <c r="I9" s="980"/>
+      <c r="G9" s="958"/>
+      <c r="H9" s="958"/>
+      <c r="I9" s="959"/>
       <c r="J9" s="274" t="s">
         <v>34</v>
       </c>
@@ -61767,45 +61767,45 @@
     </row>
     <row r="7" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="973" t="s">
+      <c r="D7" s="952" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="979" t="s">
+      <c r="D8" s="958" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="979"/>
-      <c r="F8" s="977"/>
-      <c r="G8" s="978" t="s">
+      <c r="E8" s="958"/>
+      <c r="F8" s="956"/>
+      <c r="G8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -62096,19 +62096,19 @@
         <v>367</v>
       </c>
       <c r="D20" s="116"/>
-      <c r="E20" s="959" t="s">
+      <c r="E20" s="972" t="s">
         <v>368</v>
       </c>
-      <c r="F20" s="959"/>
-      <c r="G20" s="959"/>
-      <c r="H20" s="959"/>
-      <c r="I20" s="959"/>
-      <c r="J20" s="959"/>
-      <c r="K20" s="959"/>
-      <c r="L20" s="959"/>
-      <c r="M20" s="959"/>
-      <c r="N20" s="959"/>
-      <c r="O20" s="960"/>
+      <c r="F20" s="972"/>
+      <c r="G20" s="972"/>
+      <c r="H20" s="972"/>
+      <c r="I20" s="972"/>
+      <c r="J20" s="972"/>
+      <c r="K20" s="972"/>
+      <c r="L20" s="972"/>
+      <c r="M20" s="972"/>
+      <c r="N20" s="972"/>
+      <c r="O20" s="973"/>
       <c r="P20" s="246" t="s">
         <v>369</v>
       </c>
@@ -63735,8 +63735,8 @@
   </sheetPr>
   <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A5" zoomScale="97" zoomScaleNormal="97" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -63803,34 +63803,34 @@
     </row>
     <row r="3" spans="1:20" ht="20.25" customHeight="1">
       <c r="A3" s="40"/>
-      <c r="B3" s="923" t="s">
+      <c r="B3" s="904" t="s">
         <v>844</v>
       </c>
-      <c r="C3" s="927" t="s">
+      <c r="C3" s="908" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="928"/>
-      <c r="E3" s="927" t="s">
+      <c r="D3" s="909"/>
+      <c r="E3" s="908" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="929"/>
-      <c r="G3" s="941" t="s">
+      <c r="F3" s="910"/>
+      <c r="G3" s="945" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="925"/>
-      <c r="I3" s="925"/>
-      <c r="J3" s="925"/>
-      <c r="K3" s="925"/>
-      <c r="L3" s="925"/>
-      <c r="M3" s="925"/>
-      <c r="N3" s="925"/>
-      <c r="O3" s="925"/>
-      <c r="P3" s="925"/>
-      <c r="Q3" s="942"/>
+      <c r="H3" s="906"/>
+      <c r="I3" s="906"/>
+      <c r="J3" s="906"/>
+      <c r="K3" s="906"/>
+      <c r="L3" s="906"/>
+      <c r="M3" s="906"/>
+      <c r="N3" s="906"/>
+      <c r="O3" s="906"/>
+      <c r="P3" s="906"/>
+      <c r="Q3" s="946"/>
     </row>
     <row r="4" spans="1:20" ht="19.5" customHeight="1" thickBot="1">
       <c r="A4" s="40"/>
-      <c r="B4" s="924"/>
+      <c r="B4" s="905"/>
       <c r="C4" s="362" t="s">
         <v>545</v>
       </c>
@@ -63924,10 +63924,10 @@
     </row>
     <row r="6" spans="1:20" ht="30">
       <c r="A6" s="557"/>
-      <c r="B6" s="937" t="s">
+      <c r="B6" s="939" t="s">
         <v>1010</v>
       </c>
-      <c r="C6" s="943" t="s">
+      <c r="C6" s="940" t="s">
         <v>692</v>
       </c>
       <c r="D6" s="456" t="s">
@@ -63936,7 +63936,7 @@
       <c r="E6" s="513" t="s">
         <v>703</v>
       </c>
-      <c r="F6" s="939" t="s">
+      <c r="F6" s="943" t="s">
         <v>700</v>
       </c>
       <c r="G6" s="74" t="s">
@@ -63957,15 +63957,15 @@
     </row>
     <row r="7" spans="1:20" ht="30">
       <c r="A7" s="557"/>
-      <c r="B7" s="938"/>
-      <c r="C7" s="944"/>
+      <c r="B7" s="942"/>
+      <c r="C7" s="941"/>
       <c r="D7" s="456" t="s">
         <v>668</v>
       </c>
       <c r="E7" s="513" t="s">
         <v>674</v>
       </c>
-      <c r="F7" s="940"/>
+      <c r="F7" s="944"/>
       <c r="G7" s="74"/>
       <c r="H7" s="74"/>
       <c r="I7" s="74" t="s">
@@ -63984,10 +63984,10 @@
     </row>
     <row r="8" spans="1:20" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="557"/>
-      <c r="B8" s="937" t="s">
+      <c r="B8" s="939" t="s">
         <v>1113</v>
       </c>
-      <c r="C8" s="945" t="s">
+      <c r="C8" s="937" t="s">
         <v>724</v>
       </c>
       <c r="D8" s="456" t="s">
@@ -63996,7 +63996,7 @@
       <c r="E8" s="509" t="s">
         <v>693</v>
       </c>
-      <c r="F8" s="939" t="s">
+      <c r="F8" s="943" t="s">
         <v>1391</v>
       </c>
       <c r="G8" s="74"/>
@@ -64015,15 +64015,15 @@
     </row>
     <row r="9" spans="1:20" ht="34.5" customHeight="1">
       <c r="A9" s="557"/>
-      <c r="B9" s="902"/>
-      <c r="C9" s="946"/>
+      <c r="B9" s="917"/>
+      <c r="C9" s="938"/>
       <c r="D9" s="599" t="s">
         <v>665</v>
       </c>
       <c r="E9" s="600" t="s">
         <v>1112</v>
       </c>
-      <c r="F9" s="908"/>
+      <c r="F9" s="920"/>
       <c r="G9" s="366"/>
       <c r="H9" s="366"/>
       <c r="I9" s="366"/>
@@ -64040,10 +64040,10 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="868"/>
-      <c r="B10" s="937" t="s">
+      <c r="B10" s="939" t="s">
         <v>1113</v>
       </c>
-      <c r="C10" s="943" t="s">
+      <c r="C10" s="940" t="s">
         <v>1284</v>
       </c>
       <c r="D10" s="871" t="s">
@@ -64052,7 +64052,7 @@
       <c r="E10" s="600" t="s">
         <v>1285</v>
       </c>
-      <c r="F10" s="939" t="s">
+      <c r="F10" s="943" t="s">
         <v>1286</v>
       </c>
       <c r="G10" s="366"/>
@@ -64069,15 +64069,15 @@
     </row>
     <row r="11" spans="1:20" ht="30">
       <c r="A11" s="597"/>
-      <c r="B11" s="902"/>
-      <c r="C11" s="905"/>
+      <c r="B11" s="917"/>
+      <c r="C11" s="914"/>
       <c r="D11" s="603" t="s">
         <v>1049</v>
       </c>
       <c r="E11" s="604" t="s">
         <v>1117</v>
       </c>
-      <c r="F11" s="908"/>
+      <c r="F11" s="920"/>
       <c r="G11" s="605"/>
       <c r="H11" s="605"/>
       <c r="I11" s="605"/>
@@ -64094,15 +64094,15 @@
     </row>
     <row r="12" spans="1:20" ht="37.15" customHeight="1">
       <c r="A12" s="597"/>
-      <c r="B12" s="938"/>
-      <c r="C12" s="944"/>
+      <c r="B12" s="942"/>
+      <c r="C12" s="941"/>
       <c r="D12" s="603" t="s">
         <v>1050</v>
       </c>
       <c r="E12" s="604" t="s">
         <v>1116</v>
       </c>
-      <c r="F12" s="940"/>
+      <c r="F12" s="944"/>
       <c r="G12" s="605"/>
       <c r="H12" s="605"/>
       <c r="I12" s="605"/>
@@ -64566,12 +64566,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F12"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="G3:Q3"/>
@@ -64579,6 +64573,12 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F12"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.28875000000000001" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -64594,7 +64594,7 @@
   </sheetPr>
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="96" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="96" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
@@ -64658,33 +64658,33 @@
     </row>
     <row r="3" spans="1:16" ht="20.25" customHeight="1">
       <c r="A3" s="40"/>
-      <c r="B3" s="923" t="s">
+      <c r="B3" s="904" t="s">
         <v>845</v>
       </c>
-      <c r="C3" s="927" t="s">
+      <c r="C3" s="908" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="928"/>
-      <c r="E3" s="927" t="s">
+      <c r="D3" s="909"/>
+      <c r="E3" s="908" t="s">
         <v>550</v>
       </c>
-      <c r="F3" s="929"/>
-      <c r="G3" s="925" t="s">
+      <c r="F3" s="910"/>
+      <c r="G3" s="906" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="925"/>
-      <c r="I3" s="925"/>
-      <c r="J3" s="925"/>
-      <c r="K3" s="925"/>
-      <c r="L3" s="925"/>
-      <c r="M3" s="925"/>
-      <c r="N3" s="925"/>
-      <c r="O3" s="925"/>
-      <c r="P3" s="942"/>
+      <c r="H3" s="906"/>
+      <c r="I3" s="906"/>
+      <c r="J3" s="906"/>
+      <c r="K3" s="906"/>
+      <c r="L3" s="906"/>
+      <c r="M3" s="906"/>
+      <c r="N3" s="906"/>
+      <c r="O3" s="906"/>
+      <c r="P3" s="946"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" thickBot="1">
       <c r="A4" s="40"/>
-      <c r="B4" s="924"/>
+      <c r="B4" s="905"/>
       <c r="C4" s="363" t="s">
         <v>545</v>
       </c>
@@ -64729,7 +64729,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="45.75" thickBot="1">
-      <c r="A5" s="910" t="s">
+      <c r="A5" s="901" t="s">
         <v>1329</v>
       </c>
       <c r="B5" s="874" t="s">
@@ -64765,7 +64765,7 @@
       <c r="P5" s="424"/>
     </row>
     <row r="6" spans="1:16" ht="30.75" thickBot="1">
-      <c r="A6" s="912"/>
+      <c r="A6" s="903"/>
       <c r="B6" s="687" t="s">
         <v>1113</v>
       </c>
@@ -64799,7 +64799,7 @@
       <c r="P6" s="424"/>
     </row>
     <row r="7" spans="1:16" ht="103.5" customHeight="1" thickBot="1">
-      <c r="A7" s="901" t="s">
+      <c r="A7" s="916" t="s">
         <v>1229</v>
       </c>
       <c r="B7" s="492" t="s">
@@ -64843,7 +64843,7 @@
       <c r="P7" s="501"/>
     </row>
     <row r="8" spans="1:16" ht="45.75" thickBot="1">
-      <c r="A8" s="902"/>
+      <c r="A8" s="917"/>
       <c r="B8" s="495" t="s">
         <v>1015</v>
       </c>
@@ -64885,7 +64885,7 @@
       <c r="P8" s="420"/>
     </row>
     <row r="9" spans="1:16" ht="70.5" customHeight="1" thickBot="1">
-      <c r="A9" s="902"/>
+      <c r="A9" s="917"/>
       <c r="B9" s="496" t="s">
         <v>1015</v>
       </c>
@@ -64929,7 +64929,7 @@
       <c r="P9" s="500"/>
     </row>
     <row r="10" spans="1:16" ht="30.75" thickBot="1">
-      <c r="A10" s="902"/>
+      <c r="A10" s="917"/>
       <c r="B10" s="495" t="s">
         <v>1014</v>
       </c>
@@ -64971,7 +64971,7 @@
       <c r="P10" s="420"/>
     </row>
     <row r="11" spans="1:16" ht="45.75" thickBot="1">
-      <c r="A11" s="902"/>
+      <c r="A11" s="917"/>
       <c r="B11" s="680" t="s">
         <v>1015</v>
       </c>
@@ -65001,7 +65001,7 @@
       <c r="P11" s="548"/>
     </row>
     <row r="12" spans="1:16" ht="60.75" thickBot="1">
-      <c r="A12" s="903"/>
+      <c r="A12" s="918"/>
       <c r="B12" s="378"/>
       <c r="C12" s="421" t="s">
         <v>1206</v>
@@ -65138,45 +65138,45 @@
     </row>
     <row r="7" spans="1:23" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="969"/>
-      <c r="D7" s="972" t="s">
+      <c r="C7" s="948"/>
+      <c r="D7" s="951" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
-      <c r="C8" s="971"/>
-      <c r="D8" s="976" t="s">
+      <c r="B8" s="949"/>
+      <c r="C8" s="950"/>
+      <c r="D8" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E8" s="977"/>
-      <c r="F8" s="978" t="s">
+      <c r="E8" s="956"/>
+      <c r="F8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="979"/>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="G8" s="958"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -65210,20 +65210,20 @@
       <c r="T8" s="210"/>
     </row>
     <row r="9" spans="1:23" customFormat="1" ht="35.65" customHeight="1" thickBot="1">
-      <c r="B9" s="963" t="s">
+      <c r="B9" s="976" t="s">
         <v>1338</v>
       </c>
-      <c r="C9" s="964"/>
-      <c r="D9" s="956" t="s">
+      <c r="C9" s="977"/>
+      <c r="D9" s="969" t="s">
         <v>1339</v>
       </c>
-      <c r="E9" s="957"/>
-      <c r="F9" s="965" t="s">
+      <c r="E9" s="970"/>
+      <c r="F9" s="978" t="s">
         <v>1363</v>
       </c>
-      <c r="G9" s="966"/>
-      <c r="H9" s="966"/>
-      <c r="I9" s="967"/>
+      <c r="G9" s="979"/>
+      <c r="H9" s="979"/>
+      <c r="I9" s="980"/>
       <c r="J9" s="391"/>
       <c r="K9" s="392"/>
       <c r="L9" s="393"/>
@@ -65305,18 +65305,18 @@
       </c>
       <c r="D14" s="426"/>
       <c r="E14" s="114"/>
-      <c r="F14" s="953" t="s">
+      <c r="F14" s="966" t="s">
         <v>1358</v>
       </c>
-      <c r="G14" s="954"/>
-      <c r="H14" s="954"/>
-      <c r="I14" s="954"/>
-      <c r="J14" s="954"/>
-      <c r="K14" s="954"/>
-      <c r="L14" s="954"/>
-      <c r="M14" s="954"/>
-      <c r="N14" s="954"/>
-      <c r="O14" s="955"/>
+      <c r="G14" s="967"/>
+      <c r="H14" s="967"/>
+      <c r="I14" s="967"/>
+      <c r="J14" s="967"/>
+      <c r="K14" s="967"/>
+      <c r="L14" s="967"/>
+      <c r="M14" s="967"/>
+      <c r="N14" s="967"/>
+      <c r="O14" s="968"/>
       <c r="P14" s="428" t="s">
         <v>1355</v>
       </c>
@@ -65324,21 +65324,21 @@
         <v>1335</v>
       </c>
       <c r="R14" s="427"/>
-      <c r="S14" s="947" t="s">
+      <c r="S14" s="960" t="s">
         <v>637</v>
       </c>
-      <c r="T14" s="948"/>
+      <c r="T14" s="961"/>
       <c r="W14" s="25"/>
     </row>
     <row r="15" spans="1:23" ht="17.25">
       <c r="B15" s="879" t="s">
         <v>1348</v>
       </c>
-      <c r="C15" s="958" t="s">
+      <c r="C15" s="971" t="s">
         <v>1350</v>
       </c>
-      <c r="D15" s="959"/>
-      <c r="E15" s="960"/>
+      <c r="D15" s="972"/>
+      <c r="E15" s="973"/>
       <c r="F15" s="136" t="s">
         <v>1349</v>
       </c>
@@ -65358,8 +65358,8 @@
         <v>1350</v>
       </c>
       <c r="R15" s="163"/>
-      <c r="S15" s="949"/>
-      <c r="T15" s="950"/>
+      <c r="S15" s="962"/>
+      <c r="T15" s="963"/>
       <c r="W15" s="25"/>
     </row>
     <row r="16" spans="1:23" ht="17.25">
@@ -65390,19 +65390,19 @@
         <v>1316</v>
       </c>
       <c r="R16" s="163"/>
-      <c r="S16" s="949"/>
-      <c r="T16" s="950"/>
+      <c r="S16" s="962"/>
+      <c r="T16" s="963"/>
       <c r="W16" s="25"/>
     </row>
     <row r="17" spans="2:23" ht="17.25">
       <c r="B17" s="875" t="s">
         <v>1344</v>
       </c>
-      <c r="C17" s="958" t="s">
+      <c r="C17" s="971" t="s">
         <v>1345</v>
       </c>
-      <c r="D17" s="959"/>
-      <c r="E17" s="960"/>
+      <c r="D17" s="972"/>
+      <c r="E17" s="973"/>
       <c r="F17" s="139"/>
       <c r="G17" s="125"/>
       <c r="H17" s="125"/>
@@ -65420,8 +65420,8 @@
         <v>1346</v>
       </c>
       <c r="R17" s="151"/>
-      <c r="S17" s="949"/>
-      <c r="T17" s="950"/>
+      <c r="S17" s="962"/>
+      <c r="T17" s="963"/>
       <c r="W17" s="25"/>
     </row>
     <row r="18" spans="2:23" ht="17.25">
@@ -65433,16 +65433,16 @@
       </c>
       <c r="D18" s="140"/>
       <c r="E18" s="663"/>
-      <c r="F18" s="958"/>
-      <c r="G18" s="961"/>
-      <c r="H18" s="961"/>
-      <c r="I18" s="961"/>
-      <c r="J18" s="961"/>
-      <c r="K18" s="961"/>
-      <c r="L18" s="961"/>
-      <c r="M18" s="961"/>
-      <c r="N18" s="961"/>
-      <c r="O18" s="962"/>
+      <c r="F18" s="971"/>
+      <c r="G18" s="974"/>
+      <c r="H18" s="974"/>
+      <c r="I18" s="974"/>
+      <c r="J18" s="974"/>
+      <c r="K18" s="974"/>
+      <c r="L18" s="974"/>
+      <c r="M18" s="974"/>
+      <c r="N18" s="974"/>
+      <c r="O18" s="975"/>
       <c r="P18" s="177" t="s">
         <v>1351</v>
       </c>
@@ -65450,8 +65450,8 @@
         <v>1354</v>
       </c>
       <c r="R18" s="151"/>
-      <c r="S18" s="949"/>
-      <c r="T18" s="950"/>
+      <c r="S18" s="962"/>
+      <c r="T18" s="963"/>
       <c r="W18" s="25"/>
     </row>
     <row r="19" spans="2:23" ht="18" thickBot="1">
@@ -65472,8 +65472,8 @@
       <c r="P19" s="195"/>
       <c r="Q19" s="170"/>
       <c r="R19" s="361"/>
-      <c r="S19" s="951"/>
-      <c r="T19" s="952"/>
+      <c r="S19" s="964"/>
+      <c r="T19" s="965"/>
       <c r="W19" s="25"/>
     </row>
     <row r="20" spans="2:23">
@@ -66313,11 +66313,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="J7:T7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:I8"/>
     <mergeCell ref="S14:T19"/>
     <mergeCell ref="F14:O14"/>
     <mergeCell ref="D9:E9"/>
@@ -66326,6 +66321,11 @@
     <mergeCell ref="F18:O18"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="F9:I9"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="J7:T7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:I8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.5805555555555556" right="0.70866141732283472" top="0.76388888888888884" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -66423,46 +66423,46 @@
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="968" t="s">
+      <c r="B8" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="981"/>
-      <c r="D8" s="973" t="s">
+      <c r="D8" s="952" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="973"/>
-      <c r="F8" s="973"/>
-      <c r="G8" s="973"/>
-      <c r="H8" s="973"/>
-      <c r="I8" s="974"/>
-      <c r="J8" s="975" t="s">
+      <c r="E8" s="952"/>
+      <c r="F8" s="952"/>
+      <c r="G8" s="952"/>
+      <c r="H8" s="952"/>
+      <c r="I8" s="953"/>
+      <c r="J8" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="925"/>
-      <c r="L8" s="925"/>
-      <c r="M8" s="925"/>
-      <c r="N8" s="925"/>
-      <c r="O8" s="925"/>
-      <c r="P8" s="925"/>
-      <c r="Q8" s="925"/>
-      <c r="R8" s="925"/>
-      <c r="S8" s="925"/>
-      <c r="T8" s="942"/>
+      <c r="K8" s="906"/>
+      <c r="L8" s="906"/>
+      <c r="M8" s="906"/>
+      <c r="N8" s="906"/>
+      <c r="O8" s="906"/>
+      <c r="P8" s="906"/>
+      <c r="Q8" s="906"/>
+      <c r="R8" s="906"/>
+      <c r="S8" s="906"/>
+      <c r="T8" s="946"/>
     </row>
     <row r="9" spans="1:20" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="970"/>
+      <c r="B9" s="949"/>
       <c r="C9" s="982"/>
-      <c r="D9" s="976" t="s">
+      <c r="D9" s="955" t="s">
         <v>543</v>
       </c>
-      <c r="E9" s="977"/>
-      <c r="F9" s="978" t="s">
+      <c r="E9" s="956"/>
+      <c r="F9" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="979"/>
-      <c r="H9" s="979"/>
-      <c r="I9" s="980"/>
+      <c r="G9" s="958"/>
+      <c r="H9" s="958"/>
+      <c r="I9" s="959"/>
       <c r="J9" s="274" t="s">
         <v>34</v>
       </c>
@@ -66757,45 +66757,45 @@
     </row>
     <row r="7" spans="1:23" s="24" customFormat="1">
       <c r="A7" s="27"/>
-      <c r="B7" s="968" t="s">
+      <c r="B7" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="981"/>
-      <c r="D7" s="973" t="s">
+      <c r="D7" s="952" t="s">
         <v>96</v>
       </c>
-      <c r="E7" s="973"/>
-      <c r="F7" s="973"/>
-      <c r="G7" s="973"/>
-      <c r="H7" s="973"/>
-      <c r="I7" s="974"/>
-      <c r="J7" s="975" t="s">
+      <c r="E7" s="952"/>
+      <c r="F7" s="952"/>
+      <c r="G7" s="952"/>
+      <c r="H7" s="952"/>
+      <c r="I7" s="953"/>
+      <c r="J7" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K7" s="925"/>
-      <c r="L7" s="925"/>
-      <c r="M7" s="925"/>
-      <c r="N7" s="925"/>
-      <c r="O7" s="925"/>
-      <c r="P7" s="925"/>
-      <c r="Q7" s="925"/>
-      <c r="R7" s="925"/>
-      <c r="S7" s="925"/>
-      <c r="T7" s="942"/>
+      <c r="K7" s="906"/>
+      <c r="L7" s="906"/>
+      <c r="M7" s="906"/>
+      <c r="N7" s="906"/>
+      <c r="O7" s="906"/>
+      <c r="P7" s="906"/>
+      <c r="Q7" s="906"/>
+      <c r="R7" s="906"/>
+      <c r="S7" s="906"/>
+      <c r="T7" s="946"/>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1">
-      <c r="B8" s="970"/>
+      <c r="B8" s="949"/>
       <c r="C8" s="982"/>
-      <c r="D8" s="979" t="s">
+      <c r="D8" s="958" t="s">
         <v>619</v>
       </c>
-      <c r="E8" s="979"/>
-      <c r="F8" s="977"/>
-      <c r="G8" s="978" t="s">
+      <c r="E8" s="958"/>
+      <c r="F8" s="956"/>
+      <c r="G8" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H8" s="979"/>
-      <c r="I8" s="980"/>
+      <c r="H8" s="958"/>
+      <c r="I8" s="959"/>
       <c r="J8" s="274" t="s">
         <v>34</v>
       </c>
@@ -66829,20 +66829,20 @@
       <c r="T8" s="210"/>
     </row>
     <row r="9" spans="1:23" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B9" s="963" t="s">
+      <c r="B9" s="976" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="964"/>
+      <c r="C9" s="977"/>
       <c r="D9" s="992" t="s">
         <v>237</v>
       </c>
       <c r="E9" s="993"/>
       <c r="F9" s="993"/>
-      <c r="G9" s="965" t="s">
+      <c r="G9" s="978" t="s">
         <v>810</v>
       </c>
-      <c r="H9" s="966"/>
-      <c r="I9" s="967"/>
+      <c r="H9" s="979"/>
+      <c r="I9" s="980"/>
       <c r="J9" s="380"/>
       <c r="K9" s="229" t="s">
         <v>534</v>
@@ -68087,45 +68087,45 @@
     </row>
     <row r="8" spans="1:20" s="24" customFormat="1" ht="17.649999999999999" customHeight="1">
       <c r="A8" s="27"/>
-      <c r="B8" s="968" t="s">
+      <c r="B8" s="947" t="s">
         <v>97</v>
       </c>
       <c r="C8" s="981"/>
-      <c r="D8" s="973" t="s">
+      <c r="D8" s="952" t="s">
         <v>96</v>
       </c>
-      <c r="E8" s="973"/>
-      <c r="F8" s="973"/>
-      <c r="G8" s="973"/>
-      <c r="H8" s="973"/>
-      <c r="I8" s="974"/>
-      <c r="J8" s="975" t="s">
+      <c r="E8" s="952"/>
+      <c r="F8" s="952"/>
+      <c r="G8" s="952"/>
+      <c r="H8" s="952"/>
+      <c r="I8" s="953"/>
+      <c r="J8" s="954" t="s">
         <v>31</v>
       </c>
-      <c r="K8" s="925"/>
-      <c r="L8" s="925"/>
-      <c r="M8" s="925"/>
-      <c r="N8" s="925"/>
-      <c r="O8" s="925"/>
-      <c r="P8" s="925"/>
-      <c r="Q8" s="925"/>
-      <c r="R8" s="925"/>
-      <c r="S8" s="925"/>
-      <c r="T8" s="942"/>
+      <c r="K8" s="906"/>
+      <c r="L8" s="906"/>
+      <c r="M8" s="906"/>
+      <c r="N8" s="906"/>
+      <c r="O8" s="906"/>
+      <c r="P8" s="906"/>
+      <c r="Q8" s="906"/>
+      <c r="R8" s="906"/>
+      <c r="S8" s="906"/>
+      <c r="T8" s="946"/>
     </row>
     <row r="9" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B9" s="970"/>
+      <c r="B9" s="949"/>
       <c r="C9" s="982"/>
-      <c r="D9" s="979" t="s">
+      <c r="D9" s="958" t="s">
         <v>619</v>
       </c>
-      <c r="E9" s="979"/>
-      <c r="F9" s="977"/>
-      <c r="G9" s="978" t="s">
+      <c r="E9" s="958"/>
+      <c r="F9" s="956"/>
+      <c r="G9" s="957" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="979"/>
-      <c r="I9" s="980"/>
+      <c r="H9" s="958"/>
+      <c r="I9" s="959"/>
       <c r="J9" s="274" t="s">
         <v>34</v>
       </c>
